--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G2" t="n">
         <v>0.5714285714285714</v>
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.252056</t>
+          <t>2025-10-16T12:16:19.838136</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G3" t="n">
         <v>0.5714285714285714</v>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.252056</t>
+          <t>2025-10-16T12:16:19.838136</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G4" t="n">
         <v>0.5714285714285714</v>
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.252056</t>
+          <t>2025-10-16T12:16:19.839133</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G5" t="n">
         <v>0.5714285714285714</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.252056</t>
+          <t>2025-10-16T12:16:19.839133</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G6" t="n">
         <v>0.5714285714285714</v>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.252056</t>
+          <t>2025-10-16T12:16:19.839133</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G7" t="n">
         <v>0.5714285714285714</v>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.253055</t>
+          <t>2025-10-16T12:16:19.839133</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G8" t="n">
         <v>0.5714285714285714</v>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.253055</t>
+          <t>2025-10-16T12:16:19.839133</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G9" t="n">
         <v>0.5714285714285714</v>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.253055</t>
+          <t>2025-10-16T12:16:19.839133</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G10" t="n">
         <v>0.5714285714285714</v>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.253055</t>
+          <t>2025-10-16T12:16:19.839133</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G11" t="n">
         <v>0.5714285714285714</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.253055</t>
+          <t>2025-10-16T12:16:19.839133</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G12" t="n">
         <v>0.5714285714285714</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.253055</t>
+          <t>2025-10-16T12:16:19.840129</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G13" t="n">
         <v>0.5714285714285714</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.253055</t>
+          <t>2025-10-16T12:16:19.840129</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G14" t="n">
         <v>0.5714285714285714</v>
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.253055</t>
+          <t>2025-10-16T12:16:19.840129</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G15" t="n">
         <v>0.5714285714285714</v>
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.254054</t>
+          <t>2025-10-16T12:16:19.840129</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G16" t="n">
         <v>0.5714285714285714</v>
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.254054</t>
+          <t>2025-10-16T12:16:19.840129</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G17" t="n">
         <v>0.5714285714285714</v>
@@ -1919,7 +1919,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.254054</t>
+          <t>2025-10-16T12:16:19.840129</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G18" t="n">
         <v>0.5714285714285714</v>
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.254054</t>
+          <t>2025-10-16T12:16:19.840129</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G19" t="n">
         <v>0.5714285714285714</v>
@@ -2095,7 +2095,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.254054</t>
+          <t>2025-10-16T12:16:19.840129</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G20" t="n">
         <v>0.5714285714285714</v>
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.254054</t>
+          <t>2025-10-16T12:16:19.840129</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G21" t="n">
         <v>0.5714285714285714</v>
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.254054</t>
+          <t>2025-10-16T12:16:19.841128</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G22" t="n">
         <v>0.5714285714285714</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.254054</t>
+          <t>2025-10-16T12:16:19.841128</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G23" t="n">
         <v>0.5714285714285714</v>
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.255055</t>
+          <t>2025-10-16T12:16:19.841128</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G24" t="n">
         <v>0.5714285714285714</v>
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.255055</t>
+          <t>2025-10-16T12:16:19.841128</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G25" t="n">
         <v>0.5714285714285714</v>
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.255055</t>
+          <t>2025-10-16T12:16:19.841128</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G26" t="n">
         <v>0.5714285714285714</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.255055</t>
+          <t>2025-10-16T12:16:19.841128</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G27" t="n">
         <v>0.5714285714285714</v>
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.255055</t>
+          <t>2025-10-16T12:16:19.841128</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G28" t="n">
         <v>0.5714285714285714</v>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.255055</t>
+          <t>2025-10-16T12:16:19.841128</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G29" t="n">
         <v>0.5714285714285714</v>
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.255055</t>
+          <t>2025-10-16T12:16:19.842134</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G30" t="n">
         <v>0.5714285714285714</v>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.255055</t>
+          <t>2025-10-16T12:16:19.842134</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G31" t="n">
         <v>0.5714285714285714</v>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.255055</t>
+          <t>2025-10-16T12:16:19.842134</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G32" t="n">
         <v>0.5714285714285714</v>
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.256054</t>
+          <t>2025-10-16T12:16:19.842134</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G33" t="n">
         <v>0.5714285714285714</v>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.256054</t>
+          <t>2025-10-16T12:16:19.842134</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G34" t="n">
         <v>0.5714285714285714</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.256054</t>
+          <t>2025-10-16T12:16:19.842134</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G35" t="n">
         <v>0.5714285714285714</v>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.256054</t>
+          <t>2025-10-16T12:16:19.843130</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G36" t="n">
         <v>0.5714285714285714</v>
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.256054</t>
+          <t>2025-10-16T12:16:19.843130</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G37" t="n">
         <v>0.5714285714285714</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.256054</t>
+          <t>2025-10-16T12:16:19.843130</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G38" t="n">
         <v>0.5714285714285714</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.256054</t>
+          <t>2025-10-16T12:16:19.843130</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G39" t="n">
         <v>0.5714285714285714</v>
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.256054</t>
+          <t>2025-10-16T12:16:19.843130</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G40" t="n">
         <v>0.5714285714285714</v>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.257054</t>
+          <t>2025-10-16T12:16:19.843130</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G41" t="n">
         <v>0.5714285714285714</v>
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.257054</t>
+          <t>2025-10-16T12:16:19.843130</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G42" t="n">
         <v>0.5714285714285714</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.257054</t>
+          <t>2025-10-16T12:16:19.843130</t>
         </is>
       </c>
     </row>
@@ -4192,7 +4192,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G43" t="n">
         <v>0.5714285714285714</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.257054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G44" t="n">
         <v>0.5714285714285714</v>
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.257054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G45" t="n">
         <v>0.5714285714285714</v>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.257054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G46" t="n">
         <v>0.5714285714285714</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.257054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G47" t="n">
         <v>0.5714285714285714</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.257054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G48" t="n">
         <v>0.5714285714285714</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.257054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G49" t="n">
         <v>0.5714285714285714</v>
@@ -4785,7 +4785,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.258054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G50" t="n">
         <v>0.5714285714285714</v>
@@ -4873,7 +4873,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.258054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G51" t="n">
         <v>0.5714285714285714</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
@@ -4961,7 +4961,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.258054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G52" t="n">
         <v>0.5714285714285714</v>
@@ -5049,7 +5049,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.258054</t>
+          <t>2025-10-16T12:16:19.844128</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G53" t="n">
         <v>0.5714285714285714</v>
@@ -5137,7 +5137,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.258054</t>
+          <t>2025-10-16T12:16:19.845128</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G54" t="n">
         <v>0.5714285714285714</v>
@@ -5175,7 +5175,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
@@ -5225,7 +5225,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.258054</t>
+          <t>2025-10-16T12:16:19.845128</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G55" t="n">
         <v>0.5714285714285714</v>
@@ -5313,7 +5313,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.258054</t>
+          <t>2025-10-16T12:16:19.845128</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G56" t="n">
         <v>0.5714285714285714</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
@@ -5401,7 +5401,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.258054</t>
+          <t>2025-10-16T12:16:19.845128</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G57" t="n">
         <v>0.5714285714285714</v>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
@@ -5489,7 +5489,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.259054</t>
+          <t>2025-10-16T12:16:19.845128</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G58" t="n">
         <v>0.5714285714285714</v>
@@ -5577,7 +5577,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.259054</t>
+          <t>2025-10-16T12:16:19.845128</t>
         </is>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G59" t="n">
         <v>0.5714285714285714</v>
@@ -5615,7 +5615,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
@@ -5665,7 +5665,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.259054</t>
+          <t>2025-10-16T12:16:19.845128</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G60" t="n">
         <v>0.5714285714285714</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
@@ -5753,7 +5753,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.259054</t>
+          <t>2025-10-16T12:16:19.845128</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G61" t="n">
         <v>0.5714285714285714</v>
@@ -5841,7 +5841,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.259054</t>
+          <t>2025-10-16T12:16:19.845128</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G62" t="n">
         <v>0.5714285714285714</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
@@ -5929,7 +5929,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.259054</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -5952,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G63" t="n">
         <v>0.5714285714285714</v>
@@ -6017,7 +6017,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.259054</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G64" t="n">
         <v>0.5714285714285714</v>
@@ -6105,7 +6105,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.259054</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G65" t="n">
         <v>0.5714285714285714</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
@@ -6193,7 +6193,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.259054</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G66" t="n">
         <v>0.5714285714285714</v>
@@ -6281,7 +6281,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.260149</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -6304,7 +6304,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G67" t="n">
         <v>0.5714285714285714</v>
@@ -6369,7 +6369,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.260149</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G68" t="n">
         <v>0.5714285714285714</v>
@@ -6457,7 +6457,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.260149</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G69" t="n">
         <v>0.5714285714285714</v>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
@@ -6545,7 +6545,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.260149</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G70" t="n">
         <v>0.5714285714285714</v>
@@ -6633,7 +6633,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.261151</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G71" t="n">
         <v>0.5714285714285714</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
@@ -6721,7 +6721,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.261151</t>
+          <t>2025-10-16T12:16:19.846128</t>
         </is>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G72" t="n">
         <v>0.5714285714285714</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
@@ -6809,7 +6809,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.261151</t>
+          <t>2025-10-16T12:16:19.847128</t>
         </is>
       </c>
     </row>
@@ -6832,7 +6832,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G73" t="n">
         <v>0.5714285714285714</v>
@@ -6897,7 +6897,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.261151</t>
+          <t>2025-10-16T12:16:19.847128</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G74" t="n">
         <v>0.5714285714285714</v>
@@ -6935,7 +6935,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
@@ -6985,7 +6985,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.261151</t>
+          <t>2025-10-16T12:16:19.847128</t>
         </is>
       </c>
     </row>
@@ -7008,7 +7008,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G75" t="n">
         <v>0.5714285714285714</v>
@@ -7073,7 +7073,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.262148</t>
+          <t>2025-10-16T12:16:19.847128</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G76" t="n">
         <v>0.5714285714285714</v>
@@ -7161,7 +7161,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.262148</t>
+          <t>2025-10-16T12:16:19.847128</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G77" t="n">
         <v>0.5714285714285714</v>
@@ -7249,7 +7249,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.262148</t>
+          <t>2025-10-16T12:16:19.847128</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G78" t="n">
         <v>0.5714285714285714</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
@@ -7337,7 +7337,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.262148</t>
+          <t>2025-10-16T12:16:19.847128</t>
         </is>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G79" t="n">
         <v>0.5714285714285714</v>
@@ -7425,7 +7425,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.262148</t>
+          <t>2025-10-16T12:16:19.847128</t>
         </is>
       </c>
     </row>
@@ -7448,7 +7448,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G80" t="n">
         <v>0.5714285714285714</v>
@@ -7463,7 +7463,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
@@ -7513,7 +7513,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.262148</t>
+          <t>2025-10-16T12:16:19.847128</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G81" t="n">
         <v>0.5714285714285714</v>
@@ -7601,7 +7601,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.262148</t>
+          <t>2025-10-16T12:16:19.848128</t>
         </is>
       </c>
     </row>
@@ -7624,7 +7624,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G82" t="n">
         <v>0.5714285714285714</v>
@@ -7689,7 +7689,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.262148</t>
+          <t>2025-10-16T12:16:19.848128</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G83" t="n">
         <v>0.5714285714285714</v>
@@ -7777,7 +7777,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.263148</t>
+          <t>2025-10-16T12:16:19.848128</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G84" t="n">
         <v>0.5714285714285714</v>
@@ -7865,7 +7865,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.263148</t>
+          <t>2025-10-16T12:16:19.848128</t>
         </is>
       </c>
     </row>
@@ -7888,7 +7888,7 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G85" t="n">
         <v>0.5714285714285714</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
@@ -7953,7 +7953,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.263148</t>
+          <t>2025-10-16T12:16:19.848128</t>
         </is>
       </c>
     </row>
@@ -7976,7 +7976,7 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G86" t="n">
         <v>0.5714285714285714</v>
@@ -8041,7 +8041,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.263148</t>
+          <t>2025-10-16T12:16:19.848128</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G87" t="n">
         <v>0.5714285714285714</v>
@@ -8129,7 +8129,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.263148</t>
+          <t>2025-10-16T12:16:19.848128</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G88" t="n">
         <v>0.5714285714285714</v>
@@ -8217,7 +8217,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.263148</t>
+          <t>2025-10-16T12:16:19.848128</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G89" t="n">
         <v>0.5714285714285714</v>
@@ -8305,7 +8305,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.263148</t>
+          <t>2025-10-16T12:16:19.848128</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G90" t="n">
         <v>0.5714285714285714</v>
@@ -8393,7 +8393,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.263148</t>
+          <t>2025-10-16T12:16:19.849128</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G91" t="n">
         <v>0.5714285714285714</v>
@@ -8481,7 +8481,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.263148</t>
+          <t>2025-10-16T12:16:19.849128</t>
         </is>
       </c>
     </row>
@@ -8504,7 +8504,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G92" t="n">
         <v>0.5714285714285714</v>
@@ -8569,7 +8569,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.264148</t>
+          <t>2025-10-16T12:16:19.849128</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G93" t="n">
         <v>0.5714285714285714</v>
@@ -8657,7 +8657,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.264148</t>
+          <t>2025-10-16T12:16:19.849128</t>
         </is>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G94" t="n">
         <v>0.5714285714285714</v>
@@ -8695,7 +8695,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
@@ -8745,7 +8745,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.264148</t>
+          <t>2025-10-16T12:16:19.849128</t>
         </is>
       </c>
     </row>
@@ -8768,7 +8768,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G95" t="n">
         <v>0.5714285714285714</v>
@@ -8833,7 +8833,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.264148</t>
+          <t>2025-10-16T12:16:19.849128</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G96" t="n">
         <v>0.5714285714285714</v>
@@ -8921,7 +8921,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.264148</t>
+          <t>2025-10-16T12:16:19.850136</t>
         </is>
       </c>
     </row>
@@ -8944,7 +8944,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G97" t="n">
         <v>0.5714285714285714</v>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
@@ -9009,7 +9009,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.264148</t>
+          <t>2025-10-16T12:16:19.850136</t>
         </is>
       </c>
     </row>
@@ -9032,7 +9032,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G98" t="n">
         <v>0.5714285714285714</v>
@@ -9097,7 +9097,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.264148</t>
+          <t>2025-10-16T12:16:19.850136</t>
         </is>
       </c>
     </row>
@@ -9120,7 +9120,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G99" t="n">
         <v>0.5714285714285714</v>
@@ -9185,7 +9185,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.264148</t>
+          <t>2025-10-16T12:16:19.850136</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G100" t="n">
         <v>0.5714285714285714</v>
@@ -9273,7 +9273,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.265147</t>
+          <t>2025-10-16T12:16:19.851135</t>
         </is>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G101" t="n">
         <v>0.5714285714285714</v>
@@ -9361,7 +9361,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.265147</t>
+          <t>2025-10-16T12:16:19.851135</t>
         </is>
       </c>
     </row>
@@ -9384,7 +9384,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G102" t="n">
         <v>0.5714285714285714</v>
@@ -9449,7 +9449,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.265147</t>
+          <t>2025-10-16T12:16:19.851135</t>
         </is>
       </c>
     </row>
@@ -9472,7 +9472,7 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G103" t="n">
         <v>0.5714285714285714</v>
@@ -9537,7 +9537,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.265147</t>
+          <t>2025-10-16T12:16:19.853137</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G104" t="n">
         <v>0.5714285714285714</v>
@@ -9625,7 +9625,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.265147</t>
+          <t>2025-10-16T12:16:19.853137</t>
         </is>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G105" t="n">
         <v>0.5714285714285714</v>
@@ -9713,7 +9713,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.265147</t>
+          <t>2025-10-16T12:16:19.853137</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G106" t="n">
         <v>0.5714285714285714</v>
@@ -9801,7 +9801,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.265147</t>
+          <t>2025-10-16T12:16:19.854137</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G107" t="n">
         <v>0.5714285714285714</v>
@@ -9889,7 +9889,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.265147</t>
+          <t>2025-10-16T12:16:19.854137</t>
         </is>
       </c>
     </row>
@@ -9912,7 +9912,7 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G108" t="n">
         <v>0.5714285714285714</v>
@@ -9977,7 +9977,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.265147</t>
+          <t>2025-10-16T12:16:19.854137</t>
         </is>
       </c>
     </row>
@@ -10000,7 +10000,7 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G109" t="n">
         <v>0.5714285714285714</v>
@@ -10065,7 +10065,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.266147</t>
+          <t>2025-10-16T12:16:19.854137</t>
         </is>
       </c>
     </row>
@@ -10088,7 +10088,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G110" t="n">
         <v>0.5714285714285714</v>
@@ -10153,7 +10153,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.266147</t>
+          <t>2025-10-16T12:16:19.854137</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10176,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G111" t="n">
         <v>0.5714285714285714</v>
@@ -10241,7 +10241,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.266147</t>
+          <t>2025-10-16T12:16:19.854137</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G112" t="n">
         <v>0.5714285714285714</v>
@@ -10329,7 +10329,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.266147</t>
+          <t>2025-10-16T12:16:19.854137</t>
         </is>
       </c>
     </row>
@@ -10352,7 +10352,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G113" t="n">
         <v>0.5714285714285714</v>
@@ -10417,7 +10417,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.266147</t>
+          <t>2025-10-16T12:16:19.854137</t>
         </is>
       </c>
     </row>
@@ -10440,7 +10440,7 @@
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G114" t="n">
         <v>0.5714285714285714</v>
@@ -10505,7 +10505,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.266147</t>
+          <t>2025-10-16T12:16:19.855131</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G115" t="n">
         <v>0.5714285714285714</v>
@@ -10543,7 +10543,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
@@ -10593,7 +10593,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.266147</t>
+          <t>2025-10-16T12:16:19.855131</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G116" t="n">
         <v>0.5714285714285714</v>
@@ -10681,7 +10681,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.266147</t>
+          <t>2025-10-16T12:16:19.855131</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G117" t="n">
         <v>0.5714285714285714</v>
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
@@ -10769,7 +10769,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.267148</t>
+          <t>2025-10-16T12:16:19.855131</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G118" t="n">
         <v>0.5714285714285714</v>
@@ -10857,7 +10857,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.267148</t>
+          <t>2025-10-16T12:16:19.855131</t>
         </is>
       </c>
     </row>
@@ -10880,7 +10880,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G119" t="n">
         <v>0.5714285714285714</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
@@ -10945,7 +10945,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.267148</t>
+          <t>2025-10-16T12:16:19.855131</t>
         </is>
       </c>
     </row>
@@ -10968,7 +10968,7 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G120" t="n">
         <v>0.5714285714285714</v>
@@ -11033,7 +11033,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.267148</t>
+          <t>2025-10-16T12:16:19.855131</t>
         </is>
       </c>
     </row>
@@ -11056,7 +11056,7 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G121" t="n">
         <v>0.5714285714285714</v>
@@ -11071,7 +11071,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
@@ -11121,7 +11121,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.267148</t>
+          <t>2025-10-16T12:16:19.855131</t>
         </is>
       </c>
     </row>
@@ -11144,7 +11144,7 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G122" t="n">
         <v>0.5714285714285714</v>
@@ -11209,7 +11209,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.267148</t>
+          <t>2025-10-16T12:16:19.855131</t>
         </is>
       </c>
     </row>
@@ -11232,7 +11232,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G123" t="n">
         <v>0.5714285714285714</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
@@ -11297,7 +11297,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.267148</t>
+          <t>2025-10-16T12:16:19.856130</t>
         </is>
       </c>
     </row>
@@ -11320,7 +11320,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G124" t="n">
         <v>0.5714285714285714</v>
@@ -11335,7 +11335,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
@@ -11385,7 +11385,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.268149</t>
+          <t>2025-10-16T12:16:19.856130</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G125" t="n">
         <v>0.5714285714285714</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
@@ -11473,7 +11473,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.268149</t>
+          <t>2025-10-16T12:16:19.856130</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G126" t="n">
         <v>0.5714285714285714</v>
@@ -11561,7 +11561,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.268149</t>
+          <t>2025-10-16T12:16:19.856130</t>
         </is>
       </c>
     </row>
@@ -11584,7 +11584,7 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G127" t="n">
         <v>0.5714285714285714</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
@@ -11649,7 +11649,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.268149</t>
+          <t>2025-10-16T12:16:19.856130</t>
         </is>
       </c>
     </row>
@@ -11672,7 +11672,7 @@
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G128" t="n">
         <v>0.5714285714285714</v>
@@ -11737,7 +11737,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.268149</t>
+          <t>2025-10-16T12:16:19.856130</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G129" t="n">
         <v>0.5714285714285714</v>
@@ -11825,7 +11825,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.268149</t>
+          <t>2025-10-16T12:16:19.856130</t>
         </is>
       </c>
     </row>
@@ -11848,7 +11848,7 @@
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G130" t="n">
         <v>0.5714285714285714</v>
@@ -11913,7 +11913,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.268149</t>
+          <t>2025-10-16T12:16:19.856130</t>
         </is>
       </c>
     </row>
@@ -11936,7 +11936,7 @@
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G131" t="n">
         <v>0.5714285714285714</v>
@@ -12001,7 +12001,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.268149</t>
+          <t>2025-10-16T12:16:19.857130</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G132" t="n">
         <v>0.5714285714285714</v>
@@ -12089,7 +12089,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.269148</t>
+          <t>2025-10-16T12:16:19.857130</t>
         </is>
       </c>
     </row>
@@ -12112,7 +12112,7 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G133" t="n">
         <v>0.5714285714285714</v>
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
@@ -12177,7 +12177,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.269148</t>
+          <t>2025-10-16T12:16:19.857130</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G134" t="n">
         <v>0.5714285714285714</v>
@@ -12265,7 +12265,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.269148</t>
+          <t>2025-10-16T12:16:19.857130</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G135" t="n">
         <v>0.5714285714285714</v>
@@ -12353,7 +12353,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.269148</t>
+          <t>2025-10-16T12:16:19.857130</t>
         </is>
       </c>
     </row>
@@ -12376,7 +12376,7 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G136" t="n">
         <v>0.5714285714285714</v>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
@@ -12441,7 +12441,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.269148</t>
+          <t>2025-10-16T12:16:19.857130</t>
         </is>
       </c>
     </row>
@@ -12464,7 +12464,7 @@
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G137" t="n">
         <v>0.5714285714285714</v>
@@ -12529,7 +12529,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.269148</t>
+          <t>2025-10-16T12:16:19.857130</t>
         </is>
       </c>
     </row>
@@ -12552,7 +12552,7 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G138" t="n">
         <v>0.5714285714285714</v>
@@ -12567,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
@@ -12617,7 +12617,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.270148</t>
+          <t>2025-10-16T12:16:19.857130</t>
         </is>
       </c>
     </row>
@@ -12640,7 +12640,7 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G139" t="n">
         <v>0.5714285714285714</v>
@@ -12705,7 +12705,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.270148</t>
+          <t>2025-10-16T12:16:19.858130</t>
         </is>
       </c>
     </row>
@@ -12728,7 +12728,7 @@
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G140" t="n">
         <v>0.5714285714285714</v>
@@ -12793,7 +12793,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.270148</t>
+          <t>2025-10-16T12:16:19.858130</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G141" t="n">
         <v>0.5714285714285714</v>
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
@@ -12881,7 +12881,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.270148</t>
+          <t>2025-10-16T12:16:19.858130</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G142" t="n">
         <v>0.5714285714285714</v>
@@ -12919,7 +12919,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
@@ -12969,7 +12969,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.270148</t>
+          <t>2025-10-16T12:16:19.858130</t>
         </is>
       </c>
     </row>
@@ -12992,7 +12992,7 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G143" t="n">
         <v>0.5714285714285714</v>
@@ -13007,7 +13007,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
@@ -13057,7 +13057,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.270148</t>
+          <t>2025-10-16T12:16:19.858130</t>
         </is>
       </c>
     </row>
@@ -13080,7 +13080,7 @@
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G144" t="n">
         <v>0.5714285714285714</v>
@@ -13145,7 +13145,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.270148</t>
+          <t>2025-10-16T12:16:19.858130</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G145" t="n">
         <v>0.5714285714285714</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
@@ -13233,7 +13233,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.270148</t>
+          <t>2025-10-16T12:16:19.858130</t>
         </is>
       </c>
     </row>
@@ -13256,7 +13256,7 @@
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G146" t="n">
         <v>0.5714285714285714</v>
@@ -13321,7 +13321,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.271148</t>
+          <t>2025-10-16T12:16:19.858130</t>
         </is>
       </c>
     </row>
@@ -13344,7 +13344,7 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G147" t="n">
         <v>0.5714285714285714</v>
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
@@ -13409,7 +13409,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.271148</t>
+          <t>2025-10-16T12:16:19.858130</t>
         </is>
       </c>
     </row>
@@ -13432,7 +13432,7 @@
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G148" t="n">
         <v>0.5714285714285714</v>
@@ -13497,7 +13497,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.271148</t>
+          <t>2025-10-16T12:16:19.859130</t>
         </is>
       </c>
     </row>
@@ -13520,7 +13520,7 @@
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G149" t="n">
         <v>0.5714285714285714</v>
@@ -13585,7 +13585,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.271148</t>
+          <t>2025-10-16T12:16:19.859130</t>
         </is>
       </c>
     </row>
@@ -13608,7 +13608,7 @@
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G150" t="n">
         <v>0.5714285714285714</v>
@@ -13673,7 +13673,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.271148</t>
+          <t>2025-10-16T12:16:19.859130</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G151" t="n">
         <v>0.5714285714285714</v>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
@@ -13761,7 +13761,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.271148</t>
+          <t>2025-10-16T12:16:19.859130</t>
         </is>
       </c>
     </row>
@@ -13784,7 +13784,7 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G152" t="n">
         <v>0.5714285714285714</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
@@ -13849,7 +13849,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.271148</t>
+          <t>2025-10-16T12:16:19.859130</t>
         </is>
       </c>
     </row>
@@ -13872,7 +13872,7 @@
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G153" t="n">
         <v>0.5714285714285714</v>
@@ -13937,7 +13937,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.271148</t>
+          <t>2025-10-16T12:16:19.859130</t>
         </is>
       </c>
     </row>
@@ -13960,7 +13960,7 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G154" t="n">
         <v>0.5714285714285714</v>
@@ -14025,7 +14025,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.271148</t>
+          <t>2025-10-16T12:16:19.859130</t>
         </is>
       </c>
     </row>
@@ -14048,7 +14048,7 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G155" t="n">
         <v>0.5714285714285714</v>
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
@@ -14113,7 +14113,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.272148</t>
+          <t>2025-10-16T12:16:19.859130</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14136,7 @@
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G156" t="n">
         <v>0.5714285714285714</v>
@@ -14201,7 +14201,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.272148</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -14224,7 +14224,7 @@
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G157" t="n">
         <v>0.5714285714285714</v>
@@ -14289,7 +14289,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.272148</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G158" t="n">
         <v>0.5714285714285714</v>
@@ -14377,7 +14377,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.272148</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -14400,7 +14400,7 @@
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G159" t="n">
         <v>0.5714285714285714</v>
@@ -14465,7 +14465,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.272148</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G160" t="n">
         <v>0.5714285714285714</v>
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
@@ -14553,7 +14553,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.272148</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -14576,7 +14576,7 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G161" t="n">
         <v>0.5714285714285714</v>
@@ -14641,7 +14641,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.272148</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -14664,7 +14664,7 @@
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G162" t="n">
         <v>0.5714285714285714</v>
@@ -14729,7 +14729,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.272148</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -14752,7 +14752,7 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G163" t="n">
         <v>0.5714285714285714</v>
@@ -14767,7 +14767,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
@@ -14817,7 +14817,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.273147</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -14840,7 +14840,7 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G164" t="n">
         <v>0.5714285714285714</v>
@@ -14905,7 +14905,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.273147</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -14928,7 +14928,7 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G165" t="n">
         <v>0.5714285714285714</v>
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
@@ -14993,7 +14993,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.273147</t>
+          <t>2025-10-16T12:16:19.860130</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G166" t="n">
         <v>0.5714285714285714</v>
@@ -15031,7 +15031,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
@@ -15081,7 +15081,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.273147</t>
+          <t>2025-10-16T12:16:19.861130</t>
         </is>
       </c>
     </row>
@@ -15104,7 +15104,7 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G167" t="n">
         <v>0.5714285714285714</v>
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
@@ -15169,7 +15169,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.273147</t>
+          <t>2025-10-16T12:16:19.861130</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G168" t="n">
         <v>0.5714285714285714</v>
@@ -15257,7 +15257,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.273147</t>
+          <t>2025-10-16T12:16:19.861130</t>
         </is>
       </c>
     </row>
@@ -15280,7 +15280,7 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G169" t="n">
         <v>0.5714285714285714</v>
@@ -15295,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
@@ -15345,7 +15345,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.273147</t>
+          <t>2025-10-16T12:16:19.861130</t>
         </is>
       </c>
     </row>
@@ -15368,7 +15368,7 @@
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G170" t="n">
         <v>0.5714285714285714</v>
@@ -15433,7 +15433,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.273147</t>
+          <t>2025-10-16T12:16:19.861130</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G171" t="n">
         <v>0.5714285714285714</v>
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
@@ -15521,7 +15521,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:46.273147</t>
+          <t>2025-10-16T12:16:19.861130</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G2" t="n">
         <v>0.5714285714285714</v>
@@ -623,7 +623,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[1.8699456462780393, 1.9310291903366734, 2.1187842612958963, 2.157114632593742, 2.309014130170618, 2.3372883002611866, 2.4649257335029087]</t>
+          <t>[1.8699456453323364, 1.9310290813446045, 2.118784189224243, 2.1571145057678223, 2.309014320373535, 2.3372886180877686, 2.464925527572632]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -633,14 +633,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[1.9310291903366734, 1.8699456462780393, 2.157114632593742, 2.1187842612958963, 2.4649257335029087, 2.5975406505908887, 2.6666405850970385]</t>
+          <t>[1.9310290813446045, 1.8699456453323364, 2.1571145057678223, 2.118784189224243, 2.464925527572632, 2.597540855407715, 2.666640520095825]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8905376251045024</v>
+        <v>0.8905375599861145</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.838136</t>
+          <t>2025-10-17T02:10:02.559099</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G3" t="n">
         <v>0.5714285714285714</v>
@@ -711,7 +711,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[3.357035373690134, 4.657368450840615, 4.551328003068311, 4.360157601979225, 4.227651771241657, 4.7412606399789885, 4.158799051101398]</t>
+          <t>[3.3570351600646973, 4.6573686599731445, 4.551328182220459, 4.360157489776611, 4.227651596069336, 4.741261005401611, 4.158799171447754]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -721,14 +721,14 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[3.357035373690134, 4.657368450840615, 4.551328003068311, 4.360157601979225, 4.227651771241657, 4.7412606399789885, 4.158799051101398]</t>
+          <t>[3.3570351600646973, 4.6573686599731445, 4.551328182220459, 4.360157489776611, 4.227651596069336, 4.741261005401611, 4.158799171447754]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.002574741857509</v>
+        <v>1.002574682235718</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.838136</t>
+          <t>2025-10-17T02:10:02.559099</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G4" t="n">
         <v>0.5714285714285714</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[2.765618588919533, 2.637667802357196, 2.9558347247120693, 3.0747294711528927, 3.437535354444313, 3.208827984996173, 2.942256578333335]</t>
+          <t>[2.7656188011169434, 2.6376678943634033, 2.9558346271514893, 3.0747292041778564, 3.437535285949707, 3.2088279724121094, 2.9422569274902344]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -809,14 +809,14 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[2.765618588919533, 2.637667802357196, 2.9558347247120693, 3.0747294711528927, 3.437535354444313, 3.208827984996173, 2.942256578333335]</t>
+          <t>[2.7656188011169434, 2.6376678943634033, 2.9558346271514893, 3.0747292041778564, 3.437535285949707, 3.2088279724121094, 2.9422569274902344]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9325032910788938</v>
+        <v>0.9325032234191895</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.839133</t>
+          <t>2025-10-17T02:10:02.559099</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G5" t="n">
         <v>0.5714285714285714</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -887,7 +887,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[8.268541943367712, 14.347497452039956, 17.48337011231502, 15.817074294635388, 13.973901799869077, 18.591679370173104, 15.527436547000278]</t>
+          <t>[8.26854133605957, 14.34749698638916, 17.483369827270508, 15.817073822021484, 13.973901748657227, 18.591678619384766, 15.527436256408691]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -897,14 +897,14 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[8.268541943367712, 14.347497452039956, 17.48337011231502, 15.817074294635388, 13.973901799869077, 18.591679370173104, 20.472213993445344]</t>
+          <t>[8.26854133605957, 14.34749698638916, 17.483369827270508, 15.817073822021484, 13.973901748657227, 18.591678619384766, 20.472213745117188]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.536119884719464</v>
+        <v>1.536119818687439</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.839133</t>
+          <t>2025-10-17T02:10:02.559099</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G6" t="n">
         <v>0.5714285714285714</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[2.1290879073336044, 2.0949856713953765, 2.3307847652335973, 2.1981102205145446, 2.4844206772935213, 2.537948094634543, 2.7739619932688373]</t>
+          <t>[2.1290879249572754, 2.0949854850769043, 2.330784320831299, 2.1981098651885986, 2.4844205379486084, 2.5379481315612793, 2.7739617824554443]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -985,14 +985,14 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[2.0949856713953765, 2.3307847652335973, 2.1981102205145446, 2.4844206772935213, 2.537948094634543, 2.881950442561504, 2.7739619932688373]</t>
+          <t>[2.0949854850769043, 2.330784320831299, 2.1981098651885986, 2.4844205379486084, 2.5379481315612793, 2.881950616836548, 2.7739617824554443]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8627520165454562</v>
+        <v>0.8627519011497498</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.839133</t>
+          <t>2025-10-17T02:10:02.559099</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G7" t="n">
         <v>0.5714285714285714</v>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[1.5321094406548483, 1.7858993453005365, 1.8491791713111778, 2.16851672908144, 2.4140938545005257, 2.2811609901806733, 2.4649257335029087]</t>
+          <t>[1.5321093797683716, 1.7858995199203491, 1.8491790294647217, 2.1685168743133545, 2.4140937328338623, 2.281160831451416, 2.464925527572632]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1073,14 +1073,14 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[1.5321094406548483, 1.8491791713111778, 1.7858993453005365, 2.2811609901806733, 2.4649257335029087, 2.7298887823733757, 2.62459668933437]</t>
+          <t>[1.5321093797683716, 1.8491790294647217, 1.7858995199203491, 2.281160831451416, 2.464925527572632, 2.729888916015625, 2.62459659576416]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9304333616833372</v>
+        <v>0.9304333925247192</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.839133</t>
+          <t>2025-10-17T02:10:02.559099</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G8" t="n">
         <v>0.5714285714285714</v>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[2.176704962447375, 3.064696362186613, 3.1159537581020493, 3.208827984996173, 3.430947459742662, 3.668346666469462, 3.3151618788091226]</t>
+          <t>[2.1767048835754395, 3.0646960735321045, 3.1159534454345703, 3.2088279724121094, 3.430947780609131, 3.668346405029297, 3.315161943435669]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1161,14 +1161,14 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[2.176704962447375, 3.064696362186613, 3.1159537581020493, 3.208827984996173, 3.668346666469462, 3.430947459742662, 3.3151618788091226]</t>
+          <t>[2.1767048835754395, 3.0646960735321045, 3.1159534454345703, 3.2088279724121094, 3.668346405029297, 3.430947780609131, 3.315161943435669]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9670884233588186</v>
+        <v>0.9670884013175964</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.839133</t>
+          <t>2025-10-17T02:10:02.559099</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G9" t="n">
         <v>0.5714285714285714</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[3.179478140406934, 3.5399127719420465, 3.485902229819895, 3.5507466719885357, 3.8995257200443763, 3.3237751173204066, 3.4820018644335184]</t>
+          <t>[3.179478168487549, 3.5399129390716553, 3.4859018325805664, 3.5507469177246094, 3.8995256423950195, 3.323775291442871, 3.482002019882202]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1249,14 +1249,14 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[3.179478140406934, 3.5399127719420465, 3.485902229819895, 3.5507466719885357, 3.8995257200443763, 3.3237751173204066, 3.4820018644335184]</t>
+          <t>[3.179478168487549, 3.5399129390716553, 3.4859018325805664, 3.5507469177246094, 3.8995256423950195, 3.323775291442871, 3.482002019882202]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.024681057152124</v>
+        <v>1.024681091308594</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.839133</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G10" t="n">
         <v>0.5714285714285714</v>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[3.83333537729729, 3.7295344474234504, 3.704053483332116, 4.181013240348693, 4.7490582515585045, 4.614545061221802, 6.0865307956003365]</t>
+          <t>[3.8333353996276855, 3.729534387588501, 3.7040534019470215, 4.181013107299805, 4.749058246612549, 4.614544868469238, 6.0865302085876465]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1337,14 +1337,14 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[3.83333537729729, 3.7295344474234504, 3.704053483332116, 4.181013240348693, 4.7490582515585045, 4.614545061221802, 6.0865307956003365]</t>
+          <t>[3.8333353996276855, 3.729534387588501, 3.7040534019470215, 4.181013107299805, 4.749058246612549, 4.614544868469238, 6.0865302085876465]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8662215254929531</v>
+        <v>0.8662214875221252</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.839133</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G11" t="n">
         <v>0.5714285714285714</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[2.676260566233233, 3.190882849225537, 3.3810821216851688, 4.0318300127897775, 4.074189211709716, 3.9937842785865203, 4.089835463334681]</t>
+          <t>[2.676260471343994, 3.190882921218872, 3.38108229637146, 4.031829833984375, 4.07418966293335, 3.9937844276428223, 4.089835166931152]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1425,14 +1425,14 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[2.676260566233233, 3.190882849225537, 3.3810821216851688, 4.0318300127897775, 4.074189211709716, 3.9937842785865203, 4.089835463334681]</t>
+          <t>[2.676260471343994, 3.190882921218872, 3.38108229637146, 4.031829833984375, 4.07418966293335, 3.9937844276428223, 4.089835166931152]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9564217617985832</v>
+        <v>0.9564217329025269</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.839133</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G12" t="n">
         <v>0.5714285714285714</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[2.829638037136089, 3.7390088570686877, 3.514280685908663, 3.5076932622985377, 3.33330983713227, 3.4786622829974356, 3.55537337726651]</t>
+          <t>[2.8296382427215576, 3.739009141921997, 3.5142805576324463, 3.5076937675476074, 3.333310127258301, 3.4786622524261475, 3.555373430252075]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[2.829638037136089, 3.514280685908663, 3.7390088570686877, 3.5076932622985377, 3.33330983713227, 3.4786622829974356, 3.55537337726651]</t>
+          <t>[2.8296382427215576, 3.5142805576324463, 3.739009141921997, 3.5076937675476074, 3.333310127258301, 3.4786622524261475, 3.555373430252075]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9937276248955005</v>
+        <v>0.9937278032302856</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.840129</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G13" t="n">
         <v>0.5714285714285714</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[8.268541943367712, 14.105340217557762, 13.156933733064346, 13.472716097043474, 12.758660121459268, 13.223913304651559, 16.80879471068115]</t>
+          <t>[8.26854133605957, 14.105340957641602, 13.156933784484863, 13.472715377807617, 12.758660316467285, 13.223913192749023, 16.808794021606445]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1601,14 +1601,14 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[8.268541943367712, 14.105340217557762, 13.156933733064346, 13.472716097043474, 12.758660121459268, 13.223913304651559, 16.80879471068115]</t>
+          <t>[8.26854133605957, 14.105340957641602, 13.156933784484863, 13.472715377807617, 12.758660316467285, 13.223913192749023, 16.808794021606445]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.50560329472288</v>
+        <v>1.505603194236755</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.840129</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G14" t="n">
         <v>0.5714285714285714</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[1.7813073879053836, 1.9713535589875961, 2.0307905739305205, 2.0929172058822116, 2.103978874782868, 2.1981102205145446, 2.4380065550884993]</t>
+          <t>[1.781307578086853, 1.9713536500930786, 2.0307908058166504, 2.0929172039031982, 2.1039788722991943, 2.1981098651885986, 2.438006639480591]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1689,14 +1689,14 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[1.7813073879053836, 1.9713535589875961, 2.103978874782868, 2.0307905739305205, 2.0929172058822116, 2.1981102205145446, 2.4380065550884993]</t>
+          <t>[1.781307578086853, 1.9713536500930786, 2.1039788722991943, 2.0307908058166504, 2.0929172039031982, 2.1981098651885986, 2.438006639480591]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>0.828595550679006</v>
+        <v>0.8285955786705017</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.840129</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G15" t="n">
         <v>0.5714285714285714</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[2.223370161248983, 2.525921641869262, 2.6966799247529702, 2.7958012473154814, 3.5487879437975716, 3.462326700618113, 3.027298133839749]</t>
+          <t>[2.22337007522583, 2.525921583175659, 2.6966795921325684, 2.7958014011383057, 3.548788070678711, 3.462326765060425, 3.0272979736328125]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[2.223370161248983, 2.525921641869262, 2.6966799247529702, 2.7958012473154814, 3.5487879437975716, 3.462326700618113, 3.027298133839749]</t>
+          <t>[2.22337007522583, 2.525921583175659, 2.6966795921325684, 2.7958014011383057, 3.548788070678711, 3.462326765060425, 3.0272979736328125]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8942654223000234</v>
+        <v>0.8942654728889465</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.840129</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G16" t="n">
         <v>0.5714285714285714</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[2.770078647479813, 2.8674885573782056, 3.3062490883986415, 3.4773982922781213, 4.181013240348693, 4.656518049344014, 4.197307937366091]</t>
+          <t>[2.770078420639038, 2.867488384246826, 3.306248903274536, 3.477397918701172, 4.181013107299805, 4.65651798248291, 4.19730806350708]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1865,14 +1865,14 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[2.770078647479813, 2.8674885573782056, 3.3062490883986415, 3.4773982922781213, 4.181013240348693, 4.656518049344014, 4.197307937366091]</t>
+          <t>[2.770078420639038, 2.867488384246826, 3.306248903274536, 3.477397918701172, 4.181013107299805, 4.65651798248291, 4.19730806350708]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8307130119461216</v>
+        <v>0.8307129740715027</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.840129</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G17" t="n">
         <v>0.5714285714285714</v>
@@ -1919,7 +1919,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[8.479500021432601, 7.931451127191836, 9.953043787019434, 8.495764283422462, 8.44988172949529, 10.13033931935584, 12.546516420263776]</t>
+          <t>[8.479499816894531, 7.931450843811035, 9.953043937683105, 8.495762825012207, 8.449881553649902, 10.130338668823242, 12.546515464782715]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[8.479500021432601, 7.931451127191836, 9.953043787019434, 8.495764283422462, 8.44988172949529, 10.472673823971313, 11.325993981902274]</t>
+          <t>[8.479499816894531, 7.931450843811035, 9.953043937683105, 8.495762825012207, 8.449881553649902, 10.472673416137695, 11.325993537902832]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.067189300787625</v>
+        <v>1.06718909740448</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.840129</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G18" t="n">
         <v>0.5714285714285714</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[2.163869306811381, 2.18291802038063, 2.6966799247529702, 2.5901691590287803, 2.856168748218591, 2.6759960290505087, 3.315636165817204]</t>
+          <t>[2.163869619369507, 2.182918071746826, 2.6966795921325684, 2.5901691913604736, 2.856168746948242, 2.6759958267211914, 3.315636157989502]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2041,14 +2041,14 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.163869306811381, 2.18291802038063, 2.6966799247529702, 2.5901691590287803, 2.856168748218591, 2.6759960290505087, 3.315636165817204]</t>
+          <t>[2.163869619369507, 2.182918071746826, 2.6966795921325684, 2.5901691913604736, 2.856168746948242, 2.6759958267211914, 3.315636157989502]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9039866307206335</v>
+        <v>0.9039865732192993</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.840129</t>
+          <t>2025-10-17T02:10:02.560102</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G19" t="n">
         <v>0.5714285714285714</v>
@@ -2095,7 +2095,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[2.5598837551996945, 3.0759015116759723, 3.073374779076887, 3.6973298714213056, 3.590182636033232, 3.6209661368232013, 4.359033408394388]</t>
+          <t>[2.5598838329315186, 3.0759012699127197, 3.0733749866485596, 3.69732928276062, 3.5901825428009033, 3.6209661960601807, 4.359033107757568]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2129,14 +2129,14 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[2.5598837551996945, 3.590182636033232, 3.6209661368232013, 3.073374779076887, 3.627325286605539, 4.359033408394388, 3.619893275705778]</t>
+          <t>[2.5598838329315186, 3.5901825428009033, 3.6209661960601807, 3.0733749866485596, 3.6273250579833984, 4.359033107757568, 3.6198933124542236]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>0.980365429734565</v>
+        <v>0.9803652763366699</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.840129</t>
+          <t>2025-10-17T02:10:02.561101</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G20" t="n">
         <v>0.5714285714285714</v>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[2.502524449502609, 2.5673366849972497, 2.31176644967602, 2.432317181652187, 2.5944576900545924, 2.521955835662292, 2.4826809269033525]</t>
+          <t>[2.5025241374969482, 2.5673365592956543, 2.3117666244506836, 2.4323172569274902, 2.5944576263427734, 2.521955728530884, 2.4826810359954834]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2217,14 +2217,14 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.502524449502609, 2.5673366849972497, 2.648351310793584, 2.432317181652187, 2.5944576900545924, 2.521955835662292, 2.4826809269033525]</t>
+          <t>[2.5025241374969482, 2.5673365592956543, 2.6483511924743652, 2.4323172569274902, 2.5944576263427734, 2.521955728530884, 2.4826810359954834]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9497021163586566</v>
+        <v>0.9497022032737732</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.840129</t>
+          <t>2025-10-17T02:10:02.561101</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G21" t="n">
         <v>0.5714285714285714</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[1.4193735527061333, 1.846257876701924, 1.959227576079553, 2.023158699795688, 1.8655718853676027, 2.044082402626124, 2.2470378991447713]</t>
+          <t>[1.419373631477356, 1.8462578058242798, 1.9592275619506836, 2.023158550262451, 1.8655718564987183, 2.0440824031829834, 2.247037887573242]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2305,14 +2305,14 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[1.4193735527061333, 1.846257876701924, 1.959227576079553, 2.023158699795688, 1.8655718853676027, 2.044082402626124, 2.2470378991447713]</t>
+          <t>[1.419373631477356, 1.8462578058242798, 1.9592275619506836, 2.023158550262451, 1.8655718564987183, 2.0440824031829834, 2.247037887573242]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8677072862269066</v>
+        <v>0.8677072525024414</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.841128</t>
+          <t>2025-10-17T02:10:02.561101</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G22" t="n">
         <v>0.5714285714285714</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[3.05009238450375, 2.854408343615909, 3.3266559595532956, 3.735061726277516, 3.732706964431748, 3.721307896124602, 3.8500159957674116]</t>
+          <t>[3.0500919818878174, 2.8544085025787354, 3.326655626296997, 3.7350618839263916, 3.7327070236206055, 3.7213079929351807, 3.8500161170959473]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2393,14 +2393,14 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[3.05009238450375, 2.854408343615909, 3.3266559595532956, 3.735061726277516, 3.732706964431748, 3.721307896124602, 3.8500159957674116]</t>
+          <t>[3.0500919818878174, 2.8544085025787354, 3.326655626296997, 3.7350618839263916, 3.7327070236206055, 3.7213079929351807, 3.8500161170959473]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.056306347020177</v>
+        <v>1.0563063621521</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.841128</t>
+          <t>2025-10-17T02:10:02.561101</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G23" t="n">
         <v>0.5714285714285714</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[1.100975975252204, 1.4193735527061333, 1.633431842009987, 1.7749982005131384, 1.8687255484203718, 1.7933483341242031, 2.1132754356681542]</t>
+          <t>[1.1009761095046997, 1.419373631477356, 1.6334316730499268, 1.7749979496002197, 1.8687255382537842, 1.7933483123779297, 2.1132755279541016]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2481,14 +2481,14 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[1.100975975252204, 1.4193735527061333, 1.633431842009987, 1.7749982005131384, 1.8687255484203718, 1.7933483341242031, 2.1132754356681542]</t>
+          <t>[1.1009761095046997, 1.419373631477356, 1.6334316730499268, 1.7749979496002197, 1.8687255382537842, 1.7933483123779297, 2.1132755279541016]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8061405908103748</v>
+        <v>0.8061404824256897</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.841128</t>
+          <t>2025-10-17T02:10:02.561101</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G24" t="n">
         <v>0.5714285714285714</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[1.8378077524821266, 1.8491791713111778, 1.910042289811469, 2.0866545744490907, 1.947857564805605, 2.232717596247913, 2.1117294810881115]</t>
+          <t>[1.8378074169158936, 1.8491790294647217, 1.910042405128479, 2.0866546630859375, 1.9478576183319092, 2.232717275619507, 2.111729383468628]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2569,14 +2569,14 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[1.8491791713111778, 1.910042289811469, 2.232717596247913, 2.4573943079116973, 2.5239659001150083, 2.6666405850970385, 2.7819569965801185]</t>
+          <t>[1.8491790294647217, 1.910042405128479, 2.232717275619507, 2.4573941230773926, 2.523965835571289, 2.666640520095825, 2.781956911087036]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7887206551270548</v>
+        <v>0.7887206673622131</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.841128</t>
+          <t>2025-10-17T02:10:02.561101</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G25" t="n">
         <v>0.5714285714285714</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[1.4448964866051028, 1.7749982005131384, 2.131900411425432, 2.044082402626124, 2.3844115626425397, 2.5282960996910315, 2.3695618485838037]</t>
+          <t>[1.4448964595794678, 1.7749979496002197, 2.1319003105163574, 2.0440824031829834, 2.384411573410034, 2.5282962322235107, 2.3695621490478516]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[1.4448964866051028, 1.7749982005131384, 2.131900411425432, 2.044082402626124, 2.3844115626425397, 2.5282960996910315, 2.634864323321415]</t>
+          <t>[1.4448964595794678, 1.7749979496002197, 2.1319003105163574, 2.0440824031829834, 2.384411573410034, 2.5282962322235107, 2.634864330291748]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8935031494156955</v>
+        <v>0.8935031294822693</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.841128</t>
+          <t>2025-10-17T02:10:02.561101</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G26" t="n">
         <v>0.5714285714285714</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[5.478773838501507, 5.862947111620982, 5.716039312776141, 5.625724824146646, 7.11501099494576, 5.566536054134686, 6.425681027680412]</t>
+          <t>[5.478774070739746, 5.8629469871521, 5.716039657592773, 5.625724792480469, 7.115010738372803, 5.5665364265441895, 6.425680637359619]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2745,14 +2745,14 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[5.478773838501507, 5.862947111620982, 5.716039312776141, 5.625724824146646, 7.11501099494576, 5.566536054134686, 6.425681027680412]</t>
+          <t>[5.478774070739746, 5.8629469871521, 5.716039657592773, 5.625724792480469, 7.115010738372803, 5.5665364265441895, 6.425680637359619]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.156607161215865</v>
+        <v>1.156607151031494</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.841128</t>
+          <t>2025-10-17T02:10:02.561101</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G27" t="n">
         <v>0.5714285714285714</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[1.3914478815664062, 2.1957213843581145, 2.103978874782868, 2.3307847652335973, 2.4098320176756123, 2.4699116962814003, 2.9378876000195544]</t>
+          <t>[1.3914480209350586, 2.1957216262817383, 2.1039788722991943, 2.330784320831299, 2.409832000732422, 2.469911813735962, 2.937887668609619]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2833,14 +2833,14 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[2.1957213843581145, 2.103978874782868, 2.3307847652335973, 2.4098320176756123, 2.4699116962814003, 2.9378876000195544, 2.7782079731247786]</t>
+          <t>[2.1957216262817383, 2.1039788722991943, 2.330784320831299, 2.409832000732422, 2.469911813735962, 2.937887668609619, 2.7782082557678223]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8197170759962674</v>
+        <v>0.8197169303894043</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.841128</t>
+          <t>2025-10-17T02:10:02.561101</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G28" t="n">
         <v>0.5714285714285714</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[1.5321094406548483, 1.8670662102839277, 1.828548470858394, 2.232717596247913, 2.7222615172449642, 2.678786780417688, 2.5462913487782366]</t>
+          <t>[1.5321093797683716, 1.8670663833618164, 1.8285486698150635, 2.232717275619507, 2.722261428833008, 2.6787867546081543, 2.5462915897369385]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2921,14 +2921,14 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[1.5321094406548483, 1.8670662102839277, 1.828548470858394, 2.232717596247913, 2.7222615172449642, 2.678786780417688, 2.5462913487782366]</t>
+          <t>[1.5321093797683716, 1.8670663833618164, 1.8285486698150635, 2.232717275619507, 2.722261428833008, 2.6787867546081543, 2.5462915897369385]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9129517470182065</v>
+        <v>0.9129517078399658</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.841128</t>
+          <t>2025-10-17T02:10:02.562101</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G29" t="n">
         <v>0.5714285714285714</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[3.8686208063057577, 3.871425366245549, 3.657987477731485, 3.8630560237563953, 4.948517491644427, 5.462943139572716, 3.9521317724554006]</t>
+          <t>[3.8686211109161377, 3.871425151824951, 3.657987356185913, 3.863055944442749, 4.948517322540283, 5.462942600250244, 3.952131748199463]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3009,14 +3009,14 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[3.8686208063057577, 3.871425366245549, 3.657987477731485, 3.8630560237563953, 4.948517491644427, 5.462943139572716, 3.9521317724554006]</t>
+          <t>[3.8686211109161377, 3.871425151824951, 3.657987356185913, 3.863055944442749, 4.948517322540283, 5.462942600250244, 3.952131748199463]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>1.05613854764126</v>
+        <v>1.056138515472412</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.842134</t>
+          <t>2025-10-17T02:10:02.562101</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G30" t="n">
         <v>0.5714285714285714</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[1.8763791077025522, 1.7493576782092717, 2.1237018960754175, 2.4011948485270946, 2.185838434420039, 2.728515147156043, 2.835864764067928]</t>
+          <t>[1.8763794898986816, 1.7493575811386108, 2.123701572418213, 2.4011945724487305, 2.185838222503662, 2.728515386581421, 2.835864782333374]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3097,14 +3097,14 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[1.8763791077025522, 1.7493576782092717, 2.1237018960754175, 2.4011948485270946, 2.185838434420039, 2.728515147156043, 2.835864764067928]</t>
+          <t>[1.8763794898986816, 1.7493575811386108, 2.123701572418213, 2.4011945724487305, 2.185838222503662, 2.728515386581421, 2.835864782333374]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8732235359179513</v>
+        <v>0.8732233643531799</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.842134</t>
+          <t>2025-10-17T02:10:02.562101</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G31" t="n">
         <v>0.5714285714285714</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[1.8687255484203718, 2.1631128229650765, 2.023158699795688, 2.073935675757163, 2.432317181652187, 2.476794694747412, 2.6848936838409267]</t>
+          <t>[1.8687255382537842, 2.1631126403808594, 2.023158550262451, 2.0739355087280273, 2.4323172569274902, 2.476794481277466, 2.6848936080932617]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3185,14 +3185,14 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[2.1631128229650765, 1.8687255484203718, 2.023158699795688, 2.073935675757163, 2.432317181652187, 2.476794694747412, 2.6848936838409267]</t>
+          <t>[2.1631126403808594, 1.8687255382537842, 2.023158550262451, 2.0739355087280273, 2.4323172569274902, 2.476794481277466, 2.6848936080932617]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9150664587377568</v>
+        <v>0.9150664806365967</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.842134</t>
+          <t>2025-10-17T02:10:02.562101</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G32" t="n">
         <v>0.5714285714285714</v>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[2.0834979478045486, 2.2647031354672147, 1.9486627840668806, 2.1132754356681542, 2.1526319772589306, 2.854408343615909, 2.2912762141796343]</t>
+          <t>[2.083498001098633, 2.2647030353546143, 1.9486628770828247, 2.1132755279541016, 2.152631998062134, 2.8544085025787354, 2.291275978088379]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3273,14 +3273,14 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[2.0834979478045486, 2.2647031354672147, 1.9486627840668806, 2.1132754356681542, 2.1526319772589306, 2.854408343615909, 2.2912762141796343]</t>
+          <t>[2.083498001098633, 2.2647030353546143, 1.9486628770828247, 2.1132755279541016, 2.152631998062134, 2.8544085025787354, 2.291275978088379]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>0.9150935466314639</v>
+        <v>0.9150936007499695</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.842134</t>
+          <t>2025-10-17T02:10:02.562101</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G33" t="n">
         <v>0.5714285714285714</v>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[2.889972265254008, 3.8629198518469456, 4.031183150392049, 3.7935650492667885, 3.534783207137133, 4.400537589687239, 4.924728906736444]</t>
+          <t>[2.88997220993042, 3.862920045852661, 4.03118371963501, 3.793565273284912, 3.534783124923706, 4.400537967681885, 4.924728870391846]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3361,14 +3361,14 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[2.889972265254008, 3.8629198518469456, 4.031183150392049, 3.7935650492667885, 3.534783207137133, 4.400537589687239, 4.924728906736444]</t>
+          <t>[2.88997220993042, 3.862920045852661, 4.03118371963501, 3.793565273284912, 3.534783124923706, 4.400537967681885, 4.924728870391846]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>4</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9599440270783125</v>
+        <v>0.9599440097808838</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.842134</t>
+          <t>2025-10-17T02:10:02.562101</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G34" t="n">
         <v>0.5714285714285714</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[3.251023802974645, 3.2578315593888023, 3.1185432125128605, 3.534783207137133, 3.512515393209485, 3.921548972909323, 3.2495913927787967]</t>
+          <t>[3.2510242462158203, 3.257831573486328, 3.1185433864593506, 3.534783124923706, 3.5125155448913574, 3.921549081802368, 3.249591588973999]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3449,14 +3449,14 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[3.251023802974645, 3.2578315593888023, 3.1185432125128605, 3.534783207137133, 3.512515393209485, 3.921548972909323, 3.2495913927787967]</t>
+          <t>[3.2510242462158203, 3.257831573486328, 3.1185433864593506, 3.534783124923706, 3.5125155448913574, 3.921549081802368, 3.249591588973999]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>4</v>
       </c>
       <c r="V34" t="n">
-        <v>0.9601145162706023</v>
+        <v>0.9601144194602966</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.842134</t>
+          <t>2025-10-17T02:10:02.562101</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G35" t="n">
         <v>0.5714285714285714</v>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[1.7380028822881741, 1.8893887139972358, 1.7050279013957113, 2.157114632593742, 2.0809916746256443, 2.1109708387784547, 2.412684299782368]</t>
+          <t>[1.7380026578903198, 1.8893886804580688, 1.7050278186798096, 2.1571145057678223, 2.080991744995117, 2.1109707355499268, 2.412684202194214]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3537,14 +3537,14 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[1.8893887139972358, 2.157114632593742, 2.412684299782368, 2.4573943079116973, 2.4186038102904597, 2.872814613760217, 3.0848882674555886]</t>
+          <t>[1.8893886804580688, 2.1571145057678223, 2.412684202194214, 2.4573941230773926, 2.4186031818389893, 2.872814416885376, 3.084888219833374]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>0.7822608328407611</v>
+        <v>0.7822607755661011</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.843130</t>
+          <t>2025-10-17T02:10:02.562101</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G36" t="n">
         <v>0.5714285714285714</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[3.8629198518469456, 4.3717533073014865, 4.074189211709716, 4.063390370605255, 4.76307526271921, 4.7231771019033575, 5.447000805753296]</t>
+          <t>[3.862920045852661, 4.371753215789795, 4.07418966293335, 4.063390731811523, 4.763075828552246, 4.723177433013916, 5.447000980377197]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3625,14 +3625,14 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[3.8629198518469456, 4.3717533073014865, 4.074189211709716, 4.063390370605255, 4.76307526271921, 4.7231771019033575, 5.447000805753296]</t>
+          <t>[3.862920045852661, 4.371753215789795, 4.07418966293335, 4.063390731811523, 4.763075828552246, 4.723177433013916, 5.447000980377197]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.00792000896017</v>
+        <v>1.007920145988464</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.843130</t>
+          <t>2025-10-17T02:10:02.562101</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G37" t="n">
         <v>0.5714285714285714</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[8.07798415946937, 9.520485012671415, 9.085322417718368, 14.347497452039956, 11.229149645848086, 14.105340217557762, 10.736236220178883]</t>
+          <t>[8.077983856201172, 9.520484924316406, 9.085322380065918, 14.34749698638916, 11.22914981842041, 14.105340957641602, 10.736235618591309]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3713,14 +3713,14 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[8.07798415946937, 9.520485012671415, 9.085322417718368, 14.347497452039956, 11.229149645848086, 14.105340217557762, 10.736236220178883]</t>
+          <t>[8.077983856201172, 9.520484924316406, 9.085322380065918, 14.34749698638916, 11.22914981842041, 14.105340957641602, 10.736235618591309]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>4</v>
       </c>
       <c r="V37" t="n">
-        <v>1.131529035466786</v>
+        <v>1.131529092788696</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.843130</t>
+          <t>2025-10-17T02:10:02.563100</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G38" t="n">
         <v>0.5714285714285714</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[2.502524449502609, 2.9709963738177745, 3.1736584535809893, 3.225885473778741, 2.8451725907548107, 3.20192285053055, 3.374424588361647]</t>
+          <t>[2.5025241374969482, 2.970996618270874, 3.1736578941345215, 3.2258851528167725, 2.845172643661499, 3.20192289352417, 3.374424457550049]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[2.502524449502609, 3.1736584535809893, 3.225885473778741, 2.9709963738177745, 2.8451725907548107, 3.085358032748121, 3.20192285053055]</t>
+          <t>[2.5025241374969482, 3.1736578941345215, 3.2258851528167725, 2.970996618270874, 2.845172643661499, 3.085357904434204, 3.20192289352417]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>0.935213612542212</v>
+        <v>0.9352136254310608</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.843130</t>
+          <t>2025-10-17T02:10:02.563100</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G39" t="n">
         <v>0.5714285714285714</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[3.5790002847462494, 4.063030690939169, 4.240592894529004, 4.144880708057545, 5.442207236021047, 6.103587394190683, 4.567472323764699]</t>
+          <t>[3.579000234603882, 4.063031196594238, 4.2405924797058105, 4.144880771636963, 5.442206859588623, 6.103587627410889, 4.567472457885742]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3889,14 +3889,14 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[3.5790002847462494, 4.063030690939169, 4.240592894529004, 4.144880708057545, 5.442207236021047, 6.103587394190683, 4.567472323764699]</t>
+          <t>[3.579000234603882, 4.063031196594238, 4.2405924797058105, 4.144880771636963, 5.442206859588623, 6.103587627410889, 4.567472457885742]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>0.9889402671969006</v>
+        <v>0.9889402985572815</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.843130</t>
+          <t>2025-10-17T02:10:02.563100</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G40" t="n">
         <v>0.5714285714285714</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[2.676260566233233, 2.45154123748135, 3.1721940124763592, 2.930293146612869, 3.705643929511386, 3.1808561076235478, 3.4277910428378067]</t>
+          <t>[2.676260471343994, 2.451540946960449, 3.172193765640259, 2.930293321609497, 3.705644130706787, 3.1808559894561768, 3.427790880203247]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3977,14 +3977,14 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[2.676260566233233, 2.45154123748135, 3.1721940124763592, 2.930293146612869, 3.705643929511386, 3.1808561076235478, 3.4277910428378067]</t>
+          <t>[2.676260471343994, 2.451540946960449, 3.172193765640259, 2.930293321609497, 3.705644130706787, 3.1808559894561768, 3.427790880203247]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9341269433061655</v>
+        <v>0.9341269731521606</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.843130</t>
+          <t>2025-10-17T02:10:02.563100</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G41" t="n">
         <v>0.5714285714285714</v>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[1.946188177274338, 2.0517492806729503, 2.075854731143017, 2.16373611104834, 2.473052264397535, 2.362578746943257, 2.685874358168506]</t>
+          <t>[1.94618821144104, 2.0517489910125732, 2.075855016708374, 2.16373610496521, 2.4730520248413086, 2.3625786304473877, 2.6858742237091064]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4065,14 +4065,14 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[2.0517492806729503, 2.075854731143017, 2.16373611104834, 2.473052264397535, 2.362578746943257, 2.685874358168506, 2.8868471797770363]</t>
+          <t>[2.0517489910125732, 2.075855016708374, 2.16373610496521, 2.4730520248413086, 2.3625786304473877, 2.6858742237091064, 2.8868470191955566]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>4</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7680087097443975</v>
+        <v>0.7680087089538574</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.843130</t>
+          <t>2025-10-17T02:10:02.563100</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G42" t="n">
         <v>0.5714285714285714</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[2.880482964398465, 2.9558347247120693, 2.7745883479076503, 3.211227554585352, 3.2097150741296745, 2.919971046197755, 3.15491325623095]</t>
+          <t>[2.8804829120635986, 2.9558346271514893, 2.7745883464813232, 3.2112276554107666, 3.2097151279449463, 2.919971466064453, 3.1549131870269775]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4153,14 +4153,14 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[2.880482964398465, 2.9558347247120693, 2.7745883479076503, 3.211227554585352, 3.2097150741296745, 2.919971046197755, 3.15491325623095]</t>
+          <t>[2.8804829120635986, 2.9558346271514893, 2.7745883464813232, 3.2112276554107666, 3.2097151279449463, 2.919971466064453, 3.1549131870269775]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9723418583113305</v>
+        <v>0.9723418354988098</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.843130</t>
+          <t>2025-10-17T02:10:02.563100</t>
         </is>
       </c>
     </row>
@@ -4192,7 +4192,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G43" t="n">
         <v>0.5714285714285714</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[2.770078647479813, 3.704053483332116, 3.2008009984667787, 4.056423795516002, 3.631736842028982, 3.940002700588823, 3.5487879437975716]</t>
+          <t>[2.770078420639038, 3.7040534019470215, 3.200800895690918, 4.056423664093018, 3.631736993789673, 3.94000244140625, 3.548788070678711]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4241,14 +4241,14 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[2.770078647479813, 3.704053483332116, 3.2008009984667787, 4.056423795516002, 3.631736842028982, 3.940002700588823, 3.5487879437975716]</t>
+          <t>[2.770078420639038, 3.7040534019470215, 3.200800895690918, 4.056423664093018, 3.631736993789673, 3.94000244140625, 3.548788070678711]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>4</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8680020708901388</v>
+        <v>0.8680020570755005</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.563100</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G44" t="n">
         <v>0.5714285714285714</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[3.1100328351146356, 3.2897707920903008, 3.437535354444313, 3.7390088570686877, 4.371141379696012, 4.28427544851291, 4.313850905134462]</t>
+          <t>[3.110032796859741, 3.2897708415985107, 3.437535285949707, 3.739009141921997, 4.3711419105529785, 4.284275531768799, 4.3138508796691895]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4329,14 +4329,14 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[3.1100328351146356, 3.2897707920903008, 3.437535354444313, 3.7390088570686877, 4.371141379696012, 4.28427544851291, 4.313850905134462]</t>
+          <t>[3.110032796859741, 3.2897708415985107, 3.437535285949707, 3.739009141921997, 4.3711419105529785, 4.284275531768799, 4.3138508796691895]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>4</v>
       </c>
       <c r="V44" t="n">
-        <v>0.9494452685010294</v>
+        <v>0.949445366859436</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.563100</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G45" t="n">
         <v>0.5714285714285714</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[2.693250670322787, 2.9031353277783545, 2.8110306227395556, 3.3592167481724067, 3.440851391314264, 3.2004062988969277, 3.3894181411281377]</t>
+          <t>[2.6932506561279297, 2.903135299682617, 2.811030387878418, 3.3592166900634766, 3.4408512115478516, 3.200406312942505, 3.389417886734009]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4417,14 +4417,14 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[2.693250670322787, 2.9031353277783545, 2.8110306227395556, 3.3592167481724067, 3.440851391314264, 3.2004062988969277, 3.3894181411281377]</t>
+          <t>[2.6932506561279297, 2.903135299682617, 2.811030387878418, 3.3592166900634766, 3.4408512115478516, 3.200406312942505, 3.389417886734009]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>4</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9912703886599502</v>
+        <v>0.9912704229354858</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.563100</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G46" t="n">
         <v>0.5714285714285714</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[6.968998137974113, 7.2356272993768265, 6.7148297929617735, 7.146114835384492, 6.76648307157548, 7.451636038208967, 7.739910241020434]</t>
+          <t>[6.968998432159424, 7.235627174377441, 6.714829921722412, 7.146114349365234, 6.766482830047607, 7.45163631439209, 7.739909648895264]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4505,14 +4505,14 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[6.968998137974113, 7.2356272993768265, 6.7148297929617735, 7.146114835384492, 6.76648307157548, 7.451636038208967, 7.739910241020434]</t>
+          <t>[6.968998432159424, 7.235627174377441, 6.714829921722412, 7.146114349365234, 6.766482830047607, 7.45163631439209, 7.739909648895264]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>4</v>
       </c>
       <c r="V46" t="n">
-        <v>1.0174203194125</v>
+        <v>1.017420291900635</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.564101</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G47" t="n">
         <v>0.5714285714285714</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[3.8686208063057577, 4.640130992802321, 4.387338589717392, 4.007469779875353, 4.717777587850117, 5.58928580465266, 4.919157229157083]</t>
+          <t>[3.8686211109161377, 4.640130519866943, 4.387338161468506, 4.007469654083252, 4.717777729034424, 5.589285850524902, 4.919157028198242]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4593,14 +4593,14 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[3.8686208063057577, 4.640130992802321, 4.387338589717392, 4.007469779875353, 4.717777587850117, 5.58928580465266, 4.919157229157083]</t>
+          <t>[3.8686211109161377, 4.640130519866943, 4.387338161468506, 4.007469654083252, 4.717777729034424, 5.589285850524902, 4.919157028198242]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>4</v>
       </c>
       <c r="V47" t="n">
-        <v>1.01980352238731</v>
+        <v>1.019803524017334</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.564101</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G48" t="n">
         <v>0.5714285714285714</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[3.8707407319544656, 3.887117231214725, 4.12255051234064, 5.031162143941981, 4.467939049827308, 4.643892580689259, 4.626392066062639]</t>
+          <t>[3.8707408905029297, 3.8871171474456787, 4.122550010681152, 5.031162261962891, 4.467939376831055, 4.643892765045166, 4.626392364501953]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4681,14 +4681,14 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[3.8707407319544656, 3.887117231214725, 4.12255051234064, 5.031162143941981, 4.467939049827308, 4.643892580689259, 4.626392066062639]</t>
+          <t>[3.8707408905029297, 3.8871171474456787, 4.122550010681152, 5.031162261962891, 4.467939376831055, 4.643892765045166, 4.626392364501953]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.061741287545789</v>
+        <v>1.061741232872009</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.564101</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G49" t="n">
         <v>0.5714285714285714</v>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[1.100975975252204, 1.4448964866051028, 1.8163297071618814, 1.8910175572535692, 1.8080617436884052, 1.8655718853676027, 2.073935675757163]</t>
+          <t>[1.1009761095046997, 1.4448964595794678, 1.816329836845398, 1.8910176753997803, 1.8080617189407349, 1.8655718564987183, 2.0739355087280273]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4769,14 +4769,14 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[1.100975975252204, 1.4448964866051028, 1.8163297071618814, 1.8910175572535692, 1.8080617436884052, 1.8655718853676027, 2.073935675757163]</t>
+          <t>[1.1009761095046997, 1.4448964595794678, 1.816329836845398, 1.8910176753997803, 1.8080617189407349, 1.8655718564987183, 2.0739355087280273]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>4</v>
       </c>
       <c r="V49" t="n">
-        <v>0.802179136493244</v>
+        <v>0.8021791577339172</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4785,7 +4785,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.564101</t>
         </is>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G50" t="n">
         <v>0.5714285714285714</v>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[2.9948229666195876, 3.0182317967175893, 3.1177991631370303, 3.2495913927787967, 3.0727270649366534, 3.8247539668239523, 3.242259756374843]</t>
+          <t>[2.9948232173919678, 3.0182318687438965, 3.1177992820739746, 3.249591588973999, 3.0727272033691406, 3.824754238128662, 3.2422597408294678]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -4857,14 +4857,14 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[2.9948229666195876, 3.0182317967175893, 3.1177991631370303, 3.2495913927787967, 3.0727270649366534, 3.8247539668239523, 3.242259756374843]</t>
+          <t>[2.9948232173919678, 3.0182318687438965, 3.1177992820739746, 3.249591588973999, 3.0727272033691406, 3.824754238128662, 3.2422597408294678]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>0.9853599636990673</v>
+        <v>0.9853599667549133</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.564101</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G51" t="n">
         <v>0.5714285714285714</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[3.179478140406934, 3.4529015532153244, 3.6680443707894725, 3.6495754751220733, 3.8132375015781017, 3.354719658066827, 3.693312821291303]</t>
+          <t>[3.179478168487549, 3.452901601791382, 3.668044328689575, 3.6495754718780518, 3.813237428665161, 3.354719877243042, 3.693312406539917]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -4945,14 +4945,14 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[3.179478140406934, 3.4529015532153244, 3.6680443707894725, 3.6495754751220733, 3.8132375015781017, 3.354719658066827, 3.693312821291303]</t>
+          <t>[3.179478168487549, 3.452901601791382, 3.668044328689575, 3.6495754718780518, 3.813237428665161, 3.354719877243042, 3.693312406539917]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>1.018472742342629</v>
+        <v>1.018472790718079</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -4961,7 +4961,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.564101</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G52" t="n">
         <v>0.5714285714285714</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[2.4506793362366674, 3.0461976757426013, 3.2008009984667787, 3.3062490883986415, 3.17226243147613, 3.2485326168167097, 4.149100855489355]</t>
+          <t>[2.450679063796997, 3.0461976528167725, 3.200800895690918, 3.306248903274536, 3.17226243019104, 3.24853253364563, 4.1491007804870605]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5033,14 +5033,14 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[2.4506793362366674, 3.0461976757426013, 3.2008009984667787, 3.3062490883986415, 3.17226243147613, 3.2485326168167097, 4.149100855489355]</t>
+          <t>[2.450679063796997, 3.0461976528167725, 3.200800895690918, 3.306248903274536, 3.17226243019104, 3.24853253364563, 4.1491007804870605]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>0.8301675474508685</v>
+        <v>0.8301675319671631</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5049,7 +5049,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.844128</t>
+          <t>2025-10-17T02:10:02.564101</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G53" t="n">
         <v>0.5714285714285714</v>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[1.8923783874694138, 1.9535507198899174, 2.6171413855656924, 2.551895458869722, 2.9031353277783545, 3.017863810342878, 2.8743946832103364]</t>
+          <t>[1.892378330230713, 1.953550934791565, 2.6171412467956543, 2.5518956184387207, 2.903135299682617, 3.0178637504577637, 2.874394655227661]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5121,14 +5121,14 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[1.8923783874694138, 1.9535507198899174, 2.6171413855656924, 2.551895458869722, 2.9031353277783545, 3.017863810342878, 2.8743946832103364]</t>
+          <t>[1.892378330230713, 1.953550934791565, 2.6171412467956543, 2.5518956184387207, 2.903135299682617, 3.0178637504577637, 2.874394655227661]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>4</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8816400955485985</v>
+        <v>0.8816401362419128</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.845128</t>
+          <t>2025-10-17T02:10:02.564101</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G54" t="n">
         <v>0.5714285714285714</v>
@@ -5175,7 +5175,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[4.874252523249762, 3.6978142344491816, 3.971494727548748, 3.673367500372436, 3.5726445484366236, 4.124350078722681, 4.831064328092496]</t>
+          <t>[4.874252796173096, 3.6978139877319336, 3.9714949131011963, 3.6733672618865967, 3.5726444721221924, 4.124350070953369, 4.831064224243164]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5209,14 +5209,14 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[4.874252523249762, 3.6978142344491816, 3.673367500372436, 3.9830050279210485, 3.971494727548748, 4.057019439719888, 4.831064328092496]</t>
+          <t>[4.874252796173096, 3.6978139877319336, 3.6733672618865967, 3.9830050468444824, 3.9714949131011963, 4.0570197105407715, 4.831064224243164]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>4</v>
       </c>
       <c r="V54" t="n">
-        <v>1.191883578966763</v>
+        <v>1.191883563995361</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -5225,7 +5225,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.845128</t>
+          <t>2025-10-17T02:10:02.564101</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G55" t="n">
         <v>0.5714285714285714</v>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[1.8929746849762596, 2.2399087876048225, 2.4699116962814003, 2.619320189305224, 2.521338788860672, 2.8517644573757157, 2.414479920791436]</t>
+          <t>[1.892975091934204, 2.2399086952209473, 2.469911813735962, 2.6193203926086426, 2.521338939666748, 2.851764678955078, 2.4144797325134277]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5297,14 +5297,14 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[1.8929746849762596, 2.2399087876048225, 2.4699116962814003, 2.619320189305224, 2.8517644573757157, 2.414479920791436, 2.8502327628929693]</t>
+          <t>[1.892975091934204, 2.2399086952209473, 2.469911813735962, 2.6193203926086426, 2.851764678955078, 2.4144797325134277, 2.8502326011657715]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8877722483332815</v>
+        <v>0.8877723813056946</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5313,7 +5313,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.845128</t>
+          <t>2025-10-17T02:10:02.565100</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G56" t="n">
         <v>0.5714285714285714</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[4.911062758761296, 5.963501910020404, 4.829949611380288, 6.9637754015754, 6.239005850219928, 6.495593500783756, 6.97565121584154]</t>
+          <t>[4.911062240600586, 5.963501453399658, 4.829949378967285, 6.963775634765625, 6.2390055656433105, 6.495593547821045, 6.975650310516357]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5385,14 +5385,14 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[4.911062758761296, 5.963501910020404, 4.829949611380288, 6.9637754015754, 6.239005850219928, 6.495593500783756, 6.97565121584154]</t>
+          <t>[4.911062240600586, 5.963501453399658, 4.829949378967285, 6.963775634765625, 6.2390055656433105, 6.495593547821045, 6.975650310516357]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>1.04351589898547</v>
+        <v>1.043515920639038</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -5401,7 +5401,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.845128</t>
+          <t>2025-10-17T02:10:02.565100</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G57" t="n">
         <v>0.5714285714285714</v>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[3.389834022021634, 3.451305239260681, 4.28427544851291, 3.8120532747370346, 4.407372668924887, 4.495724782159341, 3.95635049304522]</t>
+          <t>[3.389833927154541, 3.451305389404297, 4.284275531768799, 3.8120532035827637, 4.407371997833252, 4.495724678039551, 3.956350564956665]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5473,14 +5473,14 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[3.389834022021634, 3.451305239260681, 4.28427544851291, 3.8120532747370346, 4.407372668924887, 4.495724782159341, 3.95635049304522]</t>
+          <t>[3.389833927154541, 3.451305389404297, 4.284275531768799, 3.8120532035827637, 4.407371997833252, 4.495724678039551, 3.956350564956665]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.045915863384974</v>
+        <v>1.045915842056274</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -5489,7 +5489,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.845128</t>
+          <t>2025-10-17T02:10:02.565100</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G58" t="n">
         <v>0.5714285714285714</v>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[4.846018330261868, 4.046628961057276, 4.140207121876274, 4.489907243438827, 6.283158010827813, 4.861304728624475, 5.760514502053949]</t>
+          <t>[4.846018314361572, 4.046628952026367, 4.140206813812256, 4.4899067878723145, 6.283157825469971, 4.861304759979248, 5.760514736175537]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>[4.846018330261868, 4.046628961057276, 4.140207121876274, 4.489907243438827, 4.861304728624475, 6.283158010827813, 5.760514502053949]</t>
+          <t>[4.846018314361572, 4.046628952026367, 4.140206813812256, 4.4899067878723145, 4.861304759979248, 6.283157825469971, 5.760514736175537]</t>
         </is>
       </c>
       <c r="U58" t="n">
         <v>4</v>
       </c>
       <c r="V58" t="n">
-        <v>1.06702661747768</v>
+        <v>1.067026495933533</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
@@ -5577,7 +5577,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.845128</t>
+          <t>2025-10-17T02:10:02.565100</t>
         </is>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G59" t="n">
         <v>0.5714285714285714</v>
@@ -5615,7 +5615,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[6.968998137974113, 7.025761351943278, 8.736628035913151, 9.720782086612948, 7.103111695923586, 11.229149645848086, 7.519877829076104]</t>
+          <t>[6.968998432159424, 7.025761604309082, 8.736627578735352, 9.720782279968262, 7.103111743927002, 11.22914981842041, 7.519877910614014]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5649,14 +5649,14 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[6.968998137974113, 7.025761351943278, 9.720782086612948, 7.103111695923586, 11.229149645848086, 7.519877829076104, 8.896510820874616]</t>
+          <t>[6.968998432159424, 7.025761604309082, 9.720782279968262, 7.103111743927002, 11.22914981842041, 7.519877910614014, 8.896510124206543]</t>
         </is>
       </c>
       <c r="U59" t="n">
         <v>4</v>
       </c>
       <c r="V59" t="n">
-        <v>1.08260825725225</v>
+        <v>1.082608222961426</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -5665,7 +5665,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.845128</t>
+          <t>2025-10-17T02:10:02.565100</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G60" t="n">
         <v>0.5714285714285714</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[2.044082455813837, 2.634864323321415, 2.4750355001752564, 2.5409902390264656, 2.6390747288006655, 2.8471806397901633, 3.6978142344491816]</t>
+          <t>[2.0440824031829834, 2.634864330291748, 2.4750356674194336, 2.540990114212036, 2.6390748023986816, 2.8471806049346924, 3.6978139877319336]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5737,14 +5737,14 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>[2.044082455813837, 2.634864323321415, 2.4750355001752564, 3.0848882674555886, 3.6978142344491816, 2.5409902390264656, 2.6390747288006655]</t>
+          <t>[2.0440824031829834, 2.634864330291748, 2.4750356674194336, 3.084888219833374, 3.6978139877319336, 2.540990114212036, 2.6390748023986816]</t>
         </is>
       </c>
       <c r="U60" t="n">
         <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>1.02520506861921</v>
+        <v>1.025205135345459</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.845128</t>
+          <t>2025-10-17T02:10:02.565100</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G61" t="n">
         <v>0.5714285714285714</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[2.248768851566471, 2.7726260453341616, 3.064696362186613, 3.345827107508354, 3.323772525509346, 3.67740830816017, 3.136862824041843]</t>
+          <t>[2.2487688064575195, 2.7726261615753174, 3.0646960735321045, 3.345827341079712, 3.323772430419922, 3.677408218383789, 3.1368627548217773]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>[2.248768851566471, 2.7726260453341616, 3.064696362186613, 3.323772525509346, 3.67740830816017, 3.136862824041843, 3.513730869653155]</t>
+          <t>[2.2487688064575195, 2.7726261615753174, 3.0646960735321045, 3.323772430419922, 3.677408218383789, 3.1368627548217773, 3.513730764389038]</t>
         </is>
       </c>
       <c r="U61" t="n">
         <v>4</v>
       </c>
       <c r="V61" t="n">
-        <v>0.9871035897358983</v>
+        <v>0.9871036410331726</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
@@ -5841,7 +5841,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.845128</t>
+          <t>2025-10-17T02:10:02.565100</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G62" t="n">
         <v>0.5714285714285714</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[4.874252523249762, 5.1814891731200055, 5.667717216994172, 5.199067139342398, 6.3179097955235415, 5.64810296837418, 5.48234683955293]</t>
+          <t>[4.874252796173096, 5.181488990783691, 5.667717456817627, 5.199067115783691, 6.3179097175598145, 5.6481032371521, 5.482347011566162]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -5913,14 +5913,14 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>[4.874252523249762, 5.199067139342398, 5.1814891731200055, 5.667717216994172, 5.64810296837418, 6.3179097955235415, 5.48234683955293]</t>
+          <t>[4.874252796173096, 5.199067115783691, 5.181488990783691, 5.667717456817627, 5.6481032371521, 6.3179097175598145, 5.482347011566162]</t>
         </is>
       </c>
       <c r="U62" t="n">
         <v>4</v>
       </c>
       <c r="V62" t="n">
-        <v>1.201245767355376</v>
+        <v>1.201245784759521</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.565100</t>
         </is>
       </c>
     </row>
@@ -5952,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G63" t="n">
         <v>0.5714285714285714</v>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[2.11505963938218, 2.3569203703761845, 3.144673363001919, 3.1185432125128605, 2.7955260545114418, 3.887117231214725, 3.908517428628496]</t>
+          <t>[2.1150593757629395, 2.3569202423095703, 3.1446735858917236, 3.1185433864593506, 2.7955260276794434, 3.8871171474456787, 3.908517599105835]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6001,14 +6001,14 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>[2.11505963938218, 2.3569203703761845, 3.144673363001919, 2.7955260545114418, 3.1185432125128605, 3.887117231214725, 3.908517428628496]</t>
+          <t>[2.1150593757629395, 2.3569202423095703, 3.1446735858917236, 2.7955260276794434, 3.1185433864593506, 3.8871171474456787, 3.908517599105835]</t>
         </is>
       </c>
       <c r="U63" t="n">
         <v>4</v>
       </c>
       <c r="V63" t="n">
-        <v>0.9372854195315157</v>
+        <v>0.9372854828834534</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -6017,7 +6017,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.565100</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G64" t="n">
         <v>0.5714285714285714</v>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[3.940002700588823, 4.149100855489355, 4.284815685561375, 4.53626021811681, 4.559580543368966, 4.190589945547683, 5.271964299796446]</t>
+          <t>[3.94000244140625, 4.1491007804870605, 4.284815788269043, 4.536260604858398, 4.559580326080322, 4.190589427947998, 5.271964073181152]</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6089,14 +6089,14 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>[3.940002700588823, 4.149100855489355, 4.284815685561375, 4.53626021811681, 4.559580543368966, 4.190589945547683, 5.271964299796446]</t>
+          <t>[3.94000244140625, 4.1491007804870605, 4.284815788269043, 4.536260604858398, 4.559580326080322, 4.190589427947998, 5.271964073181152]</t>
         </is>
       </c>
       <c r="U64" t="n">
         <v>4</v>
       </c>
       <c r="V64" t="n">
-        <v>1.037130358190573</v>
+        <v>1.03713047504425</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
@@ -6105,7 +6105,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G65" t="n">
         <v>0.5714285714285714</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[2.7080412154284974, 3.13169603536538, 2.8043221578060846, 3.5262188434262915, 3.1808561076235478, 3.4504713100022006, 3.5531869071252546]</t>
+          <t>[2.708040952682495, 3.1316962242126465, 2.8043220043182373, 3.526219367980957, 3.1808559894561768, 3.4504716396331787, 3.5531866550445557]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -6177,14 +6177,14 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>[2.7080412154284974, 3.13169603536538, 2.8043221578060846, 3.5262188434262915, 3.1808561076235478, 3.4504713100022006, 3.5531869071252546]</t>
+          <t>[2.708040952682495, 3.1316962242126465, 2.8043220043182373, 3.526219367980957, 3.1808559894561768, 3.4504716396331787, 3.5531866550445557]</t>
         </is>
       </c>
       <c r="U65" t="n">
         <v>4</v>
       </c>
       <c r="V65" t="n">
-        <v>0.9261772089363786</v>
+        <v>0.9261773228645325</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G66" t="n">
         <v>0.5714285714285714</v>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>[2.525921641869262, 2.7044602320074995, 3.081728081041649, 3.1547164486600305, 3.3330360334793236, 3.027415269260538, 4.847490636520776]</t>
+          <t>[2.525921583175659, 2.704460382461548, 3.0817277431488037, 3.1547162532806396, 3.333036184310913, 3.0274152755737305, 4.8474907875061035]</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6265,14 +6265,14 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>[2.525921641869262, 2.7044602320074995, 3.081728081041649, 3.1547164486600305, 3.3330360334793236, 3.027415269260538, 4.847490636520776]</t>
+          <t>[2.525921583175659, 2.704460382461548, 3.0817277431488037, 3.1547162532806396, 3.333036184310913, 3.0274152755737305, 4.8474907875061035]</t>
         </is>
       </c>
       <c r="U66" t="n">
         <v>4</v>
       </c>
       <c r="V66" t="n">
-        <v>0.9216836981793628</v>
+        <v>0.921683669090271</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
@@ -6281,7 +6281,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6304,7 +6304,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G67" t="n">
         <v>0.5714285714285714</v>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[2.156108113834737, 2.0834979478045486, 2.18291802038063, 1.8910175572535692, 2.1989943524372895, 2.825923612487896, 2.252367032905442]</t>
+          <t>[2.1561083793640137, 2.083498001098633, 2.182918071746826, 1.8910176753997803, 2.1989948749542236, 2.8259236812591553, 2.2523674964904785]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6353,14 +6353,14 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>[2.156108113834737, 2.0834979478045486, 2.18291802038063, 1.8910175572535692, 2.1989943524372895, 2.825923612487896, 2.252367032905442]</t>
+          <t>[2.1561083793640137, 2.083498001098633, 2.182918071746826, 1.8910176753997803, 2.1989948749542236, 2.8259236812591553, 2.2523674964904785]</t>
         </is>
       </c>
       <c r="U67" t="n">
         <v>4</v>
       </c>
       <c r="V67" t="n">
-        <v>0.802179136493244</v>
+        <v>0.8021791577339172</v>
       </c>
       <c r="W67" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G68" t="n">
         <v>0.5714285714285714</v>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>[1.8670662102839277, 2.4662781827586278, 2.2910375949335617, 2.3844115626425397, 2.476794694747412, 2.6390205932126607, 2.706460794578008]</t>
+          <t>[1.8670663833618164, 2.4662787914276123, 2.2910375595092773, 2.384411573410034, 2.476794481277466, 2.6390206813812256, 2.706460952758789]</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6441,14 +6441,14 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>[1.8670662102839277, 2.4662781827586278, 2.2910375949335617, 2.3844115626425397, 2.476794694747412, 2.6390205932126607, 2.61544839021174]</t>
+          <t>[1.8670663833618164, 2.4662787914276123, 2.2910375595092773, 2.384411573410034, 2.476794481277466, 2.6390206813812256, 2.615448236465454]</t>
         </is>
       </c>
       <c r="U68" t="n">
         <v>4</v>
       </c>
       <c r="V68" t="n">
-        <v>0.954811260655284</v>
+        <v>0.9548112750053406</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
@@ -6457,7 +6457,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G69" t="n">
         <v>0.5714285714285714</v>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[7.025761351943278, 5.2468920535753725, 6.029143738706898, 7.035663664819318, 6.9637754015754, 9.085322417718368, 7.451636038208967]</t>
+          <t>[7.025761604309082, 5.246891975402832, 6.029144287109375, 7.035663604736328, 6.963775634765625, 9.085322380065918, 7.45163631439209]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -6529,14 +6529,14 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[7.025761351943278, 5.2468920535753725, 6.029143738706898, 7.035663664819318, 6.9637754015754, 9.085322417718368, 7.451636038208967]</t>
+          <t>[7.025761604309082, 5.246891975402832, 6.029144287109375, 7.035663604736328, 6.963775634765625, 9.085322380065918, 7.45163631439209]</t>
         </is>
       </c>
       <c r="U69" t="n">
         <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>1.005148334189432</v>
+        <v>1.00514829158783</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
@@ -6545,7 +6545,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G70" t="n">
         <v>0.5714285714285714</v>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[2.302834731169962, 2.5673366849972497, 2.778759609160809, 2.7739619932688373, 3.204414507206446, 3.3031439729484724, 3.20192285053055]</t>
+          <t>[2.3028347492218018, 2.5673365592956543, 2.778759717941284, 2.7739617824554443, 3.2044146060943604, 3.3031439781188965, 3.20192289352417]</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -6617,14 +6617,14 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>[2.302834731169962, 2.5673366849972497, 2.7739619932688373, 2.778759609160809, 3.204414507206446, 3.3031439729484724, 3.20192285053055]</t>
+          <t>[2.3028347492218018, 2.5673365592956543, 2.7739617824554443, 2.778759717941284, 3.2044146060943604, 3.3031439781188965, 3.20192289352417]</t>
         </is>
       </c>
       <c r="U70" t="n">
         <v>4</v>
       </c>
       <c r="V70" t="n">
-        <v>0.9442282920673751</v>
+        <v>0.9442282319068909</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -6633,7 +6633,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G71" t="n">
         <v>0.5714285714285714</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[2.9205044071672184, 3.5428647038411, 3.886372076452864, 4.313850905134462, 4.3782608704398305, 3.729479316365309, 4.495724782159341]</t>
+          <t>[2.920504570007324, 3.5428647994995117, 3.8863720893859863, 4.3138508796691895, 4.378261089324951, 3.7294793128967285, 4.495724678039551]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -6705,14 +6705,14 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>[2.9205044071672184, 3.5428647038411, 3.886372076452864, 4.313850905134462, 4.3782608704398305, 3.729479316365309, 4.495724782159341]</t>
+          <t>[2.920504570007324, 3.5428647994995117, 3.8863720893859863, 4.3138508796691895, 4.378261089324951, 3.7294793128967285, 4.495724678039551]</t>
         </is>
       </c>
       <c r="U71" t="n">
         <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>1.025490416015758</v>
+        <v>1.025490403175354</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -6721,7 +6721,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.846128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G72" t="n">
         <v>0.5714285714285714</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[1.9535507198899174, 2.036375392462135, 2.1691611570487335, 2.706172787816595, 2.637667802357196, 2.8110306227395556, 2.5205126162045515]</t>
+          <t>[1.953550934791565, 2.0363752841949463, 2.169160842895508, 2.7061729431152344, 2.6376678943634033, 2.811030387878418, 2.520512342453003]</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -6793,14 +6793,14 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>[1.9535507198899174, 2.036375392462135, 2.1691611570487335, 2.706172787816595, 2.637667802357196, 2.8110306227395556, 2.5205126162045515]</t>
+          <t>[1.953550934791565, 2.0363752841949463, 2.169160842895508, 2.7061729431152344, 2.6376678943634033, 2.811030387878418, 2.520512342453003]</t>
         </is>
       </c>
       <c r="U72" t="n">
         <v>4</v>
       </c>
       <c r="V72" t="n">
-        <v>0.8960078389553137</v>
+        <v>0.8960078954696655</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -6809,7 +6809,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.847128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6832,7 +6832,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G73" t="n">
         <v>0.5714285714285714</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[1.9066147798612165, 2.1209404147368773, 2.5982107671239807, 2.5205126162045515, 2.678786780417688, 2.8743946832103364, 2.608808792957946]</t>
+          <t>[1.9066146612167358, 2.1209404468536377, 2.5982108116149902, 2.520512342453003, 2.6787867546081543, 2.874394655227661, 2.608808994293213]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -6881,14 +6881,14 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>[1.9066147798612165, 2.1209404147368773, 2.5982107671239807, 2.5205126162045515, 2.678786780417688, 2.8743946832103364, 2.608808792957946]</t>
+          <t>[1.9066146612167358, 2.1209404468536377, 2.5982108116149902, 2.520512342453003, 2.6787867546081543, 2.874394655227661, 2.608808994293213]</t>
         </is>
       </c>
       <c r="U73" t="n">
         <v>4</v>
       </c>
       <c r="V73" t="n">
-        <v>0.9435958266931663</v>
+        <v>0.9435957074165344</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
@@ -6897,7 +6897,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.847128</t>
+          <t>2025-10-17T02:10:02.566101</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G74" t="n">
         <v>0.5714285714285714</v>
@@ -6935,7 +6935,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[2.74865954234127, 2.90029678333476, 3.5084594175811135, 3.8707407319544656, 3.5838060196714343, 4.140207121876274, 3.481227382560054]</t>
+          <t>[2.74865984916687, 2.900296926498413, 3.5084593296051025, 3.8707408905029297, 3.583806276321411, 4.140206813812256, 3.481227159500122]</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -6969,14 +6969,14 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>[2.74865954234127, 2.90029678333476, 3.5084594175811135, 3.8707407319544656, 4.140207121876274, 3.481227382560054, 3.5191093225153987]</t>
+          <t>[2.74865984916687, 2.900296926498413, 3.5084593296051025, 3.8707408905029297, 4.140206813812256, 3.481227159500122, 3.5191092491149902]</t>
         </is>
       </c>
       <c r="U74" t="n">
         <v>4</v>
       </c>
       <c r="V74" t="n">
-        <v>0.959304509599244</v>
+        <v>0.9593045115470886</v>
       </c>
       <c r="W74" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.847128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7008,7 +7008,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G75" t="n">
         <v>0.5714285714285714</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[2.0780007862012946, 2.42753343342506, 2.4465273814667765, 3.202727394662366, 2.7308429586355283, 3.251425404735552, 4.526288077944848]</t>
+          <t>[2.078000783920288, 2.4275333881378174, 2.4465272426605225, 3.2027273178100586, 2.7308428287506104, 3.2514257431030273, 4.5262885093688965]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7057,14 +7057,14 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>[4.526288077944848, 3.829262481018032, 4.092069468766758, 3.908068919385294, 5.455953797213714, 5.11588661856244, 5.601809583008806]</t>
+          <t>[4.5262885093688965, 3.8292627334594727, 4.092069149017334, 3.908069133758545, 5.455954074859619, 5.115886688232422, 5.601809978485107]</t>
         </is>
       </c>
       <c r="U75" t="n">
         <v>4</v>
       </c>
       <c r="V75" t="n">
-        <v>0.7749537575270389</v>
+        <v>0.7749537229537964</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
@@ -7073,7 +7073,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.847128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G76" t="n">
         <v>0.5714285714285714</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[2.2870513133156822, 3.1159537581020493, 2.856168748218591, 2.806350562734419, 2.53602791589201, 2.9125909227489215, 3.323772525509346]</t>
+          <t>[2.287051200866699, 3.1159534454345703, 2.856168746948242, 2.8063504695892334, 2.5360279083251953, 2.912590980529785, 3.323772430419922]</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7145,14 +7145,14 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>[2.2870513133156822, 3.1159537581020493, 2.856168748218591, 2.806350562734419, 2.53602791589201, 2.9125909227489215, 3.323772525509346]</t>
+          <t>[2.287051200866699, 3.1159534454345703, 2.856168746948242, 2.8063504695892334, 2.5360279083251953, 2.912590980529785, 3.323772430419922]</t>
         </is>
       </c>
       <c r="U76" t="n">
         <v>4</v>
       </c>
       <c r="V76" t="n">
-        <v>0.9712250195934478</v>
+        <v>0.9712249636650085</v>
       </c>
       <c r="W76" t="n">
         <v>0</v>
@@ -7161,7 +7161,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.847128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G77" t="n">
         <v>0.5714285714285714</v>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[2.9205044071672184, 2.791842143039259, 2.6171413855656924, 2.788251025152097, 2.975157319679292, 3.185168753020744, 3.2341919146583553]</t>
+          <t>[2.920504570007324, 2.791842222213745, 2.6171412467956543, 2.7882509231567383, 2.9751570224761963, 3.185168504714966, 3.23419189453125]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7233,14 +7233,14 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>[2.9205044071672184, 2.791842143039259, 2.6171413855656924, 2.788251025152097, 2.975157319679292, 3.185168753020744, 3.2341919146583553]</t>
+          <t>[2.920504570007324, 2.791842222213745, 2.6171412467956543, 2.7882509231567383, 2.9751570224761963, 3.185168504714966, 3.23419189453125]</t>
         </is>
       </c>
       <c r="U77" t="n">
         <v>4</v>
       </c>
       <c r="V77" t="n">
-        <v>0.9216871541154733</v>
+        <v>0.921687126159668</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.847128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G78" t="n">
         <v>0.5714285714285714</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[3.3330360334793236, 3.462326700618113, 3.5154341960130173, 4.167624062456981, 3.610581075327495, 4.26905935953283, 3.7868012827004875]</t>
+          <t>[3.333036184310913, 3.462326765060425, 3.5154342651367188, 4.167623996734619, 3.610581159591675, 4.269059658050537, 3.786801338195801]</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -7321,14 +7321,14 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>[3.3330360334793236, 3.462326700618113, 3.5154341960130173, 4.167624062456981, 3.610581075327495, 4.26905935953283, 3.7868012827004875]</t>
+          <t>[3.333036184310913, 3.462326765060425, 3.5154342651367188, 4.167623996734619, 3.610581159591675, 4.269059658050537, 3.786801338195801]</t>
         </is>
       </c>
       <c r="U78" t="n">
         <v>4</v>
       </c>
       <c r="V78" t="n">
-        <v>1.061033339613686</v>
+        <v>1.061033368110657</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -7337,7 +7337,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.847128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G79" t="n">
         <v>0.5714285714285714</v>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[2.889972265254008, 3.2578315593888023, 3.4984824462414847, 3.367487775144783, 3.6505118501183618, 4.010083022343331, 3.6641565139146226]</t>
+          <t>[2.88997220993042, 3.257831573486328, 3.4984824657440186, 3.367487668991089, 3.6505117416381836, 4.010083198547363, 3.664156675338745]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -7409,14 +7409,14 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>[2.889972265254008, 3.2578315593888023, 3.4984824462414847, 3.367487775144783, 3.6505118501183618, 4.010083022343331, 3.6641565139146226]</t>
+          <t>[2.88997220993042, 3.257831573486328, 3.4984824657440186, 3.367487668991089, 3.6505117416381836, 4.010083198547363, 3.664156675338745]</t>
         </is>
       </c>
       <c r="U79" t="n">
         <v>4</v>
       </c>
       <c r="V79" t="n">
-        <v>0.9683814863986268</v>
+        <v>0.9683815240859985</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
@@ -7425,7 +7425,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.847128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7448,7 +7448,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G80" t="n">
         <v>0.5714285714285714</v>
@@ -7463,7 +7463,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K80" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[10.352894775208599, 9.279989226545792, 9.885748469874752, 9.035167461804436, 13.595794861430612, 16.5590054214704, 13.834056742311]</t>
+          <t>[10.35289478302002, 9.279990196228027, 9.885748863220215, 9.035167694091797, 13.595794677734375, 16.559003829956055, 13.834054946899414]</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -7497,14 +7497,14 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>[9.035167461804436, 13.595794861430612, 13.227676134595512, 12.330834302804604, 11.492681053610623, 12.507253399128807, 12.60782698089261]</t>
+          <t>[9.035167694091797, 13.595794677734375, 13.227675437927246, 12.33083438873291, 11.492680549621582, 12.50725269317627, 12.607828140258789]</t>
         </is>
       </c>
       <c r="U80" t="n">
         <v>4</v>
       </c>
       <c r="V80" t="n">
-        <v>1.282612928521025</v>
+        <v>1.282613039016724</v>
       </c>
       <c r="W80" t="n">
         <v>0</v>
@@ -7513,7 +7513,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.847128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G81" t="n">
         <v>0.5714285714285714</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[1.8763791077025522, 2.415524940043881, 2.7004280468397543, 2.491880290149008, 2.7086672201019857, 2.7961434714562166, 3.2419253207942345]</t>
+          <t>[1.8763794898986816, 2.41552472114563, 2.700427770614624, 2.491880178451538, 2.708667278289795, 2.7961437702178955, 3.24192476272583]</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7585,14 +7585,14 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>[1.8763791077025522, 2.415524940043881, 2.7004280468397543, 2.491880290149008, 3.0276800363791128, 2.7086672201019857, 3.2419253207942345]</t>
+          <t>[1.8763794898986816, 2.41552472114563, 2.700427770614624, 2.491880178451538, 3.0276803970336914, 2.708667278289795, 3.24192476272583]</t>
         </is>
       </c>
       <c r="U81" t="n">
         <v>4</v>
       </c>
       <c r="V81" t="n">
-        <v>0.9589142374138149</v>
+        <v>0.9589142203330994</v>
       </c>
       <c r="W81" t="n">
         <v>0</v>
@@ -7601,7 +7601,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.848128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7624,7 +7624,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G82" t="n">
         <v>0.5714285714285714</v>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[2.74865954234127, 3.617624860968299, 3.214559223420193, 3.7680119181181544, 3.6894828274177156, 4.314549888358221, 3.588745889815516]</t>
+          <t>[2.74865984916687, 3.6176247596740723, 3.214559555053711, 3.768012285232544, 3.6894829273223877, 4.314549922943115, 3.588745594024658]</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7673,14 +7673,14 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>[2.74865954234127, 3.617624860968299, 3.214559223420193, 3.6894828274177156, 4.314549888358221, 3.9568333478519424, 3.8995257200443763]</t>
+          <t>[2.74865984916687, 3.6176247596740723, 3.214559555053711, 3.6894829273223877, 4.314549922943115, 3.9568331241607666, 3.8995256423950195]</t>
         </is>
       </c>
       <c r="U82" t="n">
         <v>4</v>
       </c>
       <c r="V82" t="n">
-        <v>0.9765524164342377</v>
+        <v>0.9765525460243225</v>
       </c>
       <c r="W82" t="n">
         <v>0</v>
@@ -7689,7 +7689,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.848128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G83" t="n">
         <v>0.5714285714285714</v>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[1.7454465203880052, 2.3829685485228724, 1.9998191670762588, 2.069133110384634, 2.324934172604318, 2.298265724911048, 2.536875466834034]</t>
+          <t>[1.7454464435577393, 2.3829686641693115, 1.9998191595077515, 2.0691328048706055, 2.324934482574463, 2.2982656955718994, 2.5368752479553223]</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -7761,14 +7761,14 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>[2.324934172604318, 2.648351310793584, 2.798754170325639, 2.630072062262676, 2.9839393567540182, 3.2935049298999823, 2.9655393253360067]</t>
+          <t>[2.324934482574463, 2.6483511924743652, 2.7987544536590576, 2.6300721168518066, 2.9839391708374023, 3.2935049533843994, 2.9655392169952393]</t>
         </is>
       </c>
       <c r="U83" t="n">
         <v>4</v>
       </c>
       <c r="V83" t="n">
-        <v>0.8157772077755425</v>
+        <v>0.8157771229743958</v>
       </c>
       <c r="W83" t="n">
         <v>0</v>
@@ -7777,7 +7777,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.848128</t>
+          <t>2025-10-17T02:10:02.567100</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G84" t="n">
         <v>0.5714285714285714</v>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>[4.0706848750932565, 4.371141379696012, 4.0569719312422645, 4.539308897238702, 4.280381979649011, 4.980393411077335, 4.949024826828054]</t>
+          <t>[4.070684909820557, 4.3711419105529785, 4.056972026824951, 4.539309024810791, 4.280381679534912, 4.980393409729004, 4.9490251541137695]</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>[4.0706848750932565, 4.371141379696012, 4.0569719312422645, 4.539308897238702, 4.280381979649011, 4.980393411077335, 4.949024826828054]</t>
+          <t>[4.070684909820557, 4.3711419105529785, 4.056972026824951, 4.539309024810791, 4.280381679534912, 4.980393409729004, 4.9490251541137695]</t>
         </is>
       </c>
       <c r="U84" t="n">
         <v>4</v>
       </c>
       <c r="V84" t="n">
-        <v>1.090222089600855</v>
+        <v>1.090222120285034</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
@@ -7865,7 +7865,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.848128</t>
+          <t>2025-10-17T02:10:02.568101</t>
         </is>
       </c>
     </row>
@@ -7888,7 +7888,7 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G85" t="n">
         <v>0.5714285714285714</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[3.83333537729729, 3.6885844009810738, 4.749802060161882, 6.375900373085561, 5.021322306435332, 4.865948770511858, 5.412069813772136]</t>
+          <t>[3.8333353996276855, 3.688584566116333, 4.749802112579346, 6.3759002685546875, 5.021322250366211, 4.865948677062988, 5.412069797515869]</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -7937,14 +7937,14 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>[3.83333537729729, 3.6885844009810738, 4.749802060161882, 6.375900373085561, 5.021322306435332, 4.865948770511858, 5.412069813772136]</t>
+          <t>[3.8333353996276855, 3.688584566116333, 4.749802112579346, 6.3759002685546875, 5.021322250366211, 4.865948677062988, 5.412069797515869]</t>
         </is>
       </c>
       <c r="U85" t="n">
         <v>4</v>
       </c>
       <c r="V85" t="n">
-        <v>1.033254468602779</v>
+        <v>1.033254504203796</v>
       </c>
       <c r="W85" t="n">
         <v>0</v>
@@ -7953,7 +7953,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.848128</t>
+          <t>2025-10-17T02:10:02.568101</t>
         </is>
       </c>
     </row>
@@ -7976,7 +7976,7 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G86" t="n">
         <v>0.5714285714285714</v>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[3.225885473778741, 3.1762557693920335, 3.871425366245549, 3.3606670383073642, 3.7722493787738594, 3.749005383561491, 3.5239058616799395]</t>
+          <t>[3.2258851528167725, 3.176255941390991, 3.871425151824951, 3.3606669902801514, 3.772249221801758, 3.7490053176879883, 3.5239057540893555]</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -8025,14 +8025,14 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>[3.225885473778741, 3.1762557693920335, 3.871425366245549, 3.3606670383073642, 3.749005383561491, 4.190896995678954, 4.693464240354737]</t>
+          <t>[3.2258851528167725, 3.176255941390991, 3.871425151824951, 3.3606669902801514, 3.7490053176879883, 4.190896987915039, 4.693464279174805]</t>
         </is>
       </c>
       <c r="U86" t="n">
         <v>4</v>
       </c>
       <c r="V86" t="n">
-        <v>0.9478891126584824</v>
+        <v>0.9478890895843506</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
@@ -8041,7 +8041,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.848128</t>
+          <t>2025-10-17T02:10:02.568101</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G87" t="n">
         <v>0.5714285714285714</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[2.122034371822165, 3.0624819192338673, 3.4288836807784775, 3.65343276780438, 3.6209661368232013, 3.841079487695473, 3.3439477770012203]</t>
+          <t>[2.1220343112945557, 3.0624818801879883, 3.4288840293884277, 3.653432846069336, 3.6209661960601807, 3.8410794734954834, 3.3439478874206543]</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -8113,14 +8113,14 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>[2.122034371822165, 3.0624819192338673, 3.65343276780438, 3.841079487695473, 3.6209661368232013, 4.223645005502128, 4.303092299508627]</t>
+          <t>[2.1220343112945557, 3.0624818801879883, 3.653432846069336, 3.8410794734954834, 3.6209661960601807, 4.223645210266113, 4.3030924797058105]</t>
         </is>
       </c>
       <c r="U87" t="n">
         <v>4</v>
       </c>
       <c r="V87" t="n">
-        <v>0.9477652482416347</v>
+        <v>0.9477652311325073</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -8129,7 +8129,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.848128</t>
+          <t>2025-10-17T02:10:02.568101</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G88" t="n">
         <v>0.5714285714285714</v>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[2.63793048574738, 2.7080412154284974, 3.055382927610812, 3.144673363001919, 3.211227554585352, 3.0154656706771883, 3.47836534022667]</t>
+          <t>[2.6379308700561523, 2.708040952682495, 3.0553829669952393, 3.1446735858917236, 3.2112276554107666, 3.015465497970581, 3.478365421295166]</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -8201,14 +8201,14 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>[2.63793048574738, 2.7080412154284974, 3.055382927610812, 3.144673363001919, 3.211227554585352, 3.0154656706771883, 3.47836534022667]</t>
+          <t>[2.6379308700561523, 2.708040952682495, 3.0553829669952393, 3.1446735858917236, 3.2112276554107666, 3.015465497970581, 3.478365421295166]</t>
         </is>
       </c>
       <c r="U88" t="n">
         <v>4</v>
       </c>
       <c r="V88" t="n">
-        <v>0.9223571926789197</v>
+        <v>0.9223572015762329</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -8217,7 +8217,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.848128</t>
+          <t>2025-10-17T02:10:02.568101</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G89" t="n">
         <v>0.5714285714285714</v>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[3.0461976757426013, 3.1118762088882757, 3.398753201626448, 3.4773982922781213, 3.7142996924694107, 4.3111699814593765, 4.19107375718157]</t>
+          <t>[3.0461976528167725, 3.1118760108947754, 3.3987531661987305, 3.477397918701172, 3.7142999172210693, 4.3111701011657715, 4.191073417663574]</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8289,14 +8289,14 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>[3.0461976757426013, 3.1118762088882757, 3.398753201626448, 3.4773982922781213, 3.7142996924694107, 4.3111699814593765, 4.19107375718157]</t>
+          <t>[3.0461976528167725, 3.1118760108947754, 3.3987531661987305, 3.477397918701172, 3.7142999172210693, 4.3111701011657715, 4.191073417663574]</t>
         </is>
       </c>
       <c r="U89" t="n">
         <v>4</v>
       </c>
       <c r="V89" t="n">
-        <v>0.8307130119461216</v>
+        <v>0.8307129740715027</v>
       </c>
       <c r="W89" t="n">
         <v>0</v>
@@ -8305,7 +8305,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.848128</t>
+          <t>2025-10-17T02:10:02.568101</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G90" t="n">
         <v>0.5714285714285714</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[2.3039064670548552, 3.561668030566468, 3.2419253207942345, 3.6894828274177156, 3.816883767196018, 3.3300570950329336, 3.4366759523329073]</t>
+          <t>[2.3039064407348633, 3.5616679191589355, 3.24192476272583, 3.6894829273223877, 3.8168838024139404, 3.33005690574646, 3.436676025390625]</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -8377,14 +8377,14 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>[3.6894828274177156, 3.2419253207942345, 3.3300570950329336, 3.837268719911371, 3.556450758884373, 4.304701892762385, 3.876381126179331]</t>
+          <t>[3.6894829273223877, 3.24192476272583, 3.33005690574646, 3.837268829345703, 3.556450605392456, 4.304701805114746, 3.8763811588287354]</t>
         </is>
       </c>
       <c r="U90" t="n">
         <v>4</v>
       </c>
       <c r="V90" t="n">
-        <v>0.9653751697363731</v>
+        <v>0.9653751850128174</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
@@ -8393,7 +8393,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.849128</t>
+          <t>2025-10-17T02:10:02.568101</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G91" t="n">
         <v>0.5714285714285714</v>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[2.4011948485270946, 2.4662781827586278, 2.489864013521455, 2.5282960996910315, 2.701330942017249, 2.938952080278281, 2.868205635343705]</t>
+          <t>[2.4011945724487305, 2.4662787914276123, 2.489863872528076, 2.5282962322235107, 2.7013309001922607, 2.9389522075653076, 2.8682057857513428]</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -8465,14 +8465,14 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>[2.4011948485270946, 2.4662781827586278, 2.489864013521455, 2.5282960996910315, 2.701330942017249, 2.938952080278281, 3.194867052366358]</t>
+          <t>[2.4011945724487305, 2.4662787914276123, 2.489863872528076, 2.5282962322235107, 2.7013309001922607, 2.9389522075653076, 3.1948671340942383]</t>
         </is>
       </c>
       <c r="U91" t="n">
         <v>4</v>
       </c>
       <c r="V91" t="n">
-        <v>0.9835547483422743</v>
+        <v>0.9835547804832458</v>
       </c>
       <c r="W91" t="n">
         <v>0</v>
@@ -8481,7 +8481,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.849128</t>
+          <t>2025-10-17T02:10:02.568101</t>
         </is>
       </c>
     </row>
@@ -8504,7 +8504,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G92" t="n">
         <v>0.5714285714285714</v>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[2.11505963938218, 2.2399087876048225, 2.6162436170715484, 2.6140567590334665, 2.34686428603201, 3.1762557693920335, 3.1562825075264787]</t>
+          <t>[2.1150593757629395, 2.2399086952209473, 2.616243839263916, 2.6140570640563965, 2.346864700317383, 3.176255941390991, 3.1562821865081787]</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -8553,14 +8553,14 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>[2.11505963938218, 2.2399087876048225, 2.34686428603201, 2.6162436170715484, 2.6140567590334665, 3.1762557693920335, 3.1562825075264787]</t>
+          <t>[2.1150593757629395, 2.2399086952209473, 2.346864700317383, 2.616243839263916, 2.6140570640563965, 3.176255941390991, 3.1562821865081787]</t>
         </is>
       </c>
       <c r="U92" t="n">
         <v>4</v>
       </c>
       <c r="V92" t="n">
-        <v>0.8280044130268452</v>
+        <v>0.8280044198036194</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -8569,7 +8569,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.849128</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G93" t="n">
         <v>0.5714285714285714</v>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>[4.3717533073014865, 4.551328003068311, 3.908517428628496, 4.400537589687239, 5.072414803206294, 4.717777587850117, 4.791256479801224]</t>
+          <t>[4.371753215789795, 4.551328182220459, 3.908517599105835, 4.400537967681885, 5.072414875030518, 4.717777729034424, 4.791256904602051]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -8641,14 +8641,14 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>[4.3717533073014865, 4.551328003068311, 3.908517428628496, 4.400537589687239, 5.072414803206294, 4.717777587850117, 4.791256479801224]</t>
+          <t>[4.371753215789795, 4.551328182220459, 3.908517599105835, 4.400537967681885, 5.072414875030518, 4.717777729034424, 4.791256904602051]</t>
         </is>
       </c>
       <c r="U93" t="n">
         <v>4</v>
       </c>
       <c r="V93" t="n">
-        <v>1.016620377302378</v>
+        <v>1.016620397567749</v>
       </c>
       <c r="W93" t="n">
         <v>0</v>
@@ -8657,7 +8657,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.849128</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G94" t="n">
         <v>0.5714285714285714</v>
@@ -8695,7 +8695,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[3.4286465763325458, 3.469683128075531, 3.4821195967408975, 4.845022800522006, 3.8247539668239523, 3.664970230413518, 4.664514303015287]</t>
+          <t>[3.4286468029022217, 3.4696831703186035, 3.482119560241699, 4.845022678375244, 3.824754238128662, 3.664970874786377, 4.664514064788818]</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -8729,14 +8729,14 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>[3.4286465763325458, 3.469683128075531, 3.4821195967408975, 4.845022800522006, 3.8247539668239523, 3.664970230413518, 3.654120924734772]</t>
+          <t>[3.4286468029022217, 3.4696831703186035, 3.482119560241699, 4.845022678375244, 3.824754238128662, 3.664970874786377, 3.654120922088623]</t>
         </is>
       </c>
       <c r="U94" t="n">
         <v>4</v>
       </c>
       <c r="V94" t="n">
-        <v>1.041368913192447</v>
+        <v>1.041368961334229</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -8745,7 +8745,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.849128</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -8768,7 +8768,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G95" t="n">
         <v>0.5714285714285714</v>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[3.8877355626995187, 4.803753400845289, 3.921548972909323, 4.314549888358221, 5.396847366262858, 5.031162143941981, 4.631079750964393]</t>
+          <t>[3.8877358436584473, 4.80375337600708, 3.921549081802368, 4.314549922943115, 5.396846771240234, 5.031162261962891, 4.63107967376709]</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -8817,14 +8817,14 @@
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>[3.8877355626995187, 4.803753400845289, 3.921548972909323, 4.314549888358221, 5.396847366262858, 5.031162143941981, 4.631079750964393]</t>
+          <t>[3.8877358436584473, 4.80375337600708, 3.921549081802368, 4.314549922943115, 5.396846771240234, 5.031162261962891, 4.63107967376709]</t>
         </is>
       </c>
       <c r="U95" t="n">
         <v>4</v>
       </c>
       <c r="V95" t="n">
-        <v>1.008906616902768</v>
+        <v>1.008906602859497</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -8833,7 +8833,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.849128</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G96" t="n">
         <v>0.5714285714285714</v>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[3.4999590352438696, 4.817995118291822, 5.072414803206294, 4.924728906736444, 5.637545821627436, 6.239005850219928, 5.447000805753296]</t>
+          <t>[3.4999589920043945, 4.817995548248291, 5.072414875030518, 4.924728870391846, 5.637546062469482, 6.2390055656433105, 5.447000980377197]</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -8905,14 +8905,14 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>[3.4999590352438696, 4.817995118291822, 5.072414803206294, 4.924728906736444, 5.637545821627436, 6.239005850219928, 5.447000805753296]</t>
+          <t>[3.4999589920043945, 4.817995548248291, 5.072414875030518, 4.924728870391846, 5.637546062469482, 6.2390055656433105, 5.447000980377197]</t>
         </is>
       </c>
       <c r="U96" t="n">
         <v>4</v>
       </c>
       <c r="V96" t="n">
-        <v>1.03998183086312</v>
+        <v>1.039981722831726</v>
       </c>
       <c r="W96" t="n">
         <v>0</v>
@@ -8921,7 +8921,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.850136</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -8944,7 +8944,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G97" t="n">
         <v>0.5714285714285714</v>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[3.1118762088882757, 3.17226243147613, 3.214043163869644, 3.5790002847462494, 3.6162494363590643, 3.4277910428378067, 3.4504713100022006]</t>
+          <t>[3.1118760108947754, 3.17226243019104, 3.214043378829956, 3.579000234603882, 3.6162493228912354, 3.427790880203247, 3.4504716396331787]</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -8993,14 +8993,14 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>[3.1118762088882757, 3.17226243147613, 3.214043163869644, 3.5790002847462494, 3.6162494363590643, 3.4277910428378067, 3.4504713100022006]</t>
+          <t>[3.1118760108947754, 3.17226243019104, 3.214043378829956, 3.579000234603882, 3.6162493228912354, 3.427790880203247, 3.4504716396331787]</t>
         </is>
       </c>
       <c r="U97" t="n">
         <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8891294010557412</v>
+        <v>0.8891294002532959</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.850136</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -9032,7 +9032,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G98" t="n">
         <v>0.5714285714285714</v>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[1.6933330180828408, 1.8893887139972358, 1.8641501716262503, 1.8508768220230551, 2.1451685191227727, 2.158270050865402, 2.220420669831067]</t>
+          <t>[1.6933331489562988, 1.8893886804580688, 1.864150047302246, 1.8508765697479248, 2.1451683044433594, 2.1582698822021484, 2.2204208374023438]</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -9081,14 +9081,14 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>[1.8893887139972358, 2.3596155879150187, 2.5975406505908887, 2.62459668933437, 2.8657150206750184, 2.777440826020507, 2.7819569965801185]</t>
+          <t>[1.8893886804580688, 2.3596153259277344, 2.597540855407715, 2.62459659576416, 2.8657150268554688, 2.7774407863616943, 2.781956911087036]</t>
         </is>
       </c>
       <c r="U98" t="n">
         <v>4</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8250246572184985</v>
+        <v>0.8250245451927185</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
@@ -9097,7 +9097,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.850136</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -9120,7 +9120,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G99" t="n">
         <v>0.5714285714285714</v>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>[2.036375392462135, 2.5651904610895238, 2.7167230186619094, 2.6229389847786533, 3.0812013387263106, 3.2145248367646295, 2.948164182576989]</t>
+          <t>[2.0363752841949463, 2.565190315246582, 2.7167229652404785, 2.622938632965088, 3.0812017917633057, 3.214524507522583, 2.948164224624634]</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -9169,14 +9169,14 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>[2.036375392462135, 2.5651904610895238, 2.7167230186619094, 2.6229389847786533, 3.0812013387263106, 3.2145248367646295, 2.948164182576989]</t>
+          <t>[2.0363752841949463, 2.565190315246582, 2.7167229652404785, 2.622938632965088, 3.0812017917633057, 3.214524507522583, 2.948164224624634]</t>
         </is>
       </c>
       <c r="U99" t="n">
         <v>4</v>
       </c>
       <c r="V99" t="n">
-        <v>0.9385263107954745</v>
+        <v>0.9385262131690979</v>
       </c>
       <c r="W99" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.850136</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G100" t="n">
         <v>0.5714285714285714</v>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>[1.8163297071618814, 1.9421502542334632, 2.131900411425432, 2.3930576328797897, 2.739864526304626, 2.583285145077623, 3.0286375897579676]</t>
+          <t>[1.816329836845398, 1.9421498775482178, 2.1319003105163574, 2.3930575847625732, 2.7398641109466553, 2.583285093307495, 3.028637647628784]</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -9257,14 +9257,14 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>[1.8163297071618814, 1.9421502542334632, 2.131900411425432, 2.3930576328797897, 2.739864526304626, 2.583285145077623, 3.0286375897579676]</t>
+          <t>[1.816329836845398, 1.9421498775482178, 2.1319003105163574, 2.3930575847625732, 2.7398641109466553, 2.583285093307495, 3.028637647628784]</t>
         </is>
       </c>
       <c r="U100" t="n">
         <v>4</v>
       </c>
       <c r="V100" t="n">
-        <v>0.9090999746558901</v>
+        <v>0.9090999364852905</v>
       </c>
       <c r="W100" t="n">
         <v>0</v>
@@ -9273,7 +9273,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.851135</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G101" t="n">
         <v>0.5714285714285714</v>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[2.0348715183180546, 1.7813073879053836, 2.0949856713953765, 2.111189838820872, 2.302834731169962, 2.419034003475125, 2.8977346864010944]</t>
+          <t>[2.0348715782165527, 1.781307578086853, 2.0949854850769043, 2.1111900806427, 2.3028347492218018, 2.419034004211426, 2.8977346420288086]</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -9345,14 +9345,14 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>[2.0348715183180546, 1.7813073879053836, 2.0949856713953765, 2.111189838820872, 2.302834731169962, 2.419034003475125, 2.8977346864010944]</t>
+          <t>[2.0348715782165527, 1.781307578086853, 2.0949854850769043, 2.1111900806427, 2.3028347492218018, 2.419034004211426, 2.8977346420288086]</t>
         </is>
       </c>
       <c r="U101" t="n">
         <v>4</v>
       </c>
       <c r="V101" t="n">
-        <v>0.7727854768115778</v>
+        <v>0.7727855443954468</v>
       </c>
       <c r="W101" t="n">
         <v>0</v>
@@ -9361,7 +9361,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.851135</t>
+          <t>2025-10-17T02:10:02.569100</t>
         </is>
       </c>
     </row>
@@ -9384,7 +9384,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G102" t="n">
         <v>0.5714285714285714</v>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>[2.975157319679292, 3.207568467180873, 3.1457463813976885, 3.0770726866745868, 2.825923612487896, 3.367487775144783, 3.392304187746319]</t>
+          <t>[2.9751570224761963, 3.207568407058716, 3.1457464694976807, 3.0770726203918457, 2.8259236812591553, 3.367487668991089, 3.392303943634033]</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -9433,14 +9433,14 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>[2.975157319679292, 3.207568467180873, 3.1457463813976885, 3.0770726866745868, 2.825923612487896, 3.367487775144783, 3.392304187746319]</t>
+          <t>[2.9751570224761963, 3.207568407058716, 3.1457464694976807, 3.0770726203918457, 2.8259236812591553, 3.367487668991089, 3.392303943634033]</t>
         </is>
       </c>
       <c r="U102" t="n">
         <v>4</v>
       </c>
       <c r="V102" t="n">
-        <v>0.9626835799104463</v>
+        <v>0.9626836180686951</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.851135</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -9472,7 +9472,7 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G103" t="n">
         <v>0.5714285714285714</v>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>[1.800940592269496, 2.1237018960754175, 2.2912762141796343, 2.033260559426506, 2.6221364391449695, 2.2772457486263464, 2.2470378991447713]</t>
+          <t>[1.8009406328201294, 2.123701572418213, 2.291275978088379, 2.0332605838775635, 2.622136354446411, 2.27724552154541, 2.247037887573242]</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -9521,14 +9521,14 @@
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>[1.800940592269496, 2.1237018960754175, 2.2912762141796343, 2.033260559426506, 2.6221364391449695, 2.2772457486263464, 2.2470378991447713]</t>
+          <t>[1.8009406328201294, 2.123701572418213, 2.291275978088379, 2.0332605838775635, 2.622136354446411, 2.27724552154541, 2.247037887573242]</t>
         </is>
       </c>
       <c r="U103" t="n">
         <v>4</v>
       </c>
       <c r="V103" t="n">
-        <v>0.9420149492511896</v>
+        <v>0.9420149326324463</v>
       </c>
       <c r="W103" t="n">
         <v>0</v>
@@ -9537,7 +9537,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.853137</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G104" t="n">
         <v>0.5714285714285714</v>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>[4.056423795516002, 5.233694277111122, 4.5449380006444, 5.271964299796446, 4.631298983640157, 5.444602094529317, 5.623388562811189]</t>
+          <t>[4.056423664093018, 5.233694553375244, 4.544938087463379, 5.271964073181152, 4.631299018859863, 5.444601535797119, 5.623388767242432]</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -9609,14 +9609,14 @@
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>[4.056423795516002, 5.233694277111122, 4.5449380006444, 5.271964299796446, 4.631298983640157, 5.444602094529317, 5.623388562811189]</t>
+          <t>[4.056423664093018, 5.233694553375244, 4.544938087463379, 5.271964073181152, 4.631299018859863, 5.444601535797119, 5.623388767242432]</t>
         </is>
       </c>
       <c r="U104" t="n">
         <v>4</v>
       </c>
       <c r="V104" t="n">
-        <v>1.060816846458897</v>
+        <v>1.060816884040833</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.853137</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G105" t="n">
         <v>0.5714285714285714</v>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>[2.5598837551996945, 3.5399127719420465, 3.5119890338276916, 3.745381629486875, 3.9281958459210777, 3.7990226342793085, 3.9793896949815237]</t>
+          <t>[2.5598838329315186, 3.5399129390716553, 3.511988878250122, 3.7453813552856445, 3.9281957149505615, 3.7990224361419678, 3.9793899059295654]</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -9697,14 +9697,14 @@
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>[2.5598837551996945, 3.5399127719420465, 3.5119890338276916, 3.745381629486875, 3.9281958459210777, 3.7990226342793085, 3.9793896949815237]</t>
+          <t>[2.5598838329315186, 3.5399129390716553, 3.511988878250122, 3.7453813552856445, 3.9281957149505615, 3.7990224361419678, 3.9793899059295654]</t>
         </is>
       </c>
       <c r="U105" t="n">
         <v>4</v>
       </c>
       <c r="V105" t="n">
-        <v>1.039855726139445</v>
+        <v>1.039855599403381</v>
       </c>
       <c r="W105" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.853137</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G106" t="n">
         <v>0.5714285714285714</v>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>[2.45154123748135, 2.6176432862342134, 3.05009238450375, 2.8602280261288016, 3.2485326168167097, 3.2341919146583553, 3.074431775882909]</t>
+          <t>[2.451540946960449, 2.617643117904663, 3.0500919818878174, 2.8602283000946045, 3.24853253364563, 3.23419189453125, 3.074431896209717]</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -9785,14 +9785,14 @@
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>[2.45154123748135, 2.6176432862342134, 3.05009238450375, 2.8602280261288016, 3.2485326168167097, 3.2341919146583553, 3.074431775882909]</t>
+          <t>[2.451540946960449, 2.617643117904663, 3.0500919818878174, 2.8602283000946045, 3.24853253364563, 3.23419189453125, 3.074431896209717]</t>
         </is>
       </c>
       <c r="U106" t="n">
         <v>4</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8984999064099058</v>
+        <v>0.8985000252723694</v>
       </c>
       <c r="W106" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.854137</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G107" t="n">
         <v>0.5714285714285714</v>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>[1.8929746849762596, 1.9459336432158363, 2.1957213843581145, 2.34686428603201, 2.0307905739305205, 2.3988046700318457, 2.760044928412959]</t>
+          <t>[1.892975091934204, 1.9459336996078491, 2.1957216262817383, 2.346864700317383, 2.0307908058166504, 2.3988049030303955, 2.760044813156128]</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>[1.8929746849762596, 1.9459336432158363, 2.1957213843581145, 2.0307905739305205, 2.34686428603201, 2.3988046700318457, 2.760044928412959]</t>
+          <t>[1.892975091934204, 1.9459336996078491, 2.1957216262817383, 2.0307908058166504, 2.346864700317383, 2.3988049030303955, 2.760044813156128]</t>
         </is>
       </c>
       <c r="U107" t="n">
         <v>4</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8138798455909828</v>
+        <v>0.8138799071311951</v>
       </c>
       <c r="W107" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.854137</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -9912,7 +9912,7 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G108" t="n">
         <v>0.5714285714285714</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>[2.4506793362366674, 2.8674885573782056, 3.7295344474234504, 3.6885844009810738, 3.398753201626448, 3.631736842028982, 4.262615134053559]</t>
+          <t>[2.450679063796997, 2.867488384246826, 3.729534387588501, 3.688584566116333, 3.3987531661987305, 3.631736993789673, 4.262615203857422]</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -9961,14 +9961,14 @@
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>[2.4506793362366674, 2.8674885573782056, 3.7295344474234504, 3.6885844009810738, 3.398753201626448, 3.631736842028982, 4.262615134053559]</t>
+          <t>[2.450679063796997, 2.867488384246826, 3.729534387588501, 3.688584566116333, 3.3987531661987305, 3.631736993789673, 4.262615203857422]</t>
         </is>
       </c>
       <c r="U108" t="n">
         <v>4</v>
       </c>
       <c r="V108" t="n">
-        <v>0.7853027135569371</v>
+        <v>0.7853028178215027</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.854137</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -10000,7 +10000,7 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G109" t="n">
         <v>0.5714285714285714</v>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>[2.176704962447375, 2.163869306811381, 2.2870513133156822, 2.511294561293404, 2.3930576328797897, 3.0025325607537208, 2.641351687610943]</t>
+          <t>[2.1767048835754395, 2.163869619369507, 2.287051200866699, 2.5112946033477783, 2.3930575847625732, 3.002532482147217, 2.6413516998291016]</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10049,14 +10049,14 @@
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>[2.176704962447375, 2.163869306811381, 2.2870513133156822, 2.511294561293404, 2.3930576328797897, 3.0025325607537208, 2.641351687610943]</t>
+          <t>[2.1767048835754395, 2.163869619369507, 2.287051200866699, 2.5112946033477783, 2.3930575847625732, 3.002532482147217, 2.6413516998291016]</t>
         </is>
       </c>
       <c r="U109" t="n">
         <v>4</v>
       </c>
       <c r="V109" t="n">
-        <v>0.9032120762778185</v>
+        <v>0.9032120704650879</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
@@ -10065,7 +10065,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.854137</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -10088,7 +10088,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G110" t="n">
         <v>0.5714285714285714</v>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>[2.6275535494139306, 2.6406611436403225, 3.081728081041649, 2.739864526304626, 4.027479901551564, 3.392304187746319, 3.4532536779282283]</t>
+          <t>[2.6275532245635986, 2.6406612396240234, 3.0817277431488037, 2.7398641109466553, 4.027479648590088, 3.392303943634033, 3.4532535076141357]</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -10137,14 +10137,14 @@
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>[2.6275535494139306, 2.6406611436403225, 3.081728081041649, 2.739864526304626, 4.027479901551564, 3.392304187746319, 3.4532536779282283]</t>
+          <t>[2.6275532245635986, 2.6406612396240234, 3.0817277431488037, 2.7398641109466553, 4.027479648590088, 3.392303943634033, 3.4532535076141357]</t>
         </is>
       </c>
       <c r="U110" t="n">
         <v>4</v>
       </c>
       <c r="V110" t="n">
-        <v>0.9355716701782978</v>
+        <v>0.935571551322937</v>
       </c>
       <c r="W110" t="n">
         <v>0</v>
@@ -10153,7 +10153,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.854137</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10176,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G111" t="n">
         <v>0.5714285714285714</v>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>[2.3461985439518567, 3.311073028732481, 3.6680443707894725, 3.5531869071252546, 3.209506714198147, 3.711389285605079, 3.7140112305565762]</t>
+          <t>[2.346198081970215, 3.311072826385498, 3.668044328689575, 3.5531866550445557, 3.2095067501068115, 3.7113890647888184, 3.7140114307403564]</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -10225,14 +10225,14 @@
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>[2.3461985439518567, 3.311073028732481, 3.6680443707894725, 3.5531869071252546, 3.209506714198147, 3.711389285605079, 3.7140112305565762]</t>
+          <t>[2.346198081970215, 3.311072826385498, 3.668044328689575, 3.5531866550445557, 3.2095067501068115, 3.7113890647888184, 3.7140114307403564]</t>
         </is>
       </c>
       <c r="U111" t="n">
         <v>4</v>
       </c>
       <c r="V111" t="n">
-        <v>1.005035181634206</v>
+        <v>1.005035161972046</v>
       </c>
       <c r="W111" t="n">
         <v>0</v>
@@ -10241,7 +10241,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.854137</t>
+          <t>2025-10-17T02:10:02.570100</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G112" t="n">
         <v>0.5714285714285714</v>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>[1.9459336432158363, 2.111189838820872, 1.9713535589875961, 2.415524940043881, 2.4098320176756123, 2.4844206772935213, 2.778759609160809]</t>
+          <t>[1.9459336996078491, 2.1111900806427, 1.9713536500930786, 2.41552472114563, 2.409832000732422, 2.4844205379486084, 2.778759717941284]</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -10313,14 +10313,14 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>[1.9459336432158363, 1.9713535589875961, 2.111189838820872, 2.4098320176756123, 2.415524940043881, 2.4844206772935213, 2.778759609160809]</t>
+          <t>[1.9459336996078491, 1.9713536500930786, 2.1111900806427, 2.409832000732422, 2.41552472114563, 2.4844205379486084, 2.778759717941284]</t>
         </is>
       </c>
       <c r="U112" t="n">
         <v>4</v>
       </c>
       <c r="V112" t="n">
-        <v>0.845258962994342</v>
+        <v>0.8452588319778442</v>
       </c>
       <c r="W112" t="n">
         <v>0</v>
@@ -10329,7 +10329,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.854137</t>
+          <t>2025-10-17T02:10:02.571191</t>
         </is>
       </c>
     </row>
@@ -10352,7 +10352,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G113" t="n">
         <v>0.5714285714285714</v>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>[2.16373611104834, 2.456120885016748, 2.2704152427110444, 2.6390205932126607, 2.850076702030704, 2.7494922600790024, 2.655972193018424]</t>
+          <t>[2.16373610496521, 2.456120729446411, 2.2704153060913086, 2.6390206813812256, 2.850076675415039, 2.7494924068450928, 2.6559722423553467]</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -10401,14 +10401,14 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>[2.16373611104834, 2.456120885016748, 2.2704152427110444, 2.655972193018424, 2.6390205932126607, 2.777440826020507, 2.7494922600790024]</t>
+          <t>[2.16373610496521, 2.456120729446411, 2.2704153060913086, 2.6559722423553467, 2.6390206813812256, 2.7774407863616943, 2.7494924068450928]</t>
         </is>
       </c>
       <c r="U113" t="n">
         <v>4</v>
       </c>
       <c r="V113" t="n">
-        <v>0.9831892584545575</v>
+        <v>0.9831893444061279</v>
       </c>
       <c r="W113" t="n">
         <v>0</v>
@@ -10417,7 +10417,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.854137</t>
+          <t>2025-10-17T02:10:02.571619</t>
         </is>
       </c>
     </row>
@@ -10440,7 +10440,7 @@
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G114" t="n">
         <v>0.5714285714285714</v>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>[1.8923783874694138, 2.1691611570487335, 2.693250670322787, 2.829638037136089, 2.648480526787959, 2.788251025152097, 2.5982107671239807]</t>
+          <t>[1.892378330230713, 2.169160842895508, 2.6932506561279297, 2.8296382427215576, 2.6484808921813965, 2.7882509231567383, 2.5982108116149902]</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -10489,14 +10489,14 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>[1.8923783874694138, 2.1691611570487335, 2.693250670322787, 2.829638037136089, 2.648480526787959, 2.788251025152097, 2.5982107671239807]</t>
+          <t>[1.892378330230713, 2.169160842895508, 2.6932506561279297, 2.8296382427215576, 2.6484808921813965, 2.7882509231567383, 2.5982108116149902]</t>
         </is>
       </c>
       <c r="U114" t="n">
         <v>4</v>
       </c>
       <c r="V114" t="n">
-        <v>0.8771917044887615</v>
+        <v>0.8771917223930359</v>
       </c>
       <c r="W114" t="n">
         <v>0</v>
@@ -10505,7 +10505,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.855131</t>
+          <t>2025-10-17T02:10:02.571619</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G115" t="n">
         <v>0.5714285714285714</v>
@@ -10543,7 +10543,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>[4.846018330261868, 5.701618162168646, 8.495764283422462, 5.729641733932363, 5.9453073176398235, 5.832029041164872, 7.161574500110296]</t>
+          <t>[4.846018314361572, 5.701618194580078, 8.495762825012207, 5.729641914367676, 5.94530725479126, 5.832029342651367, 7.1615753173828125]</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -10577,14 +10577,14 @@
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>[4.846018330261868, 5.701618162168646, 8.495764283422462, 5.729641733932363, 5.9453073176398235, 5.832029041164872, 7.7389133522693605]</t>
+          <t>[4.846018314361572, 5.701618194580078, 8.495762825012207, 5.729641914367676, 5.94530725479126, 5.832029342651367, 7.738913536071777]</t>
         </is>
       </c>
       <c r="U115" t="n">
         <v>4</v>
       </c>
       <c r="V115" t="n">
-        <v>1.109358809664528</v>
+        <v>1.109358787536621</v>
       </c>
       <c r="W115" t="n">
         <v>0</v>
@@ -10593,7 +10593,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.855131</t>
+          <t>2025-10-17T02:10:02.571619</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G116" t="n">
         <v>0.5714285714285714</v>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>[2.1209404147368773, 2.4761678644475293, 2.7167230186619094, 3.0857608148351225, 2.6848936838409267, 2.7921856064899973, 2.941712416539839]</t>
+          <t>[2.1209404468536377, 2.476167678833008, 2.7167229652404785, 3.085761070251465, 2.6848936080932617, 2.7921857833862305, 2.9417126178741455]</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -10665,14 +10665,14 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>[2.1209404147368773, 2.4761678644475293, 2.7167230186619094, 2.7921856064899973, 2.6848936838409267, 2.9222879164684814, 2.941712416539839]</t>
+          <t>[2.1209404468536377, 2.476167678833008, 2.7167229652404785, 2.7921857833862305, 2.6848936080932617, 2.922287940979004, 2.9417126178741455]</t>
         </is>
       </c>
       <c r="U116" t="n">
         <v>4</v>
       </c>
       <c r="V116" t="n">
-        <v>1.001881980613354</v>
+        <v>1.001882076263428</v>
       </c>
       <c r="W116" t="n">
         <v>0</v>
@@ -10681,7 +10681,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.855131</t>
+          <t>2025-10-17T02:10:02.575622</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G117" t="n">
         <v>0.5714285714285714</v>
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>[3.214043163869644, 3.467959368578602, 3.5147438672630504, 4.144880708057545, 3.5947222916150525, 3.8132375015781017, 4.284815685561375]</t>
+          <t>[3.214043378829956, 3.4679596424102783, 3.514744281768799, 4.144880771636963, 3.594722270965576, 3.813237428665161, 4.284815788269043]</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -10753,14 +10753,14 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>[3.214043163869644, 3.467959368578602, 3.5147438672630504, 4.144880708057545, 3.5947222916150525, 3.8132375015781017, 4.284815685561375]</t>
+          <t>[3.214043378829956, 3.4679596424102783, 3.514744281768799, 4.144880771636963, 3.594722270965576, 3.813237428665161, 4.284815788269043]</t>
         </is>
       </c>
       <c r="U117" t="n">
         <v>4</v>
       </c>
       <c r="V117" t="n">
-        <v>0.9889402671969006</v>
+        <v>0.9889402985572815</v>
       </c>
       <c r="W117" t="n">
         <v>0</v>
@@ -10769,7 +10769,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.855131</t>
+          <t>2025-10-17T02:10:02.575622</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G118" t="n">
         <v>0.5714285714285714</v>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>[4.597238614532386, 4.7490582515585045, 4.749802060161882, 4.262615134053559, 4.822253668538271, 6.011244912382028, 5.095142176192084]</t>
+          <t>[4.597238540649414, 4.749058246612549, 4.749802112579346, 4.262615203857422, 4.822253704071045, 6.011245250701904, 5.095141887664795]</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -10841,14 +10841,14 @@
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>[4.597238614532386, 4.7490582515585045, 4.749802060161882, 4.262615134053559, 4.822253668538271, 6.011244912382028, 5.095142176192084]</t>
+          <t>[4.597238540649414, 4.749058246612549, 4.749802112579346, 4.262615203857422, 4.822253704071045, 6.011245250701904, 5.095141887664795]</t>
         </is>
       </c>
       <c r="U118" t="n">
         <v>4</v>
       </c>
       <c r="V118" t="n">
-        <v>0.9353131425704025</v>
+        <v>0.9353132247924805</v>
       </c>
       <c r="W118" t="n">
         <v>0</v>
@@ -10857,7 +10857,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.855131</t>
+          <t>2025-10-17T02:10:02.575622</t>
         </is>
       </c>
     </row>
@@ -10880,7 +10880,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G119" t="n">
         <v>0.5714285714285714</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>[4.911062758761296, 4.355672049078373, 4.640130992802321, 6.029143738706898, 5.122492560805985, 5.742318943857148, 5.442207236021047]</t>
+          <t>[4.911062240600586, 4.355671405792236, 4.640130519866943, 6.029144287109375, 5.122491836547852, 5.742319583892822, 5.442206859588623]</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -10929,14 +10929,14 @@
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>[4.911062758761296, 4.355672049078373, 4.640130992802321, 6.029143738706898, 5.122492560805985, 5.742318943857148, 5.442207236021047]</t>
+          <t>[4.911062240600586, 4.355671405792236, 4.640130519866943, 6.029144287109375, 5.122491836547852, 5.742319583892822, 5.442206859588623]</t>
         </is>
       </c>
       <c r="U119" t="n">
         <v>4</v>
       </c>
       <c r="V119" t="n">
-        <v>0.9604515071244812</v>
+        <v>0.960451602935791</v>
       </c>
       <c r="W119" t="n">
         <v>0</v>
@@ -10945,7 +10945,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.855131</t>
+          <t>2025-10-17T02:10:02.575622</t>
         </is>
       </c>
     </row>
@@ -10968,7 +10968,7 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G120" t="n">
         <v>0.5714285714285714</v>
@@ -11007,7 +11007,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>[3.687053531461962, 4.063030690939169, 3.5262188434262915, 3.6162494363590643, 5.2468920535753725, 4.197838043540694, 4.3111699814593765]</t>
+          <t>[3.687053680419922, 4.063031196594238, 3.526219367980957, 3.6162493228912354, 5.246891975402832, 4.197838306427002, 4.3111701011657715]</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -11017,14 +11017,14 @@
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>[3.687053531461962, 4.063030690939169, 3.5262188434262915, 3.6162494363590643, 5.2468920535753725, 4.197838043540694, 4.3111699814593765]</t>
+          <t>[3.687053680419922, 4.063031196594238, 3.526219367980957, 3.6162493228912354, 5.246891975402832, 4.197838306427002, 4.3111701011657715]</t>
         </is>
       </c>
       <c r="U120" t="n">
         <v>4</v>
       </c>
       <c r="V120" t="n">
-        <v>0.929415747078514</v>
+        <v>0.9294157028198242</v>
       </c>
       <c r="W120" t="n">
         <v>0</v>
@@ -11033,7 +11033,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.855131</t>
+          <t>2025-10-17T02:10:02.575622</t>
         </is>
       </c>
     </row>
@@ -11056,7 +11056,7 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G121" t="n">
         <v>0.5714285714285714</v>
@@ -11071,7 +11071,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>[2.122034371822165, 3.2325105363430455, 2.9245073641800627, 3.322685180011672, 3.627325286605539, 3.2950393092369206, 3.872633883260145]</t>
+          <t>[2.1220343112945557, 3.232510566711426, 2.9245073795318604, 3.3226852416992188, 3.6273250579833984, 3.295039176940918, 3.872633934020996]</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -11105,14 +11105,14 @@
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>[2.122034371822165, 3.2935049298999823, 3.322685180011672, 3.627325286605539, 3.6515682515137264, 3.872633883260145, 3.325388571884732]</t>
+          <t>[2.1220343112945557, 3.2935049533843994, 3.3226852416992188, 3.6273250579833984, 3.6515679359436035, 3.872633934020996, 3.3253886699676514]</t>
         </is>
       </c>
       <c r="U121" t="n">
         <v>4</v>
       </c>
       <c r="V121" t="n">
-        <v>1.014014305045256</v>
+        <v>1.014014363288879</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
@@ -11121,7 +11121,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.855131</t>
+          <t>2025-10-17T02:10:02.576621</t>
         </is>
       </c>
     </row>
@@ -11144,7 +11144,7 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G122" t="n">
         <v>0.5714285714285714</v>
@@ -11183,7 +11183,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>[2.075854731143017, 2.0929172058822116, 2.419034003475125, 2.364516517370684, 2.537948094634543, 2.478717934769409, 2.7004280468397543]</t>
+          <t>[2.075855016708374, 2.0929172039031982, 2.419034004211426, 2.364516258239746, 2.5379481315612793, 2.478717803955078, 2.700427770614624]</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -11193,14 +11193,14 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>[2.075854731143017, 2.0929172058822116, 2.419034003475125, 2.537948094634543, 2.7004280468397543, 2.859086543870069, 2.8502327628929693]</t>
+          <t>[2.075855016708374, 2.0929172039031982, 2.419034004211426, 2.5379481315612793, 2.700427770614624, 2.859086513519287, 2.8502326011657715]</t>
         </is>
       </c>
       <c r="U122" t="n">
         <v>4</v>
       </c>
       <c r="V122" t="n">
-        <v>0.8836502588938313</v>
+        <v>0.8836501240730286</v>
       </c>
       <c r="W122" t="n">
         <v>0</v>
@@ -11209,7 +11209,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.855131</t>
+          <t>2025-10-17T02:10:02.576621</t>
         </is>
       </c>
     </row>
@@ -11232,7 +11232,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G123" t="n">
         <v>0.5714285714285714</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>[2.9948229666195876, 3.9069388625424826, 2.992789259328362, 3.4286465763325458, 3.8877355626995187, 3.260327041202471, 3.251023802974645]</t>
+          <t>[2.9948232173919678, 3.906938314437866, 2.9927892684936523, 3.4286468029022217, 3.8877358436584473, 3.2603275775909424, 3.2510242462158203]</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -11281,14 +11281,14 @@
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>[2.9948229666195876, 3.9069388625424826, 2.992789259328362, 3.4286465763325458, 3.8877355626995187, 3.260327041202471, 3.251023802974645]</t>
+          <t>[2.9948232173919678, 3.906938314437866, 2.9927892684936523, 3.4286468029022217, 3.8877358436584473, 3.2603275775909424, 3.2510242462158203]</t>
         </is>
       </c>
       <c r="U123" t="n">
         <v>4</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8843436806247057</v>
+        <v>0.8843437433242798</v>
       </c>
       <c r="W123" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.856130</t>
+          <t>2025-10-17T02:10:02.579620</t>
         </is>
       </c>
     </row>
@@ -11320,7 +11320,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G124" t="n">
         <v>0.5714285714285714</v>
@@ -11335,7 +11335,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>[3.1736584535809893, 3.6919219437828263, 3.37580140868191, 3.9607619891366004, 3.955591128711311, 4.227651771241657, 3.3858418837263913]</t>
+          <t>[3.1736578941345215, 3.6919217109680176, 3.3758013248443604, 3.9607620239257812, 3.9555912017822266, 4.227651596069336, 3.3858418464660645]</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -11369,14 +11369,14 @@
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>[3.1736584535809893, 3.6919219437828263, 3.9607619891366004, 4.227651771241657, 3.3858418837263913, 3.872633883260145, 3.614002212459662]</t>
+          <t>[3.1736578941345215, 3.6919217109680176, 3.9607620239257812, 4.227651596069336, 3.3858418464660645, 3.872633934020996, 3.614001512527466]</t>
         </is>
       </c>
       <c r="U124" t="n">
         <v>4</v>
       </c>
       <c r="V124" t="n">
-        <v>0.9728566036295487</v>
+        <v>0.9728567004203796</v>
       </c>
       <c r="W124" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.856130</t>
+          <t>2025-10-17T02:10:02.579620</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G125" t="n">
         <v>0.5714285714285714</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>[5.963501910020404, 5.8771022110874025, 8.07798415946937, 7.700426926349534, 7.035663664819318, 7.146114835384492, 6.375900373085561]</t>
+          <t>[5.963501453399658, 5.877102375030518, 8.077983856201172, 7.700427055358887, 7.035663604736328, 7.146114349365234, 6.3759002685546875]</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -11457,14 +11457,14 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>[5.963501910020404, 5.8771022110874025, 8.07798415946937, 7.700426926349534, 7.035663664819318, 7.146114835384492, 6.375900373085561]</t>
+          <t>[5.963501453399658, 5.877102375030518, 8.077983856201172, 7.700427055358887, 7.035663604736328, 7.146114349365234, 6.3759002685546875]</t>
         </is>
       </c>
       <c r="U125" t="n">
         <v>4</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9530957105775985</v>
+        <v>0.9530956745147705</v>
       </c>
       <c r="W125" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.856130</t>
+          <t>2025-10-17T02:10:02.580623</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G126" t="n">
         <v>0.5714285714285714</v>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>[2.2461017335302853, 2.881950442561504, 3.0276800363791128, 2.9375938436301525, 2.802431094549146, 3.248879090648913, 3.0840142513324027]</t>
+          <t>[2.2461016178131104, 2.881950616836548, 3.0276803970336914, 2.937593698501587, 2.802431106567383, 3.2488789558410645, 3.0840141773223877]</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -11545,14 +11545,14 @@
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>[2.881950442561504, 3.0276800363791128, 3.0840142513324027, 3.194867052366358, 3.6515682515137264, 3.41287685035954, 3.837268719911371]</t>
+          <t>[2.881950616836548, 3.0276803970336914, 3.0840141773223877, 3.1948671340942383, 3.6515679359436035, 3.412876844406128, 3.837268829345703]</t>
         </is>
       </c>
       <c r="U126" t="n">
         <v>4</v>
       </c>
       <c r="V126" t="n">
-        <v>0.973652224218597</v>
+        <v>0.973652184009552</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
@@ -11561,7 +11561,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.856130</t>
+          <t>2025-10-17T02:10:02.580623</t>
         </is>
       </c>
     </row>
@@ -11584,7 +11584,7 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G127" t="n">
         <v>0.5714285714285714</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>[1.9066147798612165, 2.248768851566471, 2.4761678644475293, 2.648480526787959, 3.0624819192338673, 3.141560784968796, 3.33330983713227]</t>
+          <t>[1.9066146612167358, 2.2487688064575195, 2.476167678833008, 2.6484808921813965, 3.0624818801879883, 3.1415607929229736, 3.333310127258301]</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -11633,14 +11633,14 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>[1.9066147798612165, 2.248768851566471, 2.4761678644475293, 3.0624819192338673, 3.141560784968796, 2.648480526787959, 3.33330983713227]</t>
+          <t>[1.9066146612167358, 2.2487688064575195, 2.476167678833008, 3.0624818801879883, 3.1415607929229736, 2.6484808921813965, 3.333310127258301]</t>
         </is>
       </c>
       <c r="U127" t="n">
         <v>4</v>
       </c>
       <c r="V127" t="n">
-        <v>0.9063199151523211</v>
+        <v>0.9063200354576111</v>
       </c>
       <c r="W127" t="n">
         <v>0</v>
@@ -11649,7 +11649,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.856130</t>
+          <t>2025-10-17T02:10:02.580623</t>
         </is>
       </c>
     </row>
@@ -11672,7 +11672,7 @@
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G128" t="n">
         <v>0.5714285714285714</v>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>[2.2647031354672147, 2.6176432862342134, 2.5828325337736047, 2.9528352079350895, 3.0726841141785743, 3.3266559595532956, 3.2410848426085126]</t>
+          <t>[2.2647030353546143, 2.617643117904663, 2.5828325748443604, 2.9528355598449707, 3.0726840496063232, 3.326655626296997, 3.2410848140716553]</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -11721,14 +11721,14 @@
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>[2.2647031354672147, 2.6176432862342134, 2.5828325337736047, 2.9528352079350895, 3.0726841141785743, 3.3266559595532956, 3.2410848426085126]</t>
+          <t>[2.2647030353546143, 2.617643117904663, 2.5828325748443604, 2.9528355598449707, 3.0726840496063232, 3.326655626296997, 3.2410848140716553]</t>
         </is>
       </c>
       <c r="U128" t="n">
         <v>4</v>
       </c>
       <c r="V128" t="n">
-        <v>0.9425685573598055</v>
+        <v>0.9425687193870544</v>
       </c>
       <c r="W128" t="n">
         <v>0</v>
@@ -11737,7 +11737,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.856130</t>
+          <t>2025-10-17T02:10:02.580623</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G129" t="n">
         <v>0.5714285714285714</v>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>[1.800940592269496, 1.9421502542334632, 1.9486627840668806, 1.8080617436884052, 1.7933483341242031, 1.974941439828845, 2.185838434420039]</t>
+          <t>[1.8009406328201294, 1.9421498775482178, 1.9486628770828247, 1.8080617189407349, 1.7933483123779297, 1.974941372871399, 2.185838222503662]</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -11809,14 +11809,14 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>[1.800940592269496, 1.9421502542334632, 1.9486627840668806, 1.8080617436884052, 1.7933483341242031, 1.974941439828845, 2.185838434420039]</t>
+          <t>[1.8009406328201294, 1.9421498775482178, 1.9486628770828247, 1.8080617189407349, 1.7933483123779297, 1.974941372871399, 2.185838222503662]</t>
         </is>
       </c>
       <c r="U129" t="n">
         <v>4</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8491933546471288</v>
+        <v>0.8491933941841125</v>
       </c>
       <c r="W129" t="n">
         <v>0</v>
@@ -11825,7 +11825,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.856130</t>
+          <t>2025-10-17T02:10:02.581620</t>
         </is>
       </c>
     </row>
@@ -11848,7 +11848,7 @@
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G130" t="n">
         <v>0.5714285714285714</v>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>[2.223370161248983, 2.7044602320074995, 2.5828325337736047, 2.831393561809339, 2.511294561293404, 2.5901691590287803, 3.3151618788091226]</t>
+          <t>[2.22337007522583, 2.704460382461548, 2.5828325748443604, 2.8313934803009033, 2.5112946033477783, 2.5901691913604736, 3.315161943435669]</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
@@ -11897,14 +11897,14 @@
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>[2.223370161248983, 2.7044602320074995, 2.5828325337736047, 2.831393561809339, 2.511294561293404, 2.5901691590287803, 3.3151618788091226]</t>
+          <t>[2.22337007522583, 2.704460382461548, 2.5828325748443604, 2.8313934803009033, 2.5112946033477783, 2.5901691913604736, 3.315161943435669]</t>
         </is>
       </c>
       <c r="U130" t="n">
         <v>4</v>
       </c>
       <c r="V130" t="n">
-        <v>0.8956088716465981</v>
+        <v>0.8956087827682495</v>
       </c>
       <c r="W130" t="n">
         <v>0</v>
@@ -11913,7 +11913,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.856130</t>
+          <t>2025-10-17T02:10:02.581620</t>
         </is>
       </c>
     </row>
@@ -11936,7 +11936,7 @@
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G131" t="n">
         <v>0.5714285714285714</v>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>[2.7245486687454363, 2.8977346864010944, 3.16132080781727, 3.207568467180873, 3.204414507206446, 3.610103231774876, 3.3592959145348527]</t>
+          <t>[2.724548816680908, 2.8977346420288086, 3.161320924758911, 3.207568407058716, 3.2044146060943604, 3.610102891921997, 3.359295606613159]</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -11985,14 +11985,14 @@
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>[2.7245486687454363, 2.8977346864010944, 3.16132080781727, 3.207568467180873, 3.204414507206446, 3.610103231774876, 3.3592959145348527]</t>
+          <t>[2.724548816680908, 2.8977346420288086, 3.161320924758911, 3.207568407058716, 3.2044146060943604, 3.610102891921997, 3.359295606613159]</t>
         </is>
       </c>
       <c r="U131" t="n">
         <v>4</v>
       </c>
       <c r="V131" t="n">
-        <v>0.9431028211555751</v>
+        <v>0.9431028366088867</v>
       </c>
       <c r="W131" t="n">
         <v>0</v>
@@ -12001,7 +12001,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.857130</t>
+          <t>2025-10-17T02:10:02.581620</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G132" t="n">
         <v>0.5714285714285714</v>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>[3.431582581458771, 4.803753400845289, 4.027479901551564, 4.276982545837988, 4.359033408394388, 4.924033666083297, 5.264995962698627]</t>
+          <t>[3.431582450866699, 4.80375337600708, 4.027479648590088, 4.276982307434082, 4.359033107757568, 4.924033164978027, 5.264995574951172]</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -12073,14 +12073,14 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>[3.431582581458771, 4.803753400845289, 4.027479901551564, 4.359033408394388, 4.276982545837988, 4.924033666083297, 5.264995962698627]</t>
+          <t>[3.431582450866699, 4.80375337600708, 4.027479648590088, 4.359033107757568, 4.276982307434082, 4.924033164978027, 5.264995574951172]</t>
         </is>
       </c>
       <c r="U132" t="n">
         <v>4</v>
       </c>
       <c r="V132" t="n">
-        <v>1.039621612633381</v>
+        <v>1.039621591567993</v>
       </c>
       <c r="W132" t="n">
         <v>0</v>
@@ -12089,7 +12089,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.857130</t>
+          <t>2025-10-17T02:10:02.581620</t>
         </is>
       </c>
     </row>
@@ -12112,7 +12112,7 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G133" t="n">
         <v>0.5714285714285714</v>
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>[4.597238614532386, 5.2186288926380024, 4.9921485908860115, 5.637545821627436, 6.512027771572142, 5.501764119669569, 6.0865307956003365]</t>
+          <t>[4.597238540649414, 5.218628883361816, 4.992148399353027, 5.637546062469482, 6.512027740478516, 5.501764297485352, 6.0865302085876465]</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
@@ -12161,14 +12161,14 @@
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>[4.597238614532386, 5.2186288926380024, 4.9921485908860115, 5.637545821627436, 6.512027771572142, 5.501764119669569, 6.0865307956003365]</t>
+          <t>[4.597238540649414, 5.218628883361816, 4.992148399353027, 5.637546062469482, 6.512027740478516, 5.501764297485352, 6.0865302085876465]</t>
         </is>
       </c>
       <c r="U133" t="n">
         <v>4</v>
       </c>
       <c r="V133" t="n">
-        <v>1.050357901816062</v>
+        <v>1.050357937812805</v>
       </c>
       <c r="W133" t="n">
         <v>0</v>
@@ -12177,7 +12177,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.857130</t>
+          <t>2025-10-17T02:10:02.581620</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G134" t="n">
         <v>0.5714285714285714</v>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>[2.8043221578060846, 2.8602280261288016, 3.055382927610812, 2.9528352079350895, 3.1204635122302253, 3.0770726866745868, 3.185168753020744]</t>
+          <t>[2.8043220043182373, 2.8602283000946045, 3.0553829669952393, 2.9528355598449707, 3.1204636096954346, 3.0770726203918457, 3.185168504714966]</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -12249,14 +12249,14 @@
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>[2.8043221578060846, 2.8602280261288016, 3.055382927610812, 2.9528352079350895, 3.1204635122302253, 3.0770726866745868, 3.185168753020744]</t>
+          <t>[2.8043220043182373, 2.8602283000946045, 3.0553829669952393, 2.9528355598449707, 3.1204636096954346, 3.0770726203918457, 3.185168504714966]</t>
         </is>
       </c>
       <c r="U134" t="n">
         <v>4</v>
       </c>
       <c r="V134" t="n">
-        <v>0.9425685573598055</v>
+        <v>0.9425687193870544</v>
       </c>
       <c r="W134" t="n">
         <v>0</v>
@@ -12265,7 +12265,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.857130</t>
+          <t>2025-10-17T02:10:02.582623</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G135" t="n">
         <v>0.5714285714285714</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>[1.6076702922304427, 1.9310291903366734, 2.2986018947502513, 2.412684299782368, 2.521614230662287, 2.5239659001150083, 3.1822995246302037]</t>
+          <t>[1.6076703071594238, 1.9310290813446045, 2.2986016273498535, 2.412684202194214, 2.5216143131256104, 2.523965835571289, 3.1822996139526367]</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -12337,14 +12337,14 @@
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>[1.6076702922304427, 1.9310291903366734, 2.412684299782368, 2.5239659001150083, 2.521614230662287, 2.7298887823733757, 3.7102153772319495]</t>
+          <t>[1.6076703071594238, 1.9310290813446045, 2.412684202194214, 2.523965835571289, 2.5216143131256104, 2.729888916015625, 3.7102155685424805]</t>
         </is>
       </c>
       <c r="U135" t="n">
         <v>4</v>
       </c>
       <c r="V135" t="n">
-        <v>0.919850439247877</v>
+        <v>0.9198504090309143</v>
       </c>
       <c r="W135" t="n">
         <v>0</v>
@@ -12353,7 +12353,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.857130</t>
+          <t>2025-10-17T02:10:02.582623</t>
         </is>
       </c>
     </row>
@@ -12376,7 +12376,7 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G136" t="n">
         <v>0.5714285714285714</v>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
@@ -12415,7 +12415,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>[4.817995118291822, 5.742318943857148, 4.872245620699661, 6.177269005040734, 4.742342295417687, 6.495593500783756, 5.201253104635441]</t>
+          <t>[4.817995548248291, 5.742319583892822, 4.872245788574219, 6.177268981933594, 4.742342472076416, 6.495593547821045, 5.201253414154053]</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -12425,14 +12425,14 @@
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>[4.817995118291822, 5.742318943857148, 4.872245620699661, 6.177269005040734, 4.742342295417687, 6.495593500783756, 5.201253104635441]</t>
+          <t>[4.817995548248291, 5.742319583892822, 4.872245788574219, 6.177268981933594, 4.742342472076416, 6.495593547821045, 5.201253414154053]</t>
         </is>
       </c>
       <c r="U136" t="n">
         <v>4</v>
       </c>
       <c r="V136" t="n">
-        <v>1.108962842787002</v>
+        <v>1.108962774276733</v>
       </c>
       <c r="W136" t="n">
         <v>0</v>
@@ -12441,7 +12441,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.857130</t>
+          <t>2025-10-17T02:10:02.582623</t>
         </is>
       </c>
     </row>
@@ -12464,7 +12464,7 @@
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G137" t="n">
         <v>0.5714285714285714</v>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>[1.828548470858394, 1.7858993453005365, 1.910042289811469, 2.1187842612958963, 2.2704152427110444, 2.2910375949335617, 2.4726563537298856]</t>
+          <t>[1.8285486698150635, 1.7858995199203491, 1.910042405128479, 2.118784189224243, 2.2704153060913086, 2.2910375595092773, 2.47265625]</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
@@ -12513,14 +12513,14 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>[1.7858993453005365, 1.828548470858394, 1.910042289811469, 2.1187842612958963, 2.2704152427110444, 2.4186038102904597, 2.3596155879150187]</t>
+          <t>[1.7858995199203491, 1.8285486698150635, 1.910042405128479, 2.118784189224243, 2.2704153060913086, 2.4186031818389893, 2.3596153259277344]</t>
         </is>
       </c>
       <c r="U137" t="n">
         <v>4</v>
       </c>
       <c r="V137" t="n">
-        <v>0.8785453624528426</v>
+        <v>0.878545343875885</v>
       </c>
       <c r="W137" t="n">
         <v>0</v>
@@ -12529,7 +12529,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.857130</t>
+          <t>2025-10-17T02:10:02.582623</t>
         </is>
       </c>
     </row>
@@ -12552,7 +12552,7 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G138" t="n">
         <v>0.5714285714285714</v>
@@ -12567,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>[4.355672049078373, 4.829949611380288, 4.240592894529004, 3.705643929511386, 4.0318300127897775, 4.595175429854585, 4.76307526271921]</t>
+          <t>[4.355671405792236, 4.829949378967285, 4.2405924797058105, 3.705644130706787, 4.031829833984375, 4.595175743103027, 4.763075828552246]</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
@@ -12601,14 +12601,14 @@
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>[4.355672049078373, 4.829949611380288, 4.240592894529004, 3.705643929511386, 4.0318300127897775, 4.595175429854585, 4.76307526271921]</t>
+          <t>[4.355671405792236, 4.829949378967285, 4.2405924797058105, 3.705644130706787, 4.031829833984375, 4.595175743103027, 4.763075828552246]</t>
         </is>
       </c>
       <c r="U138" t="n">
         <v>4</v>
       </c>
       <c r="V138" t="n">
-        <v>0.9361498527578108</v>
+        <v>0.9361498951911926</v>
       </c>
       <c r="W138" t="n">
         <v>0</v>
@@ -12617,7 +12617,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.857130</t>
+          <t>2025-10-17T02:10:02.582623</t>
         </is>
       </c>
     </row>
@@ -12640,7 +12640,7 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G139" t="n">
         <v>0.5714285714285714</v>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>[2.7245486687454363, 4.046628961057276, 3.512515393209485, 3.9937842785865203, 4.872245620699661, 4.3782608704398305, 4.046635036444873]</t>
+          <t>[2.724548816680908, 4.046628952026367, 3.5125155448913574, 3.9937844276428223, 4.872245788574219, 4.378261089324951, 4.046635150909424]</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
@@ -12689,14 +12689,14 @@
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>[2.7245486687454363, 4.046628961057276, 3.512515393209485, 3.9937842785865203, 4.872245620699661, 4.3782608704398305, 4.046635036444873]</t>
+          <t>[2.724548816680908, 4.046628952026367, 3.5125155448913574, 3.9937844276428223, 4.872245788574219, 4.378261089324951, 4.046635150909424]</t>
         </is>
       </c>
       <c r="U139" t="n">
         <v>4</v>
       </c>
       <c r="V139" t="n">
-        <v>1.009569436190811</v>
+        <v>1.009569525718689</v>
       </c>
       <c r="W139" t="n">
         <v>0</v>
@@ -12705,7 +12705,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.858130</t>
+          <t>2025-10-17T02:10:02.583623</t>
         </is>
       </c>
     </row>
@@ -12728,7 +12728,7 @@
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G140" t="n">
         <v>0.5714285714285714</v>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>[1.633431842009987, 2.044082455813837, 1.846257876701924, 2.1631128229650765, 2.218680616217326, 2.5944576900545924, 2.7921856064899973]</t>
+          <t>[1.6334316730499268, 2.0440824031829834, 1.8462578058242798, 2.1631126403808594, 2.2186803817749023, 2.5944576263427734, 2.7921857833862305]</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
@@ -12777,14 +12777,14 @@
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>[1.633431842009987, 2.044082455813837, 1.846257876701924, 2.1631128229650765, 2.218680616217326, 2.5944576900545924, 2.7921856064899973]</t>
+          <t>[1.6334316730499268, 2.0440824031829834, 1.8462578058242798, 2.1631126403808594, 2.2186803817749023, 2.5944576263427734, 2.7921857833862305]</t>
         </is>
       </c>
       <c r="U140" t="n">
         <v>4</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8225494673089303</v>
+        <v>0.8225494027137756</v>
       </c>
       <c r="W140" t="n">
         <v>0</v>
@@ -12793,7 +12793,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.858130</t>
+          <t>2025-10-17T02:10:02.583623</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G141" t="n">
         <v>0.5714285714285714</v>
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>[5.7609780403862585, 4.845022800522006, 4.329130290642565, 4.940451308546909, 4.719145531311351, 5.462943139572716, 5.745319777850801]</t>
+          <t>[5.760977745056152, 4.845022678375244, 4.329129695892334, 4.940451145172119, 4.71914529800415, 5.462942600250244, 5.745319843292236]</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -12865,14 +12865,14 @@
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>[5.7609780403862585, 4.845022800522006, 4.329130290642565, 4.940451308546909, 4.719145531311351, 5.462943139572716, 5.745319777850801]</t>
+          <t>[5.760977745056152, 4.845022678375244, 4.329129695892334, 4.940451145172119, 4.71914529800415, 5.462942600250244, 5.745319843292236]</t>
         </is>
       </c>
       <c r="U141" t="n">
         <v>4</v>
       </c>
       <c r="V141" t="n">
-        <v>1.085249302933645</v>
+        <v>1.085249304771423</v>
       </c>
       <c r="W141" t="n">
         <v>0</v>
@@ -12881,7 +12881,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.858130</t>
+          <t>2025-10-17T02:10:02.583623</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G142" t="n">
         <v>0.5714285714285714</v>
@@ -12919,7 +12919,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>[2.840663375341693, 3.690391389595743, 3.4168082197346563, 3.841079487695473, 3.3315010612765414, 3.329941066745087, 3.206456113186343]</t>
+          <t>[2.840663433074951, 3.6903913021087646, 3.4168081283569336, 3.8410794734954834, 3.3315012454986572, 3.3299410343170166, 3.206456184387207]</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
@@ -12953,14 +12953,14 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>[3.841079487695473, 3.7102153772319495, 5.199067139342398, 3.7270072971539423, 4.053380025458161, 3.9956443299474653, 4.182245860316884]</t>
+          <t>[3.8410794734954834, 3.7102155685424805, 5.199067115783691, 3.7270073890686035, 4.053380012512207, 3.9956448078155518, 4.18224573135376]</t>
         </is>
       </c>
       <c r="U142" t="n">
         <v>4</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9870434774184689</v>
+        <v>0.9870434999465942</v>
       </c>
       <c r="W142" t="n">
         <v>0</v>
@@ -12969,7 +12969,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.858130</t>
+          <t>2025-10-17T02:10:02.583623</t>
         </is>
       </c>
     </row>
@@ -12992,7 +12992,7 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G143" t="n">
         <v>0.5714285714285714</v>
@@ -13007,7 +13007,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>[5.7609780403862585, 5.952524568700919, 8.479500021432601, 8.46300497420318, 6.817715116020488, 7.83966167218804, 8.897569992257761]</t>
+          <t>[5.760977745056152, 5.952524662017822, 8.479499816894531, 8.463004112243652, 6.817714691162109, 7.839661121368408, 8.89756965637207]</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -13041,14 +13041,14 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>[5.7609780403862585, 5.952524568700919, 8.479500021432601, 6.817715116020488, 7.83966167218804, 8.897569992257761, 7.3983853382461]</t>
+          <t>[5.760977745056152, 5.952524662017822, 8.479499816894531, 6.817714691162109, 7.839661121368408, 8.89756965637207, 7.398385047912598]</t>
         </is>
       </c>
       <c r="U143" t="n">
         <v>4</v>
       </c>
       <c r="V143" t="n">
-        <v>1.237519889644405</v>
+        <v>1.23751974105835</v>
       </c>
       <c r="W143" t="n">
         <v>0</v>
@@ -13057,7 +13057,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.858130</t>
+          <t>2025-10-17T02:10:02.583623</t>
         </is>
       </c>
     </row>
@@ -13080,7 +13080,7 @@
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G144" t="n">
         <v>0.5714285714285714</v>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>[1.8817331375636712, 2.228954275632573, 1.9302724277428103, 1.9098375081805583, 1.9725192696460834, 2.4070665745989945, 2.1687399363365314]</t>
+          <t>[1.8817329406738281, 2.2289540767669678, 1.9302723407745361, 1.9098376035690308, 1.9725189208984375, 2.407066583633423, 2.1687397956848145]</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -13129,14 +13129,14 @@
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>[2.2811609901806733, 2.655972193018424, 2.8657150206750184, 2.6652310143695512, 2.928119899859947, 2.938935397714993, 3.41287685035954]</t>
+          <t>[2.281160831451416, 2.6559722423553467, 2.8657150268554688, 2.6652309894561768, 2.9281198978424072, 2.9389352798461914, 3.412876844406128]</t>
         </is>
       </c>
       <c r="U144" t="n">
         <v>4</v>
       </c>
       <c r="V144" t="n">
-        <v>0.7820571831902029</v>
+        <v>0.7820572257041931</v>
       </c>
       <c r="W144" t="n">
         <v>0</v>
@@ -13145,7 +13145,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.858130</t>
+          <t>2025-10-17T02:10:02.584621</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G145" t="n">
         <v>0.5714285714285714</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>[3.2897707920903008, 4.01752651888368, 5.478773838501507, 4.458620887346577, 4.440910395624921, 5.222866174783128, 4.548698166799649]</t>
+          <t>[3.2897708415985107, 4.017526626586914, 5.478774070739746, 4.458621025085449, 4.440910339355469, 5.222866058349609, 4.548698425292969]</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -13217,14 +13217,14 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>[3.2897707920903008, 4.01752651888368, 5.478773838501507, 4.458620887346577, 4.440910395624921, 5.222866174783128, 4.548698166799649]</t>
+          <t>[3.2897708415985107, 4.017526626586914, 5.478774070739746, 4.458621025085449, 4.440910339355469, 5.222866058349609, 4.548698425292969]</t>
         </is>
       </c>
       <c r="U145" t="n">
         <v>4</v>
       </c>
       <c r="V145" t="n">
-        <v>1.08976834120121</v>
+        <v>1.089768409729004</v>
       </c>
       <c r="W145" t="n">
         <v>0</v>
@@ -13233,7 +13233,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.858130</t>
+          <t>2025-10-17T02:10:02.584621</t>
         </is>
       </c>
     </row>
@@ -13256,7 +13256,7 @@
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G146" t="n">
         <v>0.5714285714285714</v>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>[3.4186153034478592, 3.617624860968299, 3.5084594175811135, 3.6919219437828263, 3.516063299298525, 3.47024894080087, 4.360157601979225]</t>
+          <t>[3.4186151027679443, 3.6176247596740723, 3.5084593296051025, 3.6919217109680176, 3.5160634517669678, 3.4702489376068115, 4.360157489776611]</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -13305,14 +13305,14 @@
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>[3.4186153034478592, 3.617624860968299, 3.5084594175811135, 3.6919219437828263, 3.516063299298525, 3.47024894080087, 4.360157601979225]</t>
+          <t>[3.4186151027679443, 3.6176247596740723, 3.5084593296051025, 3.6919217109680176, 3.5160634517669678, 3.4702489376068115, 4.360157489776611]</t>
         </is>
       </c>
       <c r="U146" t="n">
         <v>4</v>
       </c>
       <c r="V146" t="n">
-        <v>0.9534789844705137</v>
+        <v>0.9534789323806763</v>
       </c>
       <c r="W146" t="n">
         <v>0</v>
@@ -13321,7 +13321,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.858130</t>
+          <t>2025-10-17T02:10:02.584621</t>
         </is>
       </c>
     </row>
@@ -13344,7 +13344,7 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G147" t="n">
         <v>0.5714285714285714</v>
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>[7.2356272993768265, 7.0895256071410255, 7.700426926349534, 9.520485012671415, 9.953043787019434, 9.720782086612948, 8.742435665776714]</t>
+          <t>[7.235627174377441, 7.089526653289795, 7.700427055358887, 9.520484924316406, 9.953043937683105, 9.720782279968262, 8.742436408996582]</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -13393,14 +13393,14 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>[7.2356272993768265, 7.0895256071410255, 7.700426926349534, 9.520485012671415, 9.953043787019434, 9.720782086612948, 8.742435665776714]</t>
+          <t>[7.235627174377441, 7.089526653289795, 7.700427055358887, 9.520484924316406, 9.953043937683105, 9.720782279968262, 8.742436408996582]</t>
         </is>
       </c>
       <c r="U147" t="n">
         <v>4</v>
       </c>
       <c r="V147" t="n">
-        <v>0.9569106201527909</v>
+        <v>0.9569106101989746</v>
       </c>
       <c r="W147" t="n">
         <v>0</v>
@@ -13409,7 +13409,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.858130</t>
+          <t>2025-10-17T02:10:02.584621</t>
         </is>
       </c>
     </row>
@@ -13432,7 +13432,7 @@
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G148" t="n">
         <v>0.5714285714285714</v>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>[2.5651904610895238, 2.880482964398465, 3.0747294711528927, 2.8812597725304188, 3.5147438672630504, 3.3592167481724067, 3.3881812758196665]</t>
+          <t>[2.565190315246582, 2.8804829120635986, 3.0747292041778564, 2.8812596797943115, 3.514744281768799, 3.3592166900634766, 3.388181209564209]</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -13481,14 +13481,14 @@
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>[2.5651904610895238, 2.880482964398465, 3.0747294711528927, 2.8812597725304188, 3.5147438672630504, 3.3592167481724067, 3.3881812758196665]</t>
+          <t>[2.565190315246582, 2.8804829120635986, 3.0747292041778564, 2.8812596797943115, 3.514744281768799, 3.3592166900634766, 3.388181209564209]</t>
         </is>
       </c>
       <c r="U148" t="n">
         <v>4</v>
       </c>
       <c r="V148" t="n">
-        <v>0.9605692933263986</v>
+        <v>0.9605692625045776</v>
       </c>
       <c r="W148" t="n">
         <v>0</v>
@@ -13497,7 +13497,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.859130</t>
+          <t>2025-10-17T02:10:02.585623</t>
         </is>
       </c>
     </row>
@@ -13520,7 +13520,7 @@
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G149" t="n">
         <v>0.5714285714285714</v>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>[2.3461985439518567, 2.156108113834737, 2.551895458869722, 2.7958012473154814, 2.8583253326806184, 2.930293146612869, 2.655466302860496]</t>
+          <t>[2.346198081970215, 2.1561083793640137, 2.5518956184387207, 2.7958014011383057, 2.858325481414795, 2.930293321609497, 2.655466318130493]</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -13569,14 +13569,14 @@
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>[2.3461985439518567, 2.156108113834737, 2.551895458869722, 2.7958012473154814, 2.8583253326806184, 2.930293146612869, 2.655466302860496]</t>
+          <t>[2.346198081970215, 2.1561083793640137, 2.5518956184387207, 2.7958014011383057, 2.858325481414795, 2.930293321609497, 2.655466318130493]</t>
         </is>
       </c>
       <c r="U149" t="n">
         <v>4</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8942654223000234</v>
+        <v>0.8942654728889465</v>
       </c>
       <c r="W149" t="n">
         <v>0</v>
@@ -13585,7 +13585,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.859130</t>
+          <t>2025-10-17T02:10:02.585623</t>
         </is>
       </c>
     </row>
@@ -13608,7 +13608,7 @@
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G150" t="n">
         <v>0.5714285714285714</v>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>[5.233694277111122, 4.656518049344014, 4.760713655031792, 4.847490636520776, 5.8638807330688065, 6.813061980351193, 5.454411502754036]</t>
+          <t>[5.233694553375244, 4.65651798248291, 4.760714054107666, 4.8474907875061035, 5.863880634307861, 6.8130621910095215, 5.45441198348999]</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -13657,14 +13657,14 @@
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>[5.233694277111122, 4.656518049344014, 4.760713655031792, 4.847490636520776, 5.8638807330688065, 6.813061980351193, 5.454411502754036]</t>
+          <t>[5.233694553375244, 4.65651798248291, 4.760714054107666, 4.8474907875061035, 5.863880634307861, 6.8130621910095215, 5.45441198348999]</t>
         </is>
       </c>
       <c r="U150" t="n">
         <v>4</v>
       </c>
       <c r="V150" t="n">
-        <v>1.063557556469483</v>
+        <v>1.063557624816895</v>
       </c>
       <c r="W150" t="n">
         <v>0</v>
@@ -13673,7 +13673,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.859130</t>
+          <t>2025-10-17T02:10:02.585623</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G151" t="n">
         <v>0.5714285714285714</v>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>[1.6076702922304427, 1.8699456462780393, 2.583285145077623, 2.4980746826733666, 3.073374779076887, 2.7222615172449642, 2.8335917770414025]</t>
+          <t>[1.6076703071594238, 1.8699456453323364, 2.583285093307495, 2.498074531555176, 3.0733749866485596, 2.722261428833008, 2.8335914611816406]</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -13745,14 +13745,14 @@
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>[1.6076702922304427, 1.8699456462780393, 2.583285145077623, 3.073374779076887, 2.4980746826733666, 2.7222615172449642, 2.828150568323183]</t>
+          <t>[1.6076703071594238, 1.8699456453323364, 2.583285093307495, 3.0733749866485596, 2.498074531555176, 2.722261428833008, 2.828150510787964]</t>
         </is>
       </c>
       <c r="U151" t="n">
         <v>4</v>
       </c>
       <c r="V151" t="n">
-        <v>0.9804392029974532</v>
+        <v>0.9804391860961914</v>
       </c>
       <c r="W151" t="n">
         <v>0</v>
@@ -13761,7 +13761,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.859130</t>
+          <t>2025-10-17T02:10:02.585623</t>
         </is>
       </c>
     </row>
@@ -13784,7 +13784,7 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G152" t="n">
         <v>0.5714285714285714</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>[3.13169603536538, 3.467959368578602, 3.7142996924694107, 4.018795038246461, 4.197838043540694, 3.8499871395797545, 4.197307937366091]</t>
+          <t>[3.1316962242126465, 3.4679596424102783, 3.7142999172210693, 4.018795013427734, 4.197838306427002, 3.849987268447876, 4.19730806350708]</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -13833,14 +13833,14 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>[3.13169603536538, 3.467959368578602, 3.7142996924694107, 4.018795038246461, 4.197838043540694, 3.8499871395797545, 4.197307937366091]</t>
+          <t>[3.1316962242126465, 3.4679596424102783, 3.7142999172210693, 4.018795013427734, 4.197838306427002, 3.849987268447876, 4.19730806350708]</t>
         </is>
       </c>
       <c r="U152" t="n">
         <v>4</v>
       </c>
       <c r="V152" t="n">
-        <v>0.9946846903816249</v>
+        <v>0.994684636592865</v>
       </c>
       <c r="W152" t="n">
         <v>0</v>
@@ -13849,7 +13849,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.859130</t>
+          <t>2025-10-17T02:10:02.585623</t>
         </is>
       </c>
     </row>
@@ -13872,7 +13872,7 @@
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G153" t="n">
         <v>0.5714285714285714</v>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>[3.357035373690134, 3.4186153034478592, 4.031183150392049, 4.387338589717392, 3.9607619891366004, 3.8457737650661854, 3.7874939655617674]</t>
+          <t>[3.3570351600646973, 3.4186151027679443, 4.03118371963501, 4.387338161468506, 3.9607620239257812, 3.845773935317993, 3.787493944168091]</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -13921,14 +13921,14 @@
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>[3.357035373690134, 3.4186153034478592, 4.031183150392049, 3.9607619891366004, 4.387338589717392, 3.8457737650661854, 3.7874939655617674]</t>
+          <t>[3.3570351600646973, 3.4186151027679443, 4.03118371963501, 3.9607620239257812, 4.387338161468506, 3.845773935317993, 3.787493944168091]</t>
         </is>
       </c>
       <c r="U153" t="n">
         <v>4</v>
       </c>
       <c r="V153" t="n">
-        <v>0.9773831389944262</v>
+        <v>0.9773830771446228</v>
       </c>
       <c r="W153" t="n">
         <v>0</v>
@@ -13937,7 +13937,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.859130</t>
+          <t>2025-10-17T02:10:02.585623</t>
         </is>
       </c>
     </row>
@@ -13960,7 +13960,7 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G154" t="n">
         <v>0.5714285714285714</v>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>[2.0517492806729503, 2.456120885016748, 2.4726563537298856, 2.6685079158792284, 2.469640841676819, 2.8085765540904246, 2.859086543870069]</t>
+          <t>[2.0517489910125732, 2.456120729446411, 2.47265625, 2.6685080528259277, 2.4696407318115234, 2.8085765838623047, 2.859086513519287]</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -14009,14 +14009,14 @@
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>[2.0517492806729503, 2.456120885016748, 2.4726563537298856, 2.859086543870069, 2.9469076966923877, 2.820847629138028, 3.1146135913783457]</t>
+          <t>[2.0517489910125732, 2.456120729446411, 2.47265625, 2.859086513519287, 2.9469075202941895, 2.820847749710083, 3.1146137714385986]</t>
         </is>
       </c>
       <c r="U154" t="n">
         <v>4</v>
       </c>
       <c r="V154" t="n">
-        <v>0.9490095808464085</v>
+        <v>0.9490096569061279</v>
       </c>
       <c r="W154" t="n">
         <v>0</v>
@@ -14025,7 +14025,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.859130</t>
+          <t>2025-10-17T02:10:02.586945</t>
         </is>
       </c>
     </row>
@@ -14048,7 +14048,7 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G155" t="n">
         <v>0.5714285714285714</v>
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>[3.9069388625424826, 5.952524568700919, 4.657368450840615, 5.965557702164408, 5.396847366262858, 5.124092565929298, 6.227796222179769]</t>
+          <t>[3.906938314437866, 5.952524662017822, 4.6573686599731445, 5.965558052062988, 5.396846771240234, 5.1240925788879395, 6.2277960777282715]</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -14097,14 +14097,14 @@
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>[3.9069388625424826, 5.952524568700919, 4.657368450840615, 5.965557702164408, 5.396847366262858, 5.124092565929298, 6.227796222179769]</t>
+          <t>[3.906938314437866, 5.952524662017822, 4.6573686599731445, 5.965558052062988, 5.396846771240234, 5.1240925788879395, 6.2277960777282715]</t>
         </is>
       </c>
       <c r="U155" t="n">
         <v>4</v>
       </c>
       <c r="V155" t="n">
-        <v>1.051369702299368</v>
+        <v>1.051369786262512</v>
       </c>
       <c r="W155" t="n">
         <v>0</v>
@@ -14113,7 +14113,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.859130</t>
+          <t>2025-10-17T02:10:02.586945</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14136,7 @@
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G156" t="n">
         <v>0.5714285714285714</v>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>[1.7493576782092717, 1.959227576079553, 1.974941439828845, 2.489864013521455, 2.2772457486263464, 2.324934172604318, 2.3695618485838037]</t>
+          <t>[1.7493575811386108, 1.9592275619506836, 1.974941372871399, 2.489863872528076, 2.27724552154541, 2.324934482574463, 2.3695621490478516]</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -14185,14 +14185,14 @@
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>[1.7493576782092717, 1.959227576079553, 1.974941439828845, 2.324934172604318, 2.489864013521455, 2.2772457486263464, 2.3695618485838037]</t>
+          <t>[1.7493575811386108, 1.9592275619506836, 1.974941372871399, 2.324934482574463, 2.489863872528076, 2.27724552154541, 2.3695621490478516]</t>
         </is>
       </c>
       <c r="U156" t="n">
         <v>4</v>
       </c>
       <c r="V156" t="n">
-        <v>0.9716342565678273</v>
+        <v>0.9716341495513916</v>
       </c>
       <c r="W156" t="n">
         <v>0</v>
@@ -14201,7 +14201,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.586945</t>
         </is>
       </c>
     </row>
@@ -14224,7 +14224,7 @@
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G157" t="n">
         <v>0.5714285714285714</v>
@@ -14263,7 +14263,7 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>[2.0348715183180546, 2.473052264397535, 2.4380065550884993, 3.16132080781727, 3.04757004269102, 3.066934512394545, 3.1476909050543522]</t>
+          <t>[2.0348715782165527, 2.4730520248413086, 2.438006639480591, 3.161320924758911, 3.047569751739502, 3.06693434715271, 3.147691011428833]</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
@@ -14273,14 +14273,14 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>[2.0348715183180546, 2.473052264397535, 2.4380065550884993, 3.16132080781727, 3.04757004269102, 3.066934512394545, 3.1476909050543522]</t>
+          <t>[2.0348715782165527, 2.4730520248413086, 2.438006639480591, 3.161320924758911, 3.047569751739502, 3.06693434715271, 3.147691011428833]</t>
         </is>
       </c>
       <c r="U157" t="n">
         <v>4</v>
       </c>
       <c r="V157" t="n">
-        <v>0.9362791694823388</v>
+        <v>0.9362792372703552</v>
       </c>
       <c r="W157" t="n">
         <v>0</v>
@@ -14289,7 +14289,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.587482</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G158" t="n">
         <v>0.5714285714285714</v>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>[3.1100328351146356, 3.5428647038411, 3.687053531461962, 4.0706848750932565, 4.018795038246461, 4.0653921231836545, 4.407372668924887]</t>
+          <t>[3.110032796859741, 3.5428647994995117, 3.687053680419922, 4.070684909820557, 4.018795013427734, 4.06539249420166, 4.407371997833252]</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -14361,14 +14361,14 @@
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>[3.1100328351146356, 3.5428647038411, 3.687053531461962, 4.0706848750932565, 4.018795038246461, 4.0653921231836545, 4.407372668924887]</t>
+          <t>[3.110032796859741, 3.5428647994995117, 3.687053680419922, 4.070684909820557, 4.018795013427734, 4.06539249420166, 4.407371997833252]</t>
         </is>
       </c>
       <c r="U158" t="n">
         <v>4</v>
       </c>
       <c r="V158" t="n">
-        <v>0.9292443052581695</v>
+        <v>0.929244339466095</v>
       </c>
       <c r="W158" t="n">
         <v>0</v>
@@ -14377,7 +14377,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.587482</t>
         </is>
       </c>
     </row>
@@ -14400,7 +14400,7 @@
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G159" t="n">
         <v>0.5714285714285714</v>
@@ -14439,7 +14439,7 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>[2.791842143039259, 2.8583253326806184, 3.4984824462414847, 3.3031439729484724, 3.489127045893417, 3.886372076452864, 3.6495754751220733]</t>
+          <t>[2.791842222213745, 2.858325481414795, 3.4984824657440186, 3.3031439781188965, 3.4891271591186523, 3.8863720893859863, 3.6495754718780518]</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
@@ -14449,14 +14449,14 @@
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>[2.791842143039259, 2.8583253326806184, 3.4984824462414847, 3.3031439729484724, 3.489127045893417, 3.886372076452864, 3.6495754751220733]</t>
+          <t>[2.791842222213745, 2.858325481414795, 3.4984824657440186, 3.3031439781188965, 3.4891271591186523, 3.8863720893859863, 3.6495754718780518]</t>
         </is>
       </c>
       <c r="U159" t="n">
         <v>4</v>
       </c>
       <c r="V159" t="n">
-        <v>0.9943810567628202</v>
+        <v>0.9943810701370239</v>
       </c>
       <c r="W159" t="n">
         <v>0</v>
@@ -14465,7 +14465,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.587482</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G160" t="n">
         <v>0.5714285714285714</v>
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>[3.4999590352438696, 5.8771022110874025, 5.2186288926380024, 6.76648307157548, 5.965557702164408, 5.603435468615615, 7.003667525694934]</t>
+          <t>[3.4999589920043945, 5.877102375030518, 5.218628883361816, 6.766482830047607, 5.965558052062988, 5.603435516357422, 7.003667831420898]</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -14537,14 +14537,14 @@
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>[3.4999590352438696, 5.8771022110874025, 5.2186288926380024, 6.76648307157548, 5.965557702164408, 5.603435468615615, 7.003667525694934]</t>
+          <t>[3.4999589920043945, 5.877102375030518, 5.218628883361816, 6.766482830047607, 5.965558052062988, 5.603435516357422, 7.003667831420898]</t>
         </is>
       </c>
       <c r="U160" t="n">
         <v>4</v>
       </c>
       <c r="V160" t="n">
-        <v>1.046213754387062</v>
+        <v>1.046213746070862</v>
       </c>
       <c r="W160" t="n">
         <v>0</v>
@@ -14553,7 +14553,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.587482</t>
         </is>
       </c>
     </row>
@@ -14576,7 +14576,7 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G161" t="n">
         <v>0.5714285714285714</v>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>[2.7726260453341616, 3.141560784968796, 3.514280685908663, 3.4700406142952325, 3.65343276780438, 3.590182636033232, 3.668346666469462]</t>
+          <t>[2.7726261615753174, 3.1415607929229736, 3.5142805576324463, 3.470040798187256, 3.653432846069336, 3.5901825428009033, 3.668346405029297]</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -14625,14 +14625,14 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>[2.7726260453341616, 3.141560784968796, 3.65343276780438, 3.514280685908663, 3.590182636033232, 3.668346666469462, 4.135369249853029]</t>
+          <t>[2.7726261615753174, 3.1415607929229736, 3.653432846069336, 3.5142805576324463, 3.5901825428009033, 3.668346405029297, 4.135369300842285]</t>
         </is>
       </c>
       <c r="U161" t="n">
         <v>4</v>
       </c>
       <c r="V161" t="n">
-        <v>0.9332503706894962</v>
+        <v>0.9332504272460938</v>
       </c>
       <c r="W161" t="n">
         <v>0</v>
@@ -14641,7 +14641,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.587482</t>
         </is>
       </c>
     </row>
@@ -14664,7 +14664,7 @@
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G162" t="n">
         <v>0.5714285714285714</v>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>[2.841708928462958, 3.0182317967175893, 3.260327041202471, 2.8517644573757157, 2.760044928412959, 3.469683128075531, 3.1562825075264787]</t>
+          <t>[2.8417088985443115, 3.0182318687438965, 3.2603275775909424, 2.851764678955078, 2.760044813156128, 3.4696831703186035, 3.1562821865081787]</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
@@ -14713,14 +14713,14 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>[2.841708928462958, 3.0182317967175893, 3.260327041202471, 2.760044928412959, 2.8517644573757157, 3.469683128075531, 3.1562825075264787]</t>
+          <t>[2.8417088985443115, 3.0182318687438965, 3.2603275775909424, 2.760044813156128, 2.851764678955078, 3.4696831703186035, 3.1562821865081787]</t>
         </is>
       </c>
       <c r="U162" t="n">
         <v>4</v>
       </c>
       <c r="V162" t="n">
-        <v>0.9237946611368736</v>
+        <v>0.9237948060035706</v>
       </c>
       <c r="W162" t="n">
         <v>0</v>
@@ -14729,7 +14729,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.587482</t>
         </is>
       </c>
     </row>
@@ -14752,7 +14752,7 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G163" t="n">
         <v>0.5714285714285714</v>
@@ -14767,7 +14767,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
@@ -14791,7 +14791,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>[4.526288077944848, 4.904311988203288, 5.066530744845299, 5.50539649493053, 5.541491180947259, 7.772940613323146, 6.259047997346832]</t>
+          <t>[4.5262885093688965, 4.9043121337890625, 5.066530704498291, 5.505396842956543, 5.5414910316467285, 7.772940635681152, 6.259047508239746]</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -14801,14 +14801,14 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>[4.526288077944848, 6.259047997346832, 6.595394514983138, 6.725600353005439, 5.979614164484645, 6.90403343816763, 6.515894405667479]</t>
+          <t>[4.5262885093688965, 6.259047508239746, 6.595394134521484, 6.725600242614746, 5.979613780975342, 6.904033184051514, 6.515894412994385]</t>
         </is>
       </c>
       <c r="U163" t="n">
         <v>4</v>
       </c>
       <c r="V163" t="n">
-        <v>1.197836732312962</v>
+        <v>1.197836875915527</v>
       </c>
       <c r="W163" t="n">
         <v>0</v>
@@ -14817,7 +14817,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.587482</t>
         </is>
       </c>
     </row>
@@ -14840,7 +14840,7 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G164" t="n">
         <v>0.5714285714285714</v>
@@ -14879,7 +14879,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>[3.190882849225537, 3.1721940124763592, 3.0726841141785743, 3.2097150741296745, 3.735061726277516, 3.7059737025726767, 3.6476585588548587]</t>
+          <t>[3.190882921218872, 3.172193765640259, 3.0726840496063232, 3.2097151279449463, 3.7350618839263916, 3.7059738636016846, 3.6476588249206543]</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
@@ -14889,14 +14889,14 @@
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>[3.190882849225537, 3.1721940124763592, 3.0726841141785743, 3.2097150741296745, 3.735061726277516, 3.7059737025726767, 3.6476585588548587]</t>
+          <t>[3.190882921218872, 3.172193765640259, 3.0726840496063232, 3.2097151279449463, 3.7350618839263916, 3.7059738636016846, 3.6476588249206543]</t>
         </is>
       </c>
       <c r="U164" t="n">
         <v>4</v>
       </c>
       <c r="V164" t="n">
-        <v>0.9758476496866774</v>
+        <v>0.9758476614952087</v>
       </c>
       <c r="W164" t="n">
         <v>0</v>
@@ -14905,7 +14905,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.588480</t>
         </is>
       </c>
     </row>
@@ -14928,7 +14928,7 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G165" t="n">
         <v>0.5714285714285714</v>
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>[2.6275535494139306, 2.831393561809339, 3.059501143684357, 3.451305239260681, 3.1547164486600305, 3.0025325607537208, 3.430947459742662]</t>
+          <t>[2.6275532245635986, 2.8313934803009033, 3.0595009326934814, 3.451305389404297, 3.1547162532806396, 3.002532482147217, 3.430947780609131]</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -14977,14 +14977,14 @@
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>[2.6275535494139306, 2.831393561809339, 3.059501143684357, 3.451305239260681, 3.1547164486600305, 3.0025325607537208, 3.430947459742662]</t>
+          <t>[2.6275532245635986, 2.8313934803009033, 3.0595009326934814, 3.451305389404297, 3.1547162532806396, 3.002532482147217, 3.430947780609131]</t>
         </is>
       </c>
       <c r="U165" t="n">
         <v>4</v>
       </c>
       <c r="V165" t="n">
-        <v>0.9179252781415167</v>
+        <v>0.9179252982139587</v>
       </c>
       <c r="W165" t="n">
         <v>0</v>
@@ -14993,7 +14993,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.860130</t>
+          <t>2025-10-17T02:10:02.588480</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G166" t="n">
         <v>0.5714285714285714</v>
@@ -15031,7 +15031,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>[5.701618162168646, 7.0895256071410255, 6.7148297929617735, 7.931451127191836, 5.58928580465266, 7.405628255225379, 6.220804701069444]</t>
+          <t>[5.701618194580078, 7.089526653289795, 6.714829921722412, 7.931450843811035, 5.589285850524902, 7.405628204345703, 6.220804691314697]</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -15065,14 +15065,14 @@
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>[5.701618162168646, 7.0895256071410255, 6.7148297929617735, 7.931451127191836, 5.58928580465266, 7.405628255225379, 6.283158010827813]</t>
+          <t>[5.701618194580078, 7.089526653289795, 6.714829921722412, 7.931450843811035, 5.589285850524902, 7.405628204345703, 6.283157825469971]</t>
         </is>
       </c>
       <c r="U166" t="n">
         <v>4</v>
       </c>
       <c r="V166" t="n">
-        <v>1.008085025035496</v>
+        <v>1.008085012435913</v>
       </c>
       <c r="W166" t="n">
         <v>0</v>
@@ -15081,7 +15081,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.861130</t>
+          <t>2025-10-17T02:10:02.588480</t>
         </is>
       </c>
     </row>
@@ -15104,7 +15104,7 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G167" t="n">
         <v>0.5714285714285714</v>
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>[2.6406611436403225, 3.431582581458771, 3.059501143684357, 3.1204635122302253, 3.1457463813976885, 3.5119890338276916, 3.6505118501183618]</t>
+          <t>[2.6406612396240234, 3.431582450866699, 3.0595009326934814, 3.1204636096954346, 3.1457464694976807, 3.511988878250122, 3.6505117416381836]</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -15153,14 +15153,14 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>[2.6406611436403225, 3.431582581458771, 3.059501143684357, 3.1204635122302253, 3.1457463813976885, 3.5119890338276916, 3.6505118501183618]</t>
+          <t>[2.6406612396240234, 3.431582450866699, 3.0595009326934814, 3.1204636096954346, 3.1457464694976807, 3.511988878250122, 3.6505117416381836]</t>
         </is>
       </c>
       <c r="U167" t="n">
         <v>4</v>
       </c>
       <c r="V167" t="n">
-        <v>0.9564534158370381</v>
+        <v>0.9564534425735474</v>
       </c>
       <c r="W167" t="n">
         <v>0</v>
@@ -15169,7 +15169,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.861130</t>
+          <t>2025-10-17T02:10:02.588480</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G168" t="n">
         <v>0.5714285714285714</v>
@@ -15231,7 +15231,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>[2.3569203703761845, 2.63793048574738, 2.6162436170715484, 2.728515147156043, 3.311073028732481, 3.3810821216851688, 3.516063299298525]</t>
+          <t>[2.3569202423095703, 2.6379308700561523, 2.616243839263916, 2.728515386581421, 3.311072826385498, 3.38108229637146, 3.5160634517669678]</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -15241,14 +15241,14 @@
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>[2.3569203703761845, 2.63793048574738, 2.6162436170715484, 2.728515147156043, 3.311073028732481, 3.3810821216851688, 3.516063299298525]</t>
+          <t>[2.3569202423095703, 2.6379308700561523, 2.616243839263916, 2.728515386581421, 3.311072826385498, 3.38108229637146, 3.5160634517669678]</t>
         </is>
       </c>
       <c r="U168" t="n">
         <v>4</v>
       </c>
       <c r="V168" t="n">
-        <v>0.9103351129397802</v>
+        <v>0.9103351235389709</v>
       </c>
       <c r="W168" t="n">
         <v>0</v>
@@ -15257,7 +15257,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.861130</t>
+          <t>2025-10-17T02:10:02.588480</t>
         </is>
       </c>
     </row>
@@ -15280,7 +15280,7 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G169" t="n">
         <v>0.5714285714285714</v>
@@ -15295,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>[2.6140567590334665, 2.9709963738177745, 2.835864764067928, 2.6221364391449695, 3.3606670383073642, 3.312179248723088, 3.4051772725356773]</t>
+          <t>[2.6140570640563965, 2.970996618270874, 2.835864782333374, 2.622136354446411, 3.3606669902801514, 3.3121793270111084, 3.405177593231201]</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -15329,14 +15329,14 @@
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>[2.6140567590334665, 2.9709963738177745, 3.3606670383073642, 2.835864764067928, 2.6221364391449695, 3.312179248723088, 3.4051772725356773]</t>
+          <t>[2.6140570640563965, 2.970996618270874, 3.3606669902801514, 2.835864782333374, 2.622136354446411, 3.3121793270111084, 3.405177593231201]</t>
         </is>
       </c>
       <c r="U169" t="n">
         <v>4</v>
       </c>
       <c r="V169" t="n">
-        <v>0.9613555918369714</v>
+        <v>0.9613555073738098</v>
       </c>
       <c r="W169" t="n">
         <v>0</v>
@@ -15345,7 +15345,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.861130</t>
+          <t>2025-10-17T02:10:02.588480</t>
         </is>
       </c>
     </row>
@@ -15368,7 +15368,7 @@
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G170" t="n">
         <v>0.5714285714285714</v>
@@ -15407,7 +15407,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>[2.3988046700318457, 2.992789259328362, 2.90029678333476, 2.841708928462958, 2.619320189305224, 3.214559223420193, 3.1177991631370303]</t>
+          <t>[2.3988049030303955, 2.9927892684936523, 2.900296926498413, 2.8417088985443115, 2.6193203926086426, 3.214559555053711, 3.1177992820739746]</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
@@ -15417,14 +15417,14 @@
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>[2.3988046700318457, 2.992789259328362, 2.90029678333476, 2.841708928462958, 2.619320189305224, 3.214559223420193, 2.9378876000195544]</t>
+          <t>[2.3988049030303955, 2.9927892684936523, 2.900296926498413, 2.8417088985443115, 2.6193203926086426, 3.214559555053711, 2.937887668609619]</t>
         </is>
       </c>
       <c r="U170" t="n">
         <v>4</v>
       </c>
       <c r="V170" t="n">
-        <v>0.8839027240873228</v>
+        <v>0.8839027285575867</v>
       </c>
       <c r="W170" t="n">
         <v>0</v>
@@ -15433,7 +15433,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.861130</t>
+          <t>2025-10-17T02:10:02.588480</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G171" t="n">
         <v>0.5714285714285714</v>
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
@@ -15495,7 +15495,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>[2.765618588919533, 2.706172787816595, 3.389834022021634, 3.4529015532153244, 3.485902229819895, 3.3881812758196665, 3.5947222916150525]</t>
+          <t>[2.7656188011169434, 2.7061729431152344, 3.389833927154541, 3.452901601791382, 3.4859018325805664, 3.388181209564209, 3.594722270965576]</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -15505,14 +15505,14 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>[2.765618588919533, 2.706172787816595, 3.389834022021634, 3.4529015532153244, 3.485902229819895, 3.3881812758196665, 3.5947222916150525]</t>
+          <t>[2.7656188011169434, 2.7061729431152344, 3.389833927154541, 3.452901601791382, 3.4859018325805664, 3.388181209564209, 3.594722270965576]</t>
         </is>
       </c>
       <c r="U171" t="n">
         <v>4</v>
       </c>
       <c r="V171" t="n">
-        <v>0.9751910468190422</v>
+        <v>0.975191056728363</v>
       </c>
       <c r="W171" t="n">
         <v>0</v>
@@ -15521,7 +15521,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:19.861130</t>
+          <t>2025-10-17T02:10:02.589600</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.559099</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.559099</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.559099</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.559099</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.559099</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.559099</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.559099</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.560102</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.561101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.561101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.561101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.561101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.561101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.561101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.561101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.561101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.561101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.562101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.562101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.562101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.562101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.562101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.562101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.562101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.562101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.562101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.563100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.563100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.563100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.563100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.563100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.563100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.563100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.563100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.563100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.564101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.564101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.564101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.564101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.564101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.564101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.564101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.564101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.564101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.565100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.565100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.565100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.565100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.565100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.565100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.565100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.565100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.565100</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.046073</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.061799</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.061799</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.061799</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.062786</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.062786</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.062786</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.566101</t>
+          <t>2025-10-17T07:09:21.062786</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.062786</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.062786</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.062786</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.065578</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.065578</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.065578</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.065578</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.065578</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.065578</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.567100</t>
+          <t>2025-10-17T07:09:21.065578</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.568101</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.568101</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.568101</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.568101</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.568101</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.568101</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.568101</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.568101</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8657,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8745,7 +8745,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.066577</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8833,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.569100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -9449,7 +9449,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9625,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.067573</t>
         </is>
       </c>
     </row>
@@ -9713,7 +9713,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.068574</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.068574</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.068574</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.068574</t>
         </is>
       </c>
     </row>
@@ -10065,7 +10065,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.068574</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10153,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.068574</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.570100</t>
+          <t>2025-10-17T07:09:21.069575</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10329,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.571191</t>
+          <t>2025-10-17T07:09:21.069575</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.571619</t>
+          <t>2025-10-17T07:09:21.069575</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.571619</t>
+          <t>2025-10-17T07:09:21.070099</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.571619</t>
+          <t>2025-10-17T07:09:21.070229</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.575622</t>
+          <t>2025-10-17T07:09:21.070229</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.575622</t>
+          <t>2025-10-17T07:09:21.070229</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.575622</t>
+          <t>2025-10-17T07:09:21.070229</t>
         </is>
       </c>
     </row>
@@ -10945,7 +10945,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.575622</t>
+          <t>2025-10-17T07:09:21.070229</t>
         </is>
       </c>
     </row>
@@ -11033,7 +11033,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.575622</t>
+          <t>2025-10-17T07:09:21.071229</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.576621</t>
+          <t>2025-10-17T07:09:21.071229</t>
         </is>
       </c>
     </row>
@@ -11209,7 +11209,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.576621</t>
+          <t>2025-10-17T07:09:21.071229</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11297,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.579620</t>
+          <t>2025-10-17T07:09:21.071229</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11385,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.579620</t>
+          <t>2025-10-17T07:09:21.071229</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.580623</t>
+          <t>2025-10-17T07:09:21.071229</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.580623</t>
+          <t>2025-10-17T07:09:21.071229</t>
         </is>
       </c>
     </row>
@@ -11649,7 +11649,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.580623</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.580623</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11825,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.581620</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.581620</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.581620</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.581620</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -12177,7 +12177,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.581620</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -12265,7 +12265,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.582623</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.582623</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.582623</t>
+          <t>2025-10-17T07:09:21.072229</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.582623</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.582623</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -12705,7 +12705,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.583623</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.583623</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -12881,7 +12881,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.583623</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.583623</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -13057,7 +13057,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.583623</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13145,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.584621</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.584621</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -13321,7 +13321,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.584621</t>
+          <t>2025-10-17T07:09:21.073227</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.584621</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -13497,7 +13497,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.585623</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -13585,7 +13585,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.585623</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.585623</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -13761,7 +13761,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.585623</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.585623</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -13937,7 +13937,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.585623</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -14025,7 +14025,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.586945</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.586945</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.586945</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.587482</t>
+          <t>2025-10-17T07:09:21.074227</t>
         </is>
       </c>
     </row>
@@ -14377,7 +14377,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.587482</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.587482</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.587482</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -14641,7 +14641,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.587482</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14729,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.587482</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -14817,7 +14817,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.587482</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -14905,7 +14905,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.588480</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.588480</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -15081,7 +15081,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.588480</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -15169,7 +15169,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.588480</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15257,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.588480</t>
+          <t>2025-10-17T07:09:21.075226</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.588480</t>
+          <t>2025-10-17T07:09:21.076226</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.588480</t>
+          <t>2025-10-17T07:09:21.076226</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:02.589600</t>
+          <t>2025-10-17T07:09:21.076226</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -599,7 +599,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.357361</t>
         </is>
       </c>
     </row>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.358356</t>
         </is>
       </c>
     </row>
@@ -760,10 +760,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.358356</t>
         </is>
       </c>
     </row>
@@ -848,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.358356</t>
         </is>
       </c>
     </row>
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -951,7 +951,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.358356</t>
         </is>
       </c>
     </row>
@@ -1024,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -1039,7 +1039,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.359362</t>
         </is>
       </c>
     </row>
@@ -1112,10 +1112,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.359362</t>
         </is>
       </c>
     </row>
@@ -1200,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.359362</t>
         </is>
       </c>
     </row>
@@ -1288,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.359362</t>
         </is>
       </c>
     </row>
@@ -1376,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.359362</t>
         </is>
       </c>
     </row>
@@ -1464,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.360361</t>
         </is>
       </c>
     </row>
@@ -1552,10 +1552,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.360361</t>
         </is>
       </c>
     </row>
@@ -1640,10 +1640,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.360361</t>
         </is>
       </c>
     </row>
@@ -1728,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.361360</t>
         </is>
       </c>
     </row>
@@ -1816,10 +1816,10 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.361360</t>
         </is>
       </c>
     </row>
@@ -1904,10 +1904,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
@@ -1919,7 +1919,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.361360</t>
         </is>
       </c>
     </row>
@@ -1992,10 +1992,10 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.361360</t>
         </is>
       </c>
     </row>
@@ -2080,10 +2080,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -2095,7 +2095,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.361360</t>
         </is>
       </c>
     </row>
@@ -2168,10 +2168,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -2183,7 +2183,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.362360</t>
         </is>
       </c>
     </row>
@@ -2256,10 +2256,10 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.362360</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.362360</t>
         </is>
       </c>
     </row>
@@ -2432,10 +2432,10 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.362360</t>
         </is>
       </c>
     </row>
@@ -2520,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -2535,7 +2535,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.362360</t>
         </is>
       </c>
     </row>
@@ -2608,10 +2608,10 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.363358</t>
         </is>
       </c>
     </row>
@@ -2696,10 +2696,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.363358</t>
         </is>
       </c>
     </row>
@@ -2784,10 +2784,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2799,7 +2799,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.363358</t>
         </is>
       </c>
     </row>
@@ -2872,10 +2872,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.363358</t>
         </is>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.364358</t>
         </is>
       </c>
     </row>
@@ -3048,10 +3048,10 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.364358</t>
         </is>
       </c>
     </row>
@@ -3136,10 +3136,10 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.364358</t>
         </is>
       </c>
     </row>
@@ -3224,10 +3224,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.364358</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.364358</t>
         </is>
       </c>
     </row>
@@ -3400,10 +3400,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.365357</t>
         </is>
       </c>
     </row>
@@ -3488,10 +3488,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -3503,7 +3503,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.365357</t>
         </is>
       </c>
     </row>
@@ -3576,10 +3576,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.365357</t>
         </is>
       </c>
     </row>
@@ -3664,10 +3664,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.365357</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.366358</t>
         </is>
       </c>
     </row>
@@ -3840,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.366358</t>
         </is>
       </c>
     </row>
@@ -3928,10 +3928,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.366358</t>
         </is>
       </c>
     </row>
@@ -4016,10 +4016,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -4031,7 +4031,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.366358</t>
         </is>
       </c>
     </row>
@@ -4104,10 +4104,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.366358</t>
         </is>
       </c>
     </row>
@@ -4192,10 +4192,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.369374</t>
         </is>
       </c>
     </row>
@@ -4280,10 +4280,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.369374</t>
         </is>
       </c>
     </row>
@@ -4368,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.369374</t>
         </is>
       </c>
     </row>
@@ -4456,10 +4456,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.370357</t>
         </is>
       </c>
     </row>
@@ -4544,10 +4544,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.370357</t>
         </is>
       </c>
     </row>
@@ -4632,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.370357</t>
         </is>
       </c>
     </row>
@@ -4720,10 +4720,10 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
@@ -4785,7 +4785,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.371359</t>
         </is>
       </c>
     </row>
@@ -4808,10 +4808,10 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
@@ -4873,7 +4873,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.371359</t>
         </is>
       </c>
     </row>
@@ -4896,10 +4896,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
@@ -4961,7 +4961,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.371359</t>
         </is>
       </c>
     </row>
@@ -4984,10 +4984,10 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
@@ -5049,7 +5049,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.371359</t>
         </is>
       </c>
     </row>
@@ -5072,10 +5072,10 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
@@ -5137,7 +5137,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.372357</t>
         </is>
       </c>
     </row>
@@ -5160,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -5175,7 +5175,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
@@ -5225,7 +5225,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.372357</t>
         </is>
       </c>
     </row>
@@ -5248,10 +5248,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -5263,7 +5263,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
@@ -5313,7 +5313,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.372357</t>
         </is>
       </c>
     </row>
@@ -5336,10 +5336,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
@@ -5401,7 +5401,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.373355</t>
         </is>
       </c>
     </row>
@@ -5424,10 +5424,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
@@ -5489,7 +5489,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.373355</t>
         </is>
       </c>
     </row>
@@ -5512,10 +5512,10 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
@@ -5577,7 +5577,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.373355</t>
         </is>
       </c>
     </row>
@@ -5600,10 +5600,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -5615,7 +5615,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
@@ -5665,7 +5665,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.373355</t>
         </is>
       </c>
     </row>
@@ -5688,10 +5688,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
@@ -5753,7 +5753,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.374357</t>
         </is>
       </c>
     </row>
@@ -5776,10 +5776,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -5791,7 +5791,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
@@ -5841,7 +5841,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.374357</t>
         </is>
       </c>
     </row>
@@ -5864,10 +5864,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
@@ -5929,7 +5929,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.374357</t>
         </is>
       </c>
     </row>
@@ -5952,10 +5952,10 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
@@ -6017,7 +6017,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.375355</t>
         </is>
       </c>
     </row>
@@ -6040,10 +6040,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
@@ -6105,7 +6105,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.375355</t>
         </is>
       </c>
     </row>
@@ -6128,10 +6128,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
@@ -6193,7 +6193,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.375355</t>
         </is>
       </c>
     </row>
@@ -6216,10 +6216,10 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
@@ -6281,7 +6281,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.046073</t>
+          <t>2025-10-19T23:54:45.375355</t>
         </is>
       </c>
     </row>
@@ -6304,10 +6304,10 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
@@ -6369,7 +6369,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.061799</t>
+          <t>2025-10-19T23:54:45.376357</t>
         </is>
       </c>
     </row>
@@ -6392,10 +6392,10 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
@@ -6457,7 +6457,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.061799</t>
+          <t>2025-10-19T23:54:45.376357</t>
         </is>
       </c>
     </row>
@@ -6480,10 +6480,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
@@ -6545,7 +6545,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.061799</t>
+          <t>2025-10-19T23:54:45.376357</t>
         </is>
       </c>
     </row>
@@ -6568,10 +6568,10 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
@@ -6633,7 +6633,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.062786</t>
+          <t>2025-10-19T23:54:45.377355</t>
         </is>
       </c>
     </row>
@@ -6656,10 +6656,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
@@ -6721,7 +6721,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.062786</t>
+          <t>2025-10-19T23:54:45.377355</t>
         </is>
       </c>
     </row>
@@ -6744,10 +6744,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
@@ -6809,7 +6809,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.062786</t>
+          <t>2025-10-19T23:54:45.377355</t>
         </is>
       </c>
     </row>
@@ -6832,10 +6832,10 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
@@ -6897,7 +6897,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.062786</t>
+          <t>2025-10-19T23:54:45.378354</t>
         </is>
       </c>
     </row>
@@ -6920,10 +6920,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
@@ -6935,7 +6935,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
@@ -6985,7 +6985,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.062786</t>
+          <t>2025-10-19T23:54:45.378354</t>
         </is>
       </c>
     </row>
@@ -7008,10 +7008,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -7023,7 +7023,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
@@ -7073,7 +7073,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.062786</t>
+          <t>2025-10-19T23:54:45.378354</t>
         </is>
       </c>
     </row>
@@ -7096,10 +7096,10 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
@@ -7161,7 +7161,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.062786</t>
+          <t>2025-10-19T23:54:45.378354</t>
         </is>
       </c>
     </row>
@@ -7184,10 +7184,10 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
@@ -7249,7 +7249,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.065578</t>
+          <t>2025-10-19T23:54:45.378354</t>
         </is>
       </c>
     </row>
@@ -7272,10 +7272,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
@@ -7337,7 +7337,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.065578</t>
+          <t>2025-10-19T23:54:45.379357</t>
         </is>
       </c>
     </row>
@@ -7360,10 +7360,10 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
@@ -7425,7 +7425,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.065578</t>
+          <t>2025-10-19T23:54:45.379357</t>
         </is>
       </c>
     </row>
@@ -7448,10 +7448,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -7513,7 +7513,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.065578</t>
+          <t>2025-10-19T23:54:45.379357</t>
         </is>
       </c>
     </row>
@@ -7536,10 +7536,10 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
@@ -7601,7 +7601,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.065578</t>
+          <t>2025-10-19T23:54:45.379357</t>
         </is>
       </c>
     </row>
@@ -7624,10 +7624,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
@@ -7639,7 +7639,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
@@ -7689,7 +7689,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.065578</t>
+          <t>2025-10-19T23:54:45.379357</t>
         </is>
       </c>
     </row>
@@ -7712,10 +7712,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
@@ -7727,7 +7727,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
@@ -7777,7 +7777,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.065578</t>
+          <t>2025-10-19T23:54:45.380356</t>
         </is>
       </c>
     </row>
@@ -7800,10 +7800,10 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
@@ -7865,7 +7865,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.380356</t>
         </is>
       </c>
     </row>
@@ -7888,10 +7888,10 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
@@ -7953,7 +7953,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.380356</t>
         </is>
       </c>
     </row>
@@ -7976,10 +7976,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -7991,7 +7991,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
@@ -8041,7 +8041,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.381357</t>
         </is>
       </c>
     </row>
@@ -8064,10 +8064,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -8079,7 +8079,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K87" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
@@ -8129,7 +8129,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.381357</t>
         </is>
       </c>
     </row>
@@ -8152,10 +8152,10 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
@@ -8217,7 +8217,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.381357</t>
         </is>
       </c>
     </row>
@@ -8240,10 +8240,10 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
@@ -8305,7 +8305,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.381357</t>
         </is>
       </c>
     </row>
@@ -8328,10 +8328,10 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
@@ -8343,7 +8343,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
@@ -8393,7 +8393,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.381357</t>
         </is>
       </c>
     </row>
@@ -8416,10 +8416,10 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
@@ -8481,7 +8481,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.382356</t>
         </is>
       </c>
     </row>
@@ -8504,10 +8504,10 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
@@ -8569,7 +8569,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.382356</t>
         </is>
       </c>
     </row>
@@ -8592,10 +8592,10 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
@@ -8657,7 +8657,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.382356</t>
         </is>
       </c>
     </row>
@@ -8680,10 +8680,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -8695,7 +8695,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
@@ -8745,7 +8745,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.066577</t>
+          <t>2025-10-19T23:54:45.382356</t>
         </is>
       </c>
     </row>
@@ -8768,10 +8768,10 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
@@ -8833,7 +8833,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.382356</t>
         </is>
       </c>
     </row>
@@ -8856,10 +8856,10 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
@@ -8921,7 +8921,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.385357</t>
         </is>
       </c>
     </row>
@@ -8944,10 +8944,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
@@ -9009,7 +9009,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.385357</t>
         </is>
       </c>
     </row>
@@ -9032,10 +9032,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -9047,7 +9047,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K98" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
@@ -9097,7 +9097,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.385357</t>
         </is>
       </c>
     </row>
@@ -9120,10 +9120,10 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
@@ -9185,7 +9185,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.386360</t>
         </is>
       </c>
     </row>
@@ -9208,10 +9208,10 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
@@ -9273,7 +9273,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.386360</t>
         </is>
       </c>
     </row>
@@ -9296,10 +9296,10 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
@@ -9361,7 +9361,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.386360</t>
         </is>
       </c>
     </row>
@@ -9384,10 +9384,10 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
@@ -9449,7 +9449,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.386360</t>
         </is>
       </c>
     </row>
@@ -9472,10 +9472,10 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
@@ -9537,7 +9537,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.386360</t>
         </is>
       </c>
     </row>
@@ -9560,10 +9560,10 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
@@ -9625,7 +9625,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.067573</t>
+          <t>2025-10-19T23:54:45.387360</t>
         </is>
       </c>
     </row>
@@ -9648,10 +9648,10 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
@@ -9713,7 +9713,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.068574</t>
+          <t>2025-10-19T23:54:45.387360</t>
         </is>
       </c>
     </row>
@@ -9736,10 +9736,10 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
@@ -9801,7 +9801,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.068574</t>
+          <t>2025-10-19T23:54:45.387360</t>
         </is>
       </c>
     </row>
@@ -9824,10 +9824,10 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
@@ -9889,7 +9889,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.068574</t>
+          <t>2025-10-19T23:54:45.387360</t>
         </is>
       </c>
     </row>
@@ -9912,10 +9912,10 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
@@ -9977,7 +9977,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.068574</t>
+          <t>2025-10-19T23:54:45.388356</t>
         </is>
       </c>
     </row>
@@ -10000,10 +10000,10 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
@@ -10065,7 +10065,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.068574</t>
+          <t>2025-10-19T23:54:45.388356</t>
         </is>
       </c>
     </row>
@@ -10088,10 +10088,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
@@ -10153,7 +10153,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.068574</t>
+          <t>2025-10-19T23:54:45.388356</t>
         </is>
       </c>
     </row>
@@ -10176,10 +10176,10 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
@@ -10241,7 +10241,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.069575</t>
+          <t>2025-10-19T23:54:45.388356</t>
         </is>
       </c>
     </row>
@@ -10264,10 +10264,10 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
@@ -10329,7 +10329,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.069575</t>
+          <t>2025-10-19T23:54:45.389360</t>
         </is>
       </c>
     </row>
@@ -10352,10 +10352,10 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
@@ -10417,7 +10417,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.069575</t>
+          <t>2025-10-19T23:54:45.389360</t>
         </is>
       </c>
     </row>
@@ -10440,10 +10440,10 @@
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G114" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
@@ -10505,7 +10505,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.070099</t>
+          <t>2025-10-19T23:54:45.389360</t>
         </is>
       </c>
     </row>
@@ -10528,10 +10528,10 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
@@ -10543,7 +10543,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
@@ -10593,7 +10593,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.070229</t>
+          <t>2025-10-19T23:54:45.389360</t>
         </is>
       </c>
     </row>
@@ -10616,10 +10616,10 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
@@ -10631,7 +10631,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
@@ -10681,7 +10681,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.070229</t>
+          <t>2025-10-19T23:54:45.391359</t>
         </is>
       </c>
     </row>
@@ -10704,10 +10704,10 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
@@ -10769,7 +10769,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.070229</t>
+          <t>2025-10-19T23:54:45.391359</t>
         </is>
       </c>
     </row>
@@ -10792,10 +10792,10 @@
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
@@ -10857,7 +10857,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.070229</t>
+          <t>2025-10-19T23:54:45.391359</t>
         </is>
       </c>
     </row>
@@ -10880,10 +10880,10 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
@@ -10945,7 +10945,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.070229</t>
+          <t>2025-10-19T23:54:45.392361</t>
         </is>
       </c>
     </row>
@@ -10968,10 +10968,10 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
@@ -11033,7 +11033,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.071229</t>
+          <t>2025-10-19T23:54:45.392361</t>
         </is>
       </c>
     </row>
@@ -11056,10 +11056,10 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
@@ -11071,7 +11071,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
@@ -11121,7 +11121,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.071229</t>
+          <t>2025-10-19T23:54:45.392361</t>
         </is>
       </c>
     </row>
@@ -11144,10 +11144,10 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
@@ -11159,7 +11159,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K122" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
@@ -11209,7 +11209,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.071229</t>
+          <t>2025-10-19T23:54:45.393355</t>
         </is>
       </c>
     </row>
@@ -11232,10 +11232,10 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G123" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
@@ -11297,7 +11297,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.071229</t>
+          <t>2025-10-19T23:54:45.393355</t>
         </is>
       </c>
     </row>
@@ -11320,10 +11320,10 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G124" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
@@ -11335,7 +11335,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
@@ -11385,7 +11385,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.071229</t>
+          <t>2025-10-19T23:54:45.393355</t>
         </is>
       </c>
     </row>
@@ -11408,10 +11408,10 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G125" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
@@ -11473,7 +11473,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.071229</t>
+          <t>2025-10-19T23:54:45.393355</t>
         </is>
       </c>
     </row>
@@ -11496,10 +11496,10 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G126" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
@@ -11511,7 +11511,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K126" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
@@ -11561,7 +11561,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.071229</t>
+          <t>2025-10-19T23:54:45.393355</t>
         </is>
       </c>
     </row>
@@ -11584,10 +11584,10 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G127" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
@@ -11649,7 +11649,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.394358</t>
         </is>
       </c>
     </row>
@@ -11672,10 +11672,10 @@
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G128" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
@@ -11737,7 +11737,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.394358</t>
         </is>
       </c>
     </row>
@@ -11760,10 +11760,10 @@
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G129" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
@@ -11825,7 +11825,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.394358</t>
         </is>
       </c>
     </row>
@@ -11848,10 +11848,10 @@
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
@@ -11913,7 +11913,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.394358</t>
         </is>
       </c>
     </row>
@@ -11936,10 +11936,10 @@
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
@@ -12001,7 +12001,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.394358</t>
         </is>
       </c>
     </row>
@@ -12024,10 +12024,10 @@
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
@@ -12089,7 +12089,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.395358</t>
         </is>
       </c>
     </row>
@@ -12112,10 +12112,10 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
@@ -12177,7 +12177,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.395358</t>
         </is>
       </c>
     </row>
@@ -12200,10 +12200,10 @@
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G134" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
@@ -12215,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
@@ -12265,7 +12265,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.395358</t>
         </is>
       </c>
     </row>
@@ -12288,10 +12288,10 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G135" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
@@ -12303,7 +12303,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K135" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
@@ -12353,7 +12353,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.395358</t>
         </is>
       </c>
     </row>
@@ -12376,10 +12376,10 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G136" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
@@ -12441,7 +12441,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.072229</t>
+          <t>2025-10-19T23:54:45.396357</t>
         </is>
       </c>
     </row>
@@ -12464,10 +12464,10 @@
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G137" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
@@ -12529,7 +12529,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.396357</t>
         </is>
       </c>
     </row>
@@ -12552,10 +12552,10 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G138" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
@@ -12567,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
@@ -12617,7 +12617,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.396357</t>
         </is>
       </c>
     </row>
@@ -12640,10 +12640,10 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
@@ -12655,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
@@ -12705,7 +12705,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.396357</t>
         </is>
       </c>
     </row>
@@ -12728,10 +12728,10 @@
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G140" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
@@ -12793,7 +12793,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.396357</t>
         </is>
       </c>
     </row>
@@ -12816,10 +12816,10 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G141" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
@@ -12881,7 +12881,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.397359</t>
         </is>
       </c>
     </row>
@@ -12904,10 +12904,10 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G142" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
@@ -12919,7 +12919,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
@@ -12969,7 +12969,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.397359</t>
         </is>
       </c>
     </row>
@@ -12992,10 +12992,10 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
@@ -13007,7 +13007,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
@@ -13057,7 +13057,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.397359</t>
         </is>
       </c>
     </row>
@@ -13080,10 +13080,10 @@
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
@@ -13145,7 +13145,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.397359</t>
         </is>
       </c>
     </row>
@@ -13168,10 +13168,10 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G145" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
@@ -13233,7 +13233,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.397359</t>
         </is>
       </c>
     </row>
@@ -13256,10 +13256,10 @@
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
@@ -13321,7 +13321,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.073227</t>
+          <t>2025-10-19T23:54:45.398355</t>
         </is>
       </c>
     </row>
@@ -13344,10 +13344,10 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G147" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
@@ -13409,7 +13409,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.398355</t>
         </is>
       </c>
     </row>
@@ -13432,10 +13432,10 @@
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G148" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
@@ -13497,7 +13497,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.398355</t>
         </is>
       </c>
     </row>
@@ -13520,10 +13520,10 @@
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G149" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
@@ -13585,7 +13585,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.399362</t>
         </is>
       </c>
     </row>
@@ -13608,10 +13608,10 @@
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
@@ -13673,7 +13673,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.399362</t>
         </is>
       </c>
     </row>
@@ -13696,10 +13696,10 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G151" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
@@ -13761,7 +13761,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.399362</t>
         </is>
       </c>
     </row>
@@ -13784,10 +13784,10 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G152" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
@@ -13849,7 +13849,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.399362</t>
         </is>
       </c>
     </row>
@@ -13872,10 +13872,10 @@
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G153" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
@@ -13887,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
@@ -13937,7 +13937,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.399362</t>
         </is>
       </c>
     </row>
@@ -13960,10 +13960,10 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G154" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
@@ -13975,7 +13975,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K154" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
@@ -14025,7 +14025,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.401358</t>
         </is>
       </c>
     </row>
@@ -14048,10 +14048,10 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G155" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
@@ -14113,7 +14113,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.402362</t>
         </is>
       </c>
     </row>
@@ -14136,10 +14136,10 @@
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G156" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
@@ -14151,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
@@ -14201,7 +14201,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.402362</t>
         </is>
       </c>
     </row>
@@ -14224,10 +14224,10 @@
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G157" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
@@ -14239,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
@@ -14289,7 +14289,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.074227</t>
+          <t>2025-10-19T23:54:45.402362</t>
         </is>
       </c>
     </row>
@@ -14312,10 +14312,10 @@
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G158" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
@@ -14377,7 +14377,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.403362</t>
         </is>
       </c>
     </row>
@@ -14400,10 +14400,10 @@
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G159" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
@@ -14465,7 +14465,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.403362</t>
         </is>
       </c>
     </row>
@@ -14488,10 +14488,10 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G160" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
@@ -14553,7 +14553,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.403362</t>
         </is>
       </c>
     </row>
@@ -14576,10 +14576,10 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G161" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
@@ -14591,7 +14591,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K161" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
@@ -14641,7 +14641,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.403362</t>
         </is>
       </c>
     </row>
@@ -14664,10 +14664,10 @@
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G162" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
@@ -14679,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
@@ -14729,7 +14729,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.403362</t>
         </is>
       </c>
     </row>
@@ -14752,10 +14752,10 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G163" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
@@ -14767,7 +14767,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
@@ -14817,7 +14817,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.404356</t>
         </is>
       </c>
     </row>
@@ -14840,10 +14840,10 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G164" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
@@ -14905,7 +14905,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.404356</t>
         </is>
       </c>
     </row>
@@ -14928,10 +14928,10 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G165" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
@@ -14993,7 +14993,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.404356</t>
         </is>
       </c>
     </row>
@@ -15016,10 +15016,10 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G166" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
@@ -15031,7 +15031,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
@@ -15081,7 +15081,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.404356</t>
         </is>
       </c>
     </row>
@@ -15104,10 +15104,10 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
@@ -15169,7 +15169,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.404356</t>
         </is>
       </c>
     </row>
@@ -15192,10 +15192,10 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G168" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
@@ -15257,7 +15257,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.075226</t>
+          <t>2025-10-19T23:54:45.405356</t>
         </is>
       </c>
     </row>
@@ -15280,10 +15280,10 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G169" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
@@ -15295,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
@@ -15345,7 +15345,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.076226</t>
+          <t>2025-10-19T23:54:45.405356</t>
         </is>
       </c>
     </row>
@@ -15368,10 +15368,10 @@
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G170" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
@@ -15433,7 +15433,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.076226</t>
+          <t>2025-10-19T23:54:45.405356</t>
         </is>
       </c>
     </row>
@@ -15456,10 +15456,10 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G171" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
@@ -15521,7 +15521,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:21.076226</t>
+          <t>2025-10-19T23:54:45.405356</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -649,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.357361</t>
+          <t>2025-10-20T01:21:15.581272</t>
         </is>
       </c>
     </row>
@@ -737,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.358356</t>
+          <t>2025-10-20T01:21:15.581272</t>
         </is>
       </c>
     </row>
@@ -825,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.358356</t>
+          <t>2025-10-20T01:21:15.581272</t>
         </is>
       </c>
     </row>
@@ -913,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.358356</t>
+          <t>2025-10-20T01:21:15.582273</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.358356</t>
+          <t>2025-10-20T01:21:15.582273</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.359362</t>
+          <t>2025-10-20T01:21:15.582273</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.359362</t>
+          <t>2025-10-20T01:21:15.582273</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.359362</t>
+          <t>2025-10-20T01:21:15.582273</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.359362</t>
+          <t>2025-10-20T01:21:15.582273</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.359362</t>
+          <t>2025-10-20T01:21:15.582273</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.360361</t>
+          <t>2025-10-20T01:21:15.583271</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.360361</t>
+          <t>2025-10-20T01:21:15.583271</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.360361</t>
+          <t>2025-10-20T01:21:15.583271</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.361360</t>
+          <t>2025-10-20T01:21:15.583271</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.361360</t>
+          <t>2025-10-20T01:21:15.583271</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.361360</t>
+          <t>2025-10-20T01:21:15.583271</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.361360</t>
+          <t>2025-10-20T01:21:15.583271</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.361360</t>
+          <t>2025-10-20T01:21:15.583271</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2243,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.362360</t>
+          <t>2025-10-20T01:21:15.584271</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.362360</t>
+          <t>2025-10-20T01:21:15.584271</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.362360</t>
+          <t>2025-10-20T01:21:15.584271</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2507,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.362360</t>
+          <t>2025-10-20T01:21:15.584271</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2595,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.362360</t>
+          <t>2025-10-20T01:21:15.584271</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2683,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.363358</t>
+          <t>2025-10-20T01:21:15.584271</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2771,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.363358</t>
+          <t>2025-10-20T01:21:15.584271</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2859,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.363358</t>
+          <t>2025-10-20T01:21:15.584271</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2947,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.363358</t>
+          <t>2025-10-20T01:21:15.585270</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3035,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.364358</t>
+          <t>2025-10-20T01:21:15.585270</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3123,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.364358</t>
+          <t>2025-10-20T01:21:15.585270</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3211,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.364358</t>
+          <t>2025-10-20T01:21:15.585270</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3299,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.364358</t>
+          <t>2025-10-20T01:21:15.585270</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3387,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.364358</t>
+          <t>2025-10-20T01:21:15.586269</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3475,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.365357</t>
+          <t>2025-10-20T01:21:15.586269</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3563,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.365357</t>
+          <t>2025-10-20T01:21:15.586269</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3651,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.365357</t>
+          <t>2025-10-20T01:21:15.586269</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3739,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.365357</t>
+          <t>2025-10-20T01:21:15.586269</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3827,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.366358</t>
+          <t>2025-10-20T01:21:15.587268</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3915,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.366358</t>
+          <t>2025-10-20T01:21:15.587268</t>
         </is>
       </c>
     </row>
@@ -3993,7 +4003,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.366358</t>
+          <t>2025-10-20T01:21:15.587268</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4091,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.366358</t>
+          <t>2025-10-20T01:21:15.587268</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4179,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.366358</t>
+          <t>2025-10-20T01:21:15.587268</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4267,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.369374</t>
+          <t>2025-10-20T01:21:15.587268</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4355,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.369374</t>
+          <t>2025-10-20T01:21:15.588268</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4443,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.369374</t>
+          <t>2025-10-20T01:21:15.588268</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4531,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.370357</t>
+          <t>2025-10-20T01:21:15.588268</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4619,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.370357</t>
+          <t>2025-10-20T01:21:15.588268</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4707,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.370357</t>
+          <t>2025-10-20T01:21:15.589271</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4795,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.371359</t>
+          <t>2025-10-20T01:21:15.590272</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4883,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.371359</t>
+          <t>2025-10-20T01:21:15.590272</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4971,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.371359</t>
+          <t>2025-10-20T01:21:15.590272</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5059,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.371359</t>
+          <t>2025-10-20T01:21:15.590272</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5147,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.372357</t>
+          <t>2025-10-20T01:21:15.591276</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5235,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.372357</t>
+          <t>2025-10-20T01:21:15.592302</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5323,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.372357</t>
+          <t>2025-10-20T01:21:15.592302</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5411,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.373355</t>
+          <t>2025-10-20T01:21:15.592302</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5499,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.373355</t>
+          <t>2025-10-20T01:21:15.592302</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5587,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.373355</t>
+          <t>2025-10-20T01:21:15.593273</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5675,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.373355</t>
+          <t>2025-10-20T01:21:15.593273</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5763,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.374357</t>
+          <t>2025-10-20T01:21:15.593273</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5851,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.374357</t>
+          <t>2025-10-20T01:21:15.593273</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5939,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.374357</t>
+          <t>2025-10-20T01:21:15.593273</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6027,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.375355</t>
+          <t>2025-10-20T01:21:15.593273</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6115,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.375355</t>
+          <t>2025-10-20T01:21:15.594268</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6203,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.375355</t>
+          <t>2025-10-20T01:21:15.594268</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6291,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.375355</t>
+          <t>2025-10-20T01:21:15.594268</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6379,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.376357</t>
+          <t>2025-10-20T01:21:15.594268</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6467,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.376357</t>
+          <t>2025-10-20T01:21:15.594268</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6555,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.376357</t>
+          <t>2025-10-20T01:21:15.594268</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6643,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.377355</t>
+          <t>2025-10-20T01:21:15.595272</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6731,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.377355</t>
+          <t>2025-10-20T01:21:15.595272</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6819,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.377355</t>
+          <t>2025-10-20T01:21:15.595272</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6907,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.378354</t>
+          <t>2025-10-20T01:21:15.595272</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6995,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.378354</t>
+          <t>2025-10-20T01:21:15.595272</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7083,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.378354</t>
+          <t>2025-10-20T01:21:15.595272</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7171,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.378354</t>
+          <t>2025-10-20T01:21:15.596270</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7259,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.378354</t>
+          <t>2025-10-20T01:21:15.596270</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7347,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.379357</t>
+          <t>2025-10-20T01:21:15.596270</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7435,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.379357</t>
+          <t>2025-10-20T01:21:15.596270</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7523,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.379357</t>
+          <t>2025-10-20T01:21:15.596270</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7611,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.379357</t>
+          <t>2025-10-20T01:21:15.596270</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7699,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.379357</t>
+          <t>2025-10-20T01:21:15.597271</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7787,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.380356</t>
+          <t>2025-10-20T01:21:15.597271</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7875,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.380356</t>
+          <t>2025-10-20T01:21:15.597271</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7963,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.380356</t>
+          <t>2025-10-20T01:21:15.597271</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8051,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.381357</t>
+          <t>2025-10-20T01:21:15.597271</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8139,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.381357</t>
+          <t>2025-10-20T01:21:15.597271</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8227,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.381357</t>
+          <t>2025-10-20T01:21:15.598273</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8315,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.381357</t>
+          <t>2025-10-20T01:21:15.598273</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8403,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.381357</t>
+          <t>2025-10-20T01:21:15.598273</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8491,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.382356</t>
+          <t>2025-10-20T01:21:15.598273</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8579,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.382356</t>
+          <t>2025-10-20T01:21:15.598273</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8667,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.382356</t>
+          <t>2025-10-20T01:21:15.599270</t>
         </is>
       </c>
     </row>
@@ -8745,7 +8755,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.382356</t>
+          <t>2025-10-20T01:21:15.599270</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8843,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.382356</t>
+          <t>2025-10-20T01:21:15.599270</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8931,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.385357</t>
+          <t>2025-10-20T01:21:15.599270</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9019,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.385357</t>
+          <t>2025-10-20T01:21:15.599270</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9107,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.385357</t>
+          <t>2025-10-20T01:21:15.599270</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9195,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.386360</t>
+          <t>2025-10-20T01:21:15.600271</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9283,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.386360</t>
+          <t>2025-10-20T01:21:15.600271</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9371,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.386360</t>
+          <t>2025-10-20T01:21:15.600271</t>
         </is>
       </c>
     </row>
@@ -9449,7 +9459,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.386360</t>
+          <t>2025-10-20T01:21:15.600271</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9547,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.386360</t>
+          <t>2025-10-20T01:21:15.600271</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9635,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.387360</t>
+          <t>2025-10-20T01:21:15.600271</t>
         </is>
       </c>
     </row>
@@ -9713,7 +9723,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.387360</t>
+          <t>2025-10-20T01:21:15.601271</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9811,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.387360</t>
+          <t>2025-10-20T01:21:15.601271</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9899,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.387360</t>
+          <t>2025-10-20T01:21:15.601271</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9987,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.388356</t>
+          <t>2025-10-20T01:21:15.601271</t>
         </is>
       </c>
     </row>
@@ -10065,7 +10075,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.388356</t>
+          <t>2025-10-20T01:21:15.601271</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10163,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.388356</t>
+          <t>2025-10-20T01:21:15.601271</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10251,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.388356</t>
+          <t>2025-10-20T01:21:15.602272</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10339,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.389360</t>
+          <t>2025-10-20T01:21:15.602272</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10427,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.389360</t>
+          <t>2025-10-20T01:21:15.602272</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10515,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.389360</t>
+          <t>2025-10-20T01:21:15.602272</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10603,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.389360</t>
+          <t>2025-10-20T01:21:15.602272</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10691,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.391359</t>
+          <t>2025-10-20T01:21:15.603270</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10779,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.391359</t>
+          <t>2025-10-20T01:21:15.603270</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10867,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.391359</t>
+          <t>2025-10-20T01:21:15.603270</t>
         </is>
       </c>
     </row>
@@ -10945,7 +10955,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.392361</t>
+          <t>2025-10-20T01:21:15.604274</t>
         </is>
       </c>
     </row>
@@ -11033,7 +11043,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.392361</t>
+          <t>2025-10-20T01:21:15.604274</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11131,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.392361</t>
+          <t>2025-10-20T01:21:15.604274</t>
         </is>
       </c>
     </row>
@@ -11209,7 +11219,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.393355</t>
+          <t>2025-10-20T01:21:15.604274</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11307,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.393355</t>
+          <t>2025-10-20T01:21:15.604274</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11395,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.393355</t>
+          <t>2025-10-20T01:21:15.604274</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11483,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.393355</t>
+          <t>2025-10-20T01:21:15.605271</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11571,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.393355</t>
+          <t>2025-10-20T01:21:15.605271</t>
         </is>
       </c>
     </row>
@@ -11649,7 +11659,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.394358</t>
+          <t>2025-10-20T01:21:15.606273</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11747,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.394358</t>
+          <t>2025-10-20T01:21:15.607274</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11835,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.394358</t>
+          <t>2025-10-20T01:21:15.608272</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11923,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.394358</t>
+          <t>2025-10-20T01:21:15.608272</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12011,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.394358</t>
+          <t>2025-10-20T01:21:15.608272</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12099,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.395358</t>
+          <t>2025-10-20T01:21:15.608272</t>
         </is>
       </c>
     </row>
@@ -12177,7 +12187,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.395358</t>
+          <t>2025-10-20T01:21:15.608272</t>
         </is>
       </c>
     </row>
@@ -12265,7 +12275,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.395358</t>
+          <t>2025-10-20T01:21:15.609274</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12363,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.395358</t>
+          <t>2025-10-20T01:21:15.609274</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12451,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.396357</t>
+          <t>2025-10-20T01:21:15.609274</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12539,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.396357</t>
+          <t>2025-10-20T01:21:15.609274</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12627,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.396357</t>
+          <t>2025-10-20T01:21:15.609274</t>
         </is>
       </c>
     </row>
@@ -12705,7 +12715,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.396357</t>
+          <t>2025-10-20T01:21:15.610274</t>
         </is>
       </c>
     </row>
@@ -12793,7 +12803,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.396357</t>
+          <t>2025-10-20T01:21:15.610274</t>
         </is>
       </c>
     </row>
@@ -12881,7 +12891,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.397359</t>
+          <t>2025-10-20T01:21:15.610274</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12979,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.397359</t>
+          <t>2025-10-20T01:21:15.610274</t>
         </is>
       </c>
     </row>
@@ -13057,7 +13067,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.397359</t>
+          <t>2025-10-20T01:21:15.611270</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13155,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.397359</t>
+          <t>2025-10-20T01:21:15.611270</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13243,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.397359</t>
+          <t>2025-10-20T01:21:15.611270</t>
         </is>
       </c>
     </row>
@@ -13321,7 +13331,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.398355</t>
+          <t>2025-10-20T01:21:15.612275</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13419,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.398355</t>
+          <t>2025-10-20T01:21:15.612275</t>
         </is>
       </c>
     </row>
@@ -13497,7 +13507,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.398355</t>
+          <t>2025-10-20T01:21:15.612275</t>
         </is>
       </c>
     </row>
@@ -13585,7 +13595,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.399362</t>
+          <t>2025-10-20T01:21:15.613273</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13683,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.399362</t>
+          <t>2025-10-20T01:21:15.614424</t>
         </is>
       </c>
     </row>
@@ -13761,7 +13771,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.399362</t>
+          <t>2025-10-20T01:21:15.614424</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13859,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.399362</t>
+          <t>2025-10-20T01:21:15.614956</t>
         </is>
       </c>
     </row>
@@ -13937,7 +13947,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.399362</t>
+          <t>2025-10-20T01:21:15.614956</t>
         </is>
       </c>
     </row>
@@ -14025,7 +14035,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.401358</t>
+          <t>2025-10-20T01:21:15.614956</t>
         </is>
       </c>
     </row>
@@ -14113,7 +14123,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.402362</t>
+          <t>2025-10-20T01:21:15.614956</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14211,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.402362</t>
+          <t>2025-10-20T01:21:15.614956</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14299,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.402362</t>
+          <t>2025-10-20T01:21:15.615953</t>
         </is>
       </c>
     </row>
@@ -14377,7 +14387,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.403362</t>
+          <t>2025-10-20T01:21:15.615953</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14475,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.403362</t>
+          <t>2025-10-20T01:21:15.615953</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14563,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.403362</t>
+          <t>2025-10-20T01:21:15.615953</t>
         </is>
       </c>
     </row>
@@ -14641,7 +14651,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.403362</t>
+          <t>2025-10-20T01:21:15.615953</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14739,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.403362</t>
+          <t>2025-10-20T01:21:15.615953</t>
         </is>
       </c>
     </row>
@@ -14817,7 +14827,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.404356</t>
+          <t>2025-10-20T01:21:15.616955</t>
         </is>
       </c>
     </row>
@@ -14905,7 +14915,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.404356</t>
+          <t>2025-10-20T01:21:15.616955</t>
         </is>
       </c>
     </row>
@@ -14993,7 +15003,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.404356</t>
+          <t>2025-10-20T01:21:15.616955</t>
         </is>
       </c>
     </row>
@@ -15081,7 +15091,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.404356</t>
+          <t>2025-10-20T01:21:15.617950</t>
         </is>
       </c>
     </row>
@@ -15169,7 +15179,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.404356</t>
+          <t>2025-10-20T01:21:15.617950</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15267,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.405356</t>
+          <t>2025-10-20T01:21:15.618286</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15355,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.405356</t>
+          <t>2025-10-20T01:21:15.618821</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15443,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.405356</t>
+          <t>2025-10-20T01:21:15.619367</t>
         </is>
       </c>
     </row>
@@ -15521,11 +15531,16 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:45.405356</t>
+          <t>2025-10-20T01:21:15.619367</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z171">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.581272</t>
+          <t>2025-10-23T11:28:59.834853</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.581272</t>
+          <t>2025-10-23T11:28:59.834853</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.581272</t>
+          <t>2025-10-23T11:28:59.835368</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.582273</t>
+          <t>2025-10-23T11:28:59.835368</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.582273</t>
+          <t>2025-10-23T11:28:59.835368</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.582273</t>
+          <t>2025-10-23T11:28:59.835368</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.582273</t>
+          <t>2025-10-23T11:28:59.835368</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.582273</t>
+          <t>2025-10-23T11:28:59.836387</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.582273</t>
+          <t>2025-10-23T11:28:59.836387</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.582273</t>
+          <t>2025-10-23T11:28:59.836387</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.583271</t>
+          <t>2025-10-23T11:28:59.836387</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.583271</t>
+          <t>2025-10-23T11:28:59.837384</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.583271</t>
+          <t>2025-10-23T11:28:59.837577</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.583271</t>
+          <t>2025-10-23T11:28:59.837577</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.583271</t>
+          <t>2025-10-23T11:28:59.837577</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.583271</t>
+          <t>2025-10-23T11:28:59.838130</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.583271</t>
+          <t>2025-10-23T11:28:59.838130</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.583271</t>
+          <t>2025-10-23T11:28:59.838130</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.584271</t>
+          <t>2025-10-23T11:28:59.838130</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.584271</t>
+          <t>2025-10-23T11:28:59.838637</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.584271</t>
+          <t>2025-10-23T11:28:59.838667</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.584271</t>
+          <t>2025-10-23T11:28:59.838667</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.584271</t>
+          <t>2025-10-23T11:28:59.838667</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.584271</t>
+          <t>2025-10-23T11:28:59.838667</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.584271</t>
+          <t>2025-10-23T11:28:59.839202</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.584271</t>
+          <t>2025-10-23T11:28:59.839202</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.585270</t>
+          <t>2025-10-23T11:28:59.839202</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.585270</t>
+          <t>2025-10-23T11:28:59.839202</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.585270</t>
+          <t>2025-10-23T11:28:59.839740</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.585270</t>
+          <t>2025-10-23T11:28:59.839740</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.585270</t>
+          <t>2025-10-23T11:28:59.839740</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.586269</t>
+          <t>2025-10-23T11:28:59.839740</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.586269</t>
+          <t>2025-10-23T11:28:59.840276</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.586269</t>
+          <t>2025-10-23T11:28:59.840276</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.586269</t>
+          <t>2025-10-23T11:28:59.840276</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.586269</t>
+          <t>2025-10-23T11:28:59.840276</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.587268</t>
+          <t>2025-10-23T11:28:59.840811</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.587268</t>
+          <t>2025-10-23T11:28:59.840811</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.587268</t>
+          <t>2025-10-23T11:28:59.840811</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.587268</t>
+          <t>2025-10-23T11:28:59.840811</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.587268</t>
+          <t>2025-10-23T11:28:59.841345</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.587268</t>
+          <t>2025-10-23T11:28:59.841345</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.588268</t>
+          <t>2025-10-23T11:28:59.841345</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.588268</t>
+          <t>2025-10-23T11:28:59.841345</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.588268</t>
+          <t>2025-10-23T11:28:59.841881</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.588268</t>
+          <t>2025-10-23T11:28:59.841881</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.589271</t>
+          <t>2025-10-23T11:28:59.841881</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.590272</t>
+          <t>2025-10-23T11:28:59.841881</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.590272</t>
+          <t>2025-10-23T11:28:59.842413</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.590272</t>
+          <t>2025-10-23T11:28:59.842413</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.590272</t>
+          <t>2025-10-23T11:28:59.842413</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.591276</t>
+          <t>2025-10-23T11:28:59.842413</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.592302</t>
+          <t>2025-10-23T11:28:59.842918</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.592302</t>
+          <t>2025-10-23T11:28:59.842943</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.592302</t>
+          <t>2025-10-23T11:28:59.842943</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.592302</t>
+          <t>2025-10-23T11:28:59.842943</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.593273</t>
+          <t>2025-10-23T11:28:59.842943</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.593273</t>
+          <t>2025-10-23T11:28:59.843476</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.593273</t>
+          <t>2025-10-23T11:28:59.843476</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.593273</t>
+          <t>2025-10-23T11:28:59.843476</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.593273</t>
+          <t>2025-10-23T11:28:59.843476</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.593273</t>
+          <t>2025-10-23T11:28:59.844030</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.594268</t>
+          <t>2025-10-23T11:28:59.844030</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.594268</t>
+          <t>2025-10-23T11:28:59.844030</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.594268</t>
+          <t>2025-10-23T11:28:59.844572</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.594268</t>
+          <t>2025-10-23T11:28:59.844572</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.594268</t>
+          <t>2025-10-23T11:28:59.844572</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.594268</t>
+          <t>2025-10-23T11:28:59.844572</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.595272</t>
+          <t>2025-10-23T11:28:59.845096</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.595272</t>
+          <t>2025-10-23T11:28:59.845115</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.595272</t>
+          <t>2025-10-23T11:28:59.845115</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.595272</t>
+          <t>2025-10-23T11:28:59.845115</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.595272</t>
+          <t>2025-10-23T11:28:59.845115</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.595272</t>
+          <t>2025-10-23T11:28:59.845652</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.596270</t>
+          <t>2025-10-23T11:28:59.845652</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.596270</t>
+          <t>2025-10-23T11:28:59.845652</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.596270</t>
+          <t>2025-10-23T11:28:59.845652</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.596270</t>
+          <t>2025-10-23T11:28:59.846190</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.596270</t>
+          <t>2025-10-23T11:28:59.846190</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.596270</t>
+          <t>2025-10-23T11:28:59.846190</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.597271</t>
+          <t>2025-10-23T11:28:59.846190</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.597271</t>
+          <t>2025-10-23T11:28:59.846727</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.597271</t>
+          <t>2025-10-23T11:28:59.846727</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.597271</t>
+          <t>2025-10-23T11:28:59.846727</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.597271</t>
+          <t>2025-10-23T11:28:59.846727</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.597271</t>
+          <t>2025-10-23T11:28:59.847266</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.598273</t>
+          <t>2025-10-23T11:28:59.847266</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.598273</t>
+          <t>2025-10-23T11:28:59.847790</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.598273</t>
+          <t>2025-10-23T11:28:59.848761</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.598273</t>
+          <t>2025-10-23T11:28:59.849298</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.598273</t>
+          <t>2025-10-23T11:28:59.849298</t>
         </is>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.599270</t>
+          <t>2025-10-23T11:28:59.849298</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.599270</t>
+          <t>2025-10-23T11:28:59.849298</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.599270</t>
+          <t>2025-10-23T11:28:59.849298</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.599270</t>
+          <t>2025-10-23T11:28:59.850287</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.599270</t>
+          <t>2025-10-23T11:28:59.850287</t>
         </is>
       </c>
     </row>
@@ -9107,7 +9107,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.599270</t>
+          <t>2025-10-23T11:28:59.850287</t>
         </is>
       </c>
     </row>
@@ -9195,7 +9195,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.600271</t>
+          <t>2025-10-23T11:28:59.850287</t>
         </is>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.600271</t>
+          <t>2025-10-23T11:28:59.850287</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.600271</t>
+          <t>2025-10-23T11:28:59.850287</t>
         </is>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.600271</t>
+          <t>2025-10-23T11:28:59.850287</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.600271</t>
+          <t>2025-10-23T11:28:59.850287</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.600271</t>
+          <t>2025-10-23T11:28:59.851287</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.601271</t>
+          <t>2025-10-23T11:28:59.851287</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.601271</t>
+          <t>2025-10-23T11:28:59.851287</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.601271</t>
+          <t>2025-10-23T11:28:59.851287</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.601271</t>
+          <t>2025-10-23T11:28:59.851287</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.601271</t>
+          <t>2025-10-23T11:28:59.851287</t>
         </is>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.601271</t>
+          <t>2025-10-23T11:28:59.851287</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.602272</t>
+          <t>2025-10-23T11:28:59.851287</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.602272</t>
+          <t>2025-10-23T11:28:59.852287</t>
         </is>
       </c>
     </row>
@@ -10427,7 +10427,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.602272</t>
+          <t>2025-10-23T11:28:59.852287</t>
         </is>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.602272</t>
+          <t>2025-10-23T11:28:59.852287</t>
         </is>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.602272</t>
+          <t>2025-10-23T11:28:59.852287</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.603270</t>
+          <t>2025-10-23T11:28:59.852287</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.603270</t>
+          <t>2025-10-23T11:28:59.852287</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10867,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.603270</t>
+          <t>2025-10-23T11:28:59.853290</t>
         </is>
       </c>
     </row>
@@ -10955,7 +10955,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.604274</t>
+          <t>2025-10-23T11:28:59.853290</t>
         </is>
       </c>
     </row>
@@ -11043,7 +11043,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.604274</t>
+          <t>2025-10-23T11:28:59.853290</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.604274</t>
+          <t>2025-10-23T11:28:59.853826</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.604274</t>
+          <t>2025-10-23T11:28:59.853826</t>
         </is>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.604274</t>
+          <t>2025-10-23T11:28:59.853826</t>
         </is>
       </c>
     </row>
@@ -11395,7 +11395,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.604274</t>
+          <t>2025-10-23T11:28:59.853826</t>
         </is>
       </c>
     </row>
@@ -11483,7 +11483,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.605271</t>
+          <t>2025-10-23T11:28:59.854372</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.605271</t>
+          <t>2025-10-23T11:28:59.854372</t>
         </is>
       </c>
     </row>
@@ -11659,7 +11659,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.606273</t>
+          <t>2025-10-23T11:28:59.854372</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.607274</t>
+          <t>2025-10-23T11:28:59.854372</t>
         </is>
       </c>
     </row>
@@ -11835,7 +11835,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.608272</t>
+          <t>2025-10-23T11:28:59.854914</t>
         </is>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.608272</t>
+          <t>2025-10-23T11:28:59.854914</t>
         </is>
       </c>
     </row>
@@ -12011,7 +12011,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.608272</t>
+          <t>2025-10-23T11:28:59.854914</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.608272</t>
+          <t>2025-10-23T11:28:59.855457</t>
         </is>
       </c>
     </row>
@@ -12187,7 +12187,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.608272</t>
+          <t>2025-10-23T11:28:59.855457</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.609274</t>
+          <t>2025-10-23T11:28:59.855457</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.609274</t>
+          <t>2025-10-23T11:28:59.855976</t>
         </is>
       </c>
     </row>
@@ -12451,7 +12451,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.609274</t>
+          <t>2025-10-23T11:28:59.855976</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.609274</t>
+          <t>2025-10-23T11:28:59.855976</t>
         </is>
       </c>
     </row>
@@ -12627,7 +12627,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.609274</t>
+          <t>2025-10-23T11:28:59.855976</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.610274</t>
+          <t>2025-10-23T11:28:59.855976</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.610274</t>
+          <t>2025-10-23T11:28:59.855976</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.610274</t>
+          <t>2025-10-23T11:28:59.855976</t>
         </is>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.610274</t>
+          <t>2025-10-23T11:28:59.855976</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.611270</t>
+          <t>2025-10-23T11:28:59.856973</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.611270</t>
+          <t>2025-10-23T11:28:59.856973</t>
         </is>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.611270</t>
+          <t>2025-10-23T11:28:59.856973</t>
         </is>
       </c>
     </row>
@@ -13331,7 +13331,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.612275</t>
+          <t>2025-10-23T11:28:59.856973</t>
         </is>
       </c>
     </row>
@@ -13419,7 +13419,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.612275</t>
+          <t>2025-10-23T11:28:59.856973</t>
         </is>
       </c>
     </row>
@@ -13507,7 +13507,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.612275</t>
+          <t>2025-10-23T11:28:59.856973</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.613273</t>
+          <t>2025-10-23T11:28:59.856973</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.614424</t>
+          <t>2025-10-23T11:28:59.856973</t>
         </is>
       </c>
     </row>
@@ -13771,7 +13771,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.614424</t>
+          <t>2025-10-23T11:28:59.856973</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.614956</t>
+          <t>2025-10-23T11:28:59.857973</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.614956</t>
+          <t>2025-10-23T11:28:59.857973</t>
         </is>
       </c>
     </row>
@@ -14035,7 +14035,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.614956</t>
+          <t>2025-10-23T11:28:59.857973</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14123,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.614956</t>
+          <t>2025-10-23T11:28:59.857973</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.614956</t>
+          <t>2025-10-23T11:28:59.857973</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.615953</t>
+          <t>2025-10-23T11:28:59.857973</t>
         </is>
       </c>
     </row>
@@ -14387,7 +14387,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.615953</t>
+          <t>2025-10-23T11:28:59.857973</t>
         </is>
       </c>
     </row>
@@ -14475,7 +14475,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.615953</t>
+          <t>2025-10-23T11:28:59.857973</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.615953</t>
+          <t>2025-10-23T11:28:59.858973</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.615953</t>
+          <t>2025-10-23T11:28:59.858973</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.615953</t>
+          <t>2025-10-23T11:28:59.858973</t>
         </is>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.616955</t>
+          <t>2025-10-23T11:28:59.858973</t>
         </is>
       </c>
     </row>
@@ -14915,7 +14915,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.616955</t>
+          <t>2025-10-23T11:28:59.858973</t>
         </is>
       </c>
     </row>
@@ -15003,7 +15003,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.616955</t>
+          <t>2025-10-23T11:28:59.858973</t>
         </is>
       </c>
     </row>
@@ -15091,7 +15091,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.617950</t>
+          <t>2025-10-23T11:28:59.858973</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.617950</t>
+          <t>2025-10-23T11:28:59.858973</t>
         </is>
       </c>
     </row>
@@ -15267,7 +15267,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.618286</t>
+          <t>2025-10-23T11:28:59.858973</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.618821</t>
+          <t>2025-10-23T11:28:59.859972</t>
         </is>
       </c>
     </row>
@@ -15443,7 +15443,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.619367</t>
+          <t>2025-10-23T11:28:59.859972</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15531,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:15.619367</t>
+          <t>2025-10-23T11:28:59.859972</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R50_Pproporcion.xlsx
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.834853</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.834853</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.835368</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.835368</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.835368</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.835368</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.835368</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.836387</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.836387</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.836387</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.836387</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.837384</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.837577</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.837577</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.837577</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.838130</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.838130</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.838130</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.838130</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.838637</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.838667</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.838667</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.838667</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.838667</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.839202</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.839202</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.839202</t>
+          <t>2025-10-23T12:44:59.917543</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.839202</t>
+          <t>2025-10-23T12:44:59.926672</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.839740</t>
+          <t>2025-10-23T12:44:59.926672</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.839740</t>
+          <t>2025-10-23T12:44:59.926672</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.839740</t>
+          <t>2025-10-23T12:44:59.928207</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.839740</t>
+          <t>2025-10-23T12:44:59.928207</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.840276</t>
+          <t>2025-10-23T12:44:59.929202</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.840276</t>
+          <t>2025-10-23T12:44:59.930195</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.840276</t>
+          <t>2025-10-23T12:44:59.930195</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.840276</t>
+          <t>2025-10-23T12:44:59.930195</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.840811</t>
+          <t>2025-10-23T12:44:59.931402</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.840811</t>
+          <t>2025-10-23T12:44:59.931402</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.840811</t>
+          <t>2025-10-23T12:44:59.931874</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.840811</t>
+          <t>2025-10-23T12:44:59.932028</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.841345</t>
+          <t>2025-10-23T12:44:59.932028</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.841345</t>
+          <t>2025-10-23T12:44:59.932028</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.841345</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.841345</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.841881</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.841881</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.841881</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.841881</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.842413</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.842413</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.842413</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.842413</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.842918</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.842943</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.842943</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.842943</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.842943</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.843476</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.843476</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.843476</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.843476</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.844030</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.844030</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.844030</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.844572</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.844572</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.844572</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.844572</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.845096</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.845115</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.845115</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.845115</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.845115</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.845652</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.845652</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.845652</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.845652</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.846190</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.846190</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.846190</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.846190</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.846727</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.846727</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.846727</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.846727</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.847266</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.847266</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.847790</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.848761</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.849298</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.849298</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.849298</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.849298</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.849298</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.850287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.850287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9107,7 +9107,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.850287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9195,7 +9195,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.850287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.850287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.850287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.850287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.850287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.851287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.851287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.851287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.851287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.851287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.851287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.851287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.851287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.852287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10427,7 +10427,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.852287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.852287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.852287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.852287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.852287</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10867,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.853290</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -10955,7 +10955,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.853290</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11043,7 +11043,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.853290</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.853826</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.853826</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.853826</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11395,7 +11395,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.853826</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11483,7 +11483,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.854372</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.854372</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11659,7 +11659,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.854372</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.854372</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11835,7 +11835,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.854914</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.854914</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12011,7 +12011,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.854914</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855457</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12187,7 +12187,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855457</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855457</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855976</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12451,7 +12451,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855976</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855976</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12627,7 +12627,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855976</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855976</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855976</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855976</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.855976</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.856973</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.856973</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.856973</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -13331,7 +13331,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.856973</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -13419,7 +13419,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.856973</t>
+          <t>2025-10-23T12:44:59.932538</t>
         </is>
       </c>
     </row>
@@ -13507,7 +13507,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.856973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.856973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.856973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -13771,7 +13771,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.856973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.857973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.857973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14035,7 +14035,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.857973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14123,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.857973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.857973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.857973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14387,7 +14387,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.857973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14475,7 +14475,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.857973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.858973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.858973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.858973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.858973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -14915,7 +14915,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.858973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -15003,7 +15003,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.858973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -15091,7 +15091,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.858973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.858973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -15267,7 +15267,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.858973</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.859972</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -15443,7 +15443,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.859972</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15531,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:59.859972</t>
+          <t>2025-10-23T12:44:59.948182</t>
         </is>
       </c>
     </row>
